--- a/History/FR/history_8.xlsx
+++ b/History/FR/history_8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365khu-my.sharepoint.com/personal/dns0191_office_khu_ac_kr/Documents/연구/Code_PKE_test_explicit_2/History/FR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Programs\Reactivity_Analyzer\C++\Euler\History\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_AD4D066CA252ABDACC10480219235C1B48B8DF51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9760C802-08B5-429E-9A5B-C3F0D8BBBA35}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83780788-6308-40AA-9185-712448FABA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2540" windowWidth="10980" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>Ch#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch#4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9301"/>
+  <dimension ref="A1:H9301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D363"/>
@@ -457,7 +461,7 @@
     <col min="7" max="7" width="11.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +480,11 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -487,8 +494,8 @@
       <c r="C2" s="3">
         <v>22.63</v>
       </c>
-      <c r="D2" s="2">
-        <v>1.7579240000000001E-9</v>
+      <c r="D2">
+        <v>4.4748800000000001E-10</v>
       </c>
       <c r="F2" s="2">
         <v>1.7579240000000001E-9</v>
@@ -496,8 +503,11 @@
       <c r="G2" s="5">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2">
+        <v>4.4748800000000001E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -507,8 +517,8 @@
       <c r="C3" s="3">
         <v>22.63</v>
       </c>
-      <c r="D3" s="2">
-        <v>1.631173E-9</v>
+      <c r="D3">
+        <v>4.4789599999999999E-10</v>
       </c>
       <c r="F3" s="2">
         <v>1.631173E-9</v>
@@ -516,8 +526,11 @@
       <c r="G3" s="5">
         <v>11.65</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3">
+        <v>4.4789599999999999E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -527,8 +540,8 @@
       <c r="C4" s="3">
         <v>22.63</v>
       </c>
-      <c r="D4" s="2">
-        <v>1.34122E-9</v>
+      <c r="D4">
+        <v>4.48873E-10</v>
       </c>
       <c r="F4" s="2">
         <v>1.34122E-9</v>
@@ -536,8 +549,11 @@
       <c r="G4" s="5">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4">
+        <v>4.48873E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -547,8 +563,8 @@
       <c r="C5" s="3">
         <v>22.63</v>
       </c>
-      <c r="D5" s="2">
-        <v>2.0892960000000002E-9</v>
+      <c r="D5">
+        <v>4.4984000000000002E-10</v>
       </c>
       <c r="F5" s="2">
         <v>2.0892960000000002E-9</v>
@@ -556,8 +572,11 @@
       <c r="G5" s="5">
         <v>11.85</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5">
+        <v>4.4984000000000002E-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -567,8 +586,8 @@
       <c r="C6" s="3">
         <v>22.63</v>
       </c>
-      <c r="D6" s="2">
-        <v>9.9426000000000004E-10</v>
+      <c r="D6">
+        <v>4.50247E-10</v>
       </c>
       <c r="F6" s="2">
         <v>9.9426000000000004E-10</v>
@@ -576,8 +595,11 @@
       <c r="G6" s="5">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6">
+        <v>4.50247E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -587,8 +609,8 @@
       <c r="C7" s="3">
         <v>22.63</v>
       </c>
-      <c r="D7" s="2">
-        <v>1.9054610000000001E-9</v>
+      <c r="D7">
+        <v>4.5064899999999998E-10</v>
       </c>
       <c r="F7" s="2">
         <v>1.9054610000000001E-9</v>
@@ -596,8 +618,11 @@
       <c r="G7" s="5">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7">
+        <v>4.5064899999999998E-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -607,8 +632,8 @@
       <c r="C8" s="3">
         <v>22.63</v>
       </c>
-      <c r="D8" s="2">
-        <v>2.113489E-9</v>
+      <c r="D8">
+        <v>4.5124599999999998E-10</v>
       </c>
       <c r="F8" s="2">
         <v>2.113489E-9</v>
@@ -616,8 +641,11 @@
       <c r="G8" s="5">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8">
+        <v>4.5124599999999998E-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -627,8 +655,8 @@
       <c r="C9" s="3">
         <v>22.63</v>
       </c>
-      <c r="D9" s="2">
-        <v>1.6691679999999999E-9</v>
+      <c r="D9">
+        <v>4.51862E-10</v>
       </c>
       <c r="F9" s="2">
         <v>1.6691679999999999E-9</v>
@@ -636,8 +664,11 @@
       <c r="G9" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9">
+        <v>4.51862E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -647,8 +678,8 @@
       <c r="C10" s="3">
         <v>22.63</v>
       </c>
-      <c r="D10" s="2">
-        <v>1.2373709999999999E-9</v>
+      <c r="D10">
+        <v>4.5275199999999998E-10</v>
       </c>
       <c r="F10" s="2">
         <v>1.2373709999999999E-9</v>
@@ -656,8 +687,11 @@
       <c r="G10" s="5">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10">
+        <v>4.5275199999999998E-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -667,8 +701,8 @@
       <c r="C11" s="3">
         <v>22.63</v>
       </c>
-      <c r="D11" s="2">
-        <v>1.64059E-9</v>
+      <c r="D11">
+        <v>4.5370499999999999E-10</v>
       </c>
       <c r="F11" s="2">
         <v>1.64059E-9</v>
@@ -676,8 +710,11 @@
       <c r="G11" s="5">
         <v>12.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11">
+        <v>4.5370499999999999E-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -687,8 +724,8 @@
       <c r="C12" s="3">
         <v>22.63</v>
       </c>
-      <c r="D12" s="2">
-        <v>2.0535250000000001E-9</v>
+      <c r="D12">
+        <v>4.54791E-10</v>
       </c>
       <c r="F12" s="2">
         <v>2.0535250000000001E-9</v>
@@ -696,8 +733,11 @@
       <c r="G12" s="5">
         <v>11.95</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12">
+        <v>4.54791E-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -707,8 +747,8 @@
       <c r="C13" s="3">
         <v>22.63</v>
       </c>
-      <c r="D13" s="2">
-        <v>1.148154E-9</v>
+      <c r="D13">
+        <v>4.5556500000000002E-10</v>
       </c>
       <c r="F13" s="2">
         <v>1.148154E-9</v>
@@ -716,8 +756,11 @@
       <c r="G13" s="5">
         <v>12.05</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13">
+        <v>4.5556500000000002E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -727,8 +770,8 @@
       <c r="C14" s="3">
         <v>22.63</v>
       </c>
-      <c r="D14" s="2">
-        <v>2.0300190000000001E-9</v>
+      <c r="D14">
+        <v>4.5626599999999998E-10</v>
       </c>
       <c r="F14" s="2">
         <v>2.0300190000000001E-9</v>
@@ -736,8 +779,11 @@
       <c r="G14" s="5">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14">
+        <v>4.5626599999999998E-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -747,8 +793,8 @@
       <c r="C15" s="3">
         <v>22.63</v>
       </c>
-      <c r="D15" s="2">
-        <v>1.557758E-9</v>
+      <c r="D15">
+        <v>4.5731300000000002E-10</v>
       </c>
       <c r="F15" s="2">
         <v>1.557758E-9</v>
@@ -756,8 +802,11 @@
       <c r="G15" s="5">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15">
+        <v>4.5731300000000002E-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -767,8 +816,8 @@
       <c r="C16" s="3">
         <v>22.63</v>
       </c>
-      <c r="D16" s="2">
-        <v>1.862087E-9</v>
+      <c r="D16">
+        <v>4.5925400000000003E-10</v>
       </c>
       <c r="F16" s="2">
         <v>1.862087E-9</v>
@@ -776,8 +825,11 @@
       <c r="G16" s="5">
         <v>13.45</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16">
+        <v>4.5925400000000003E-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -787,8 +839,8 @@
       <c r="C17" s="3">
         <v>22.63</v>
       </c>
-      <c r="D17" s="2">
-        <v>1.154782E-9</v>
+      <c r="D17">
+        <v>4.6214799999999998E-10</v>
       </c>
       <c r="F17" s="2">
         <v>1.154782E-9</v>
@@ -796,8 +848,11 @@
       <c r="G17" s="5">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17">
+        <v>4.6214799999999998E-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -807,8 +862,8 @@
       <c r="C18" s="3">
         <v>22.63</v>
       </c>
-      <c r="D18" s="2">
-        <v>1.727826E-9</v>
+      <c r="D18">
+        <v>4.6456E-10</v>
       </c>
       <c r="F18" s="2">
         <v>1.727826E-9</v>
@@ -816,8 +871,11 @@
       <c r="G18" s="5">
         <v>13.15</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18">
+        <v>4.6456E-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -827,8 +885,8 @@
       <c r="C19" s="3">
         <v>22.63</v>
       </c>
-      <c r="D19" s="2">
-        <v>2.1877620000000001E-9</v>
+      <c r="D19">
+        <v>4.6743699999999996E-10</v>
       </c>
       <c r="F19" s="2">
         <v>2.1877620000000001E-9</v>
@@ -836,8 +894,11 @@
       <c r="G19" s="5">
         <v>12.65</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H19">
+        <v>4.6743699999999996E-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -847,8 +908,8 @@
       <c r="C20" s="3">
         <v>22.63</v>
       </c>
-      <c r="D20" s="2">
-        <v>1.7988709999999999E-9</v>
+      <c r="D20">
+        <v>4.7016099999999996E-10</v>
       </c>
       <c r="F20" s="2">
         <v>1.7988709999999999E-9</v>
@@ -856,8 +917,11 @@
       <c r="G20" s="5">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H20">
+        <v>4.7016099999999996E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -867,8 +931,8 @@
       <c r="C21" s="3">
         <v>22.63</v>
       </c>
-      <c r="D21" s="2">
-        <v>2.2646440000000002E-9</v>
+      <c r="D21">
+        <v>4.7333900000000003E-10</v>
       </c>
       <c r="F21" s="2">
         <v>2.2646440000000002E-9</v>
@@ -876,8 +940,11 @@
       <c r="G21" s="5">
         <v>13.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H21">
+        <v>4.7333900000000003E-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -887,8 +954,8 @@
       <c r="C22" s="3">
         <v>22.63</v>
       </c>
-      <c r="D22" s="2">
-        <v>1.5940429999999999E-9</v>
+      <c r="D22">
+        <v>4.7654300000000002E-10</v>
       </c>
       <c r="F22" s="2">
         <v>1.5940429999999999E-9</v>
@@ -896,8 +963,11 @@
       <c r="G22" s="5">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H22">
+        <v>4.7654300000000002E-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -907,8 +977,8 @@
       <c r="C23" s="3">
         <v>22.63</v>
       </c>
-      <c r="D23" s="2">
-        <v>1.9164610000000001E-9</v>
+      <c r="D23">
+        <v>4.7989899999999996E-10</v>
       </c>
       <c r="F23" s="2">
         <v>1.9164610000000001E-9</v>
@@ -916,8 +986,11 @@
       <c r="G23" s="5">
         <v>13.15</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H23">
+        <v>4.7989899999999996E-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -927,8 +1000,8 @@
       <c r="C24" s="3">
         <v>22.63</v>
       </c>
-      <c r="D24" s="2">
-        <v>1.168154E-9</v>
+      <c r="D24">
+        <v>4.8268399999999996E-10</v>
       </c>
       <c r="F24" s="2">
         <v>1.168154E-9</v>
@@ -936,8 +1009,11 @@
       <c r="G24" s="5">
         <v>13.75</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H24">
+        <v>4.8268399999999996E-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -947,8 +1023,8 @@
       <c r="C25" s="3">
         <v>22.63</v>
       </c>
-      <c r="D25" s="2">
-        <v>2.0183659999999999E-9</v>
+      <c r="D25">
+        <v>4.8625299999999998E-10</v>
       </c>
       <c r="F25" s="2">
         <v>2.0183659999999999E-9</v>
@@ -956,8 +1032,11 @@
       <c r="G25" s="5">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H25">
+        <v>4.8625299999999998E-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -967,8 +1046,8 @@
       <c r="C26" s="3">
         <v>22.63</v>
       </c>
-      <c r="D26" s="2">
-        <v>2.2646440000000002E-9</v>
+      <c r="D26">
+        <v>4.8859800000000003E-10</v>
       </c>
       <c r="F26" s="2">
         <v>2.2646440000000002E-9</v>
@@ -976,8 +1055,11 @@
       <c r="G26" s="5">
         <v>13.55</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H26">
+        <v>4.8859800000000003E-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -987,8 +1069,8 @@
       <c r="C27" s="3">
         <v>22.63</v>
       </c>
-      <c r="D27" s="2">
-        <v>1.9498449999999999E-9</v>
+      <c r="D27">
+        <v>4.9118700000000001E-10</v>
       </c>
       <c r="F27" s="2">
         <v>1.9498449999999999E-9</v>
@@ -996,8 +1078,11 @@
       <c r="G27" s="5">
         <v>13.95</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H27">
+        <v>4.9118700000000001E-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -1007,8 +1092,8 @@
       <c r="C28" s="3">
         <v>22.63</v>
       </c>
-      <c r="D28" s="2">
-        <v>2.2003919999999999E-9</v>
+      <c r="D28">
+        <v>4.9420400000000004E-10</v>
       </c>
       <c r="F28" s="2">
         <v>2.2003919999999999E-9</v>
@@ -1016,8 +1101,11 @@
       <c r="G28" s="5">
         <v>14.25</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H28">
+        <v>4.9420400000000004E-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -1027,8 +1115,8 @@
       <c r="C29" s="3">
         <v>22.63</v>
       </c>
-      <c r="D29" s="2">
-        <v>1.9952619999999998E-9</v>
+      <c r="D29">
+        <v>4.9807200000000004E-10</v>
       </c>
       <c r="F29" s="2">
         <v>1.9952619999999998E-9</v>
@@ -1036,8 +1124,11 @@
       <c r="G29" s="5">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H29">
+        <v>4.9807200000000004E-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -1047,8 +1138,8 @@
       <c r="C30" s="3">
         <v>22.63</v>
       </c>
-      <c r="D30" s="2">
-        <v>2.3173949999999999E-9</v>
+      <c r="D30">
+        <v>5.0149400000000003E-10</v>
       </c>
       <c r="F30" s="2">
         <v>2.3173949999999999E-9</v>
@@ -1056,8 +1147,11 @@
       <c r="G30" s="5">
         <v>14.55</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H30">
+        <v>5.0149400000000003E-10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -1067,8 +1161,8 @@
       <c r="C31" s="3">
         <v>22.63</v>
       </c>
-      <c r="D31" s="2">
-        <v>1.531087E-9</v>
+      <c r="D31">
+        <v>5.0587900000000001E-10</v>
       </c>
       <c r="F31" s="2">
         <v>1.531087E-9</v>
@@ -1076,8 +1170,11 @@
       <c r="G31" s="5">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H31">
+        <v>5.0587900000000001E-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -1087,8 +1184,8 @@
       <c r="C32" s="3">
         <v>22.63</v>
       </c>
-      <c r="D32" s="2">
-        <v>2.2258710000000002E-9</v>
+      <c r="D32">
+        <v>5.0923300000000003E-10</v>
       </c>
       <c r="F32" s="2">
         <v>2.2258710000000002E-9</v>
@@ -1096,8 +1193,11 @@
       <c r="G32" s="5">
         <v>14.65</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H32">
+        <v>5.0923300000000003E-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -1107,8 +1207,8 @@
       <c r="C33" s="3">
         <v>22.63</v>
       </c>
-      <c r="D33" s="2">
-        <v>1.513561E-9</v>
+      <c r="D33">
+        <v>5.1273800000000001E-10</v>
       </c>
       <c r="F33" s="2">
         <v>1.513561E-9</v>
@@ -1116,8 +1216,11 @@
       <c r="G33" s="5">
         <v>14.85</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H33">
+        <v>5.1273800000000001E-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -1127,8 +1230,8 @@
       <c r="C34" s="3">
         <v>22.63</v>
       </c>
-      <c r="D34" s="2">
-        <v>2.1627189999999998E-9</v>
+      <c r="D34">
+        <v>5.1567000000000004E-10</v>
       </c>
       <c r="F34" s="2">
         <v>2.1627189999999998E-9</v>
@@ -1136,8 +1239,11 @@
       <c r="G34" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H34">
+        <v>5.1567000000000004E-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -1147,8 +1253,8 @@
       <c r="C35" s="3">
         <v>22.63</v>
       </c>
-      <c r="D35" s="2">
-        <v>2.3577620000000002E-9</v>
+      <c r="D35">
+        <v>5.1803100000000003E-10</v>
       </c>
       <c r="F35" s="2">
         <v>2.3577620000000002E-9</v>
@@ -1156,8 +1262,11 @@
       <c r="G35" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H35">
+        <v>5.1803100000000003E-10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -1167,8 +1276,8 @@
       <c r="C36" s="3">
         <v>22.63</v>
       </c>
-      <c r="D36" s="2">
-        <v>2.0300190000000001E-9</v>
+      <c r="D36">
+        <v>5.2209300000000003E-10</v>
       </c>
       <c r="F36" s="2">
         <v>2.0300190000000001E-9</v>
@@ -1176,8 +1285,11 @@
       <c r="G36" s="5">
         <v>15.05</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H36">
+        <v>5.2209300000000003E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -1187,8 +1299,8 @@
       <c r="C37" s="3">
         <v>22.63</v>
       </c>
-      <c r="D37" s="2">
-        <v>2.5118860000000001E-9</v>
+      <c r="D37">
+        <v>5.2642200000000005E-10</v>
       </c>
       <c r="F37" s="2">
         <v>2.5118860000000001E-9</v>
@@ -1196,8 +1308,11 @@
       <c r="G37" s="5">
         <v>15.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H37">
+        <v>5.2642200000000005E-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -1207,8 +1322,8 @@
       <c r="C38" s="3">
         <v>22.63</v>
       </c>
-      <c r="D38" s="2">
-        <v>1.348963E-9</v>
+      <c r="D38">
+        <v>5.3033199999999998E-10</v>
       </c>
       <c r="F38" s="2">
         <v>1.348963E-9</v>
@@ -1216,8 +1331,11 @@
       <c r="G38" s="5">
         <v>15.25</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H38">
+        <v>5.3033199999999998E-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -1227,8 +1345,8 @@
       <c r="C39" s="3">
         <v>22.63</v>
       </c>
-      <c r="D39" s="2">
-        <v>2.2258710000000002E-9</v>
+      <c r="D39">
+        <v>5.3309800000000003E-10</v>
       </c>
       <c r="F39" s="2">
         <v>2.2258710000000002E-9</v>
@@ -1236,8 +1354,11 @@
       <c r="G39" s="5">
         <v>15.25</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H39">
+        <v>5.3309800000000003E-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -1247,8 +1368,8 @@
       <c r="C40" s="3">
         <v>22.63</v>
       </c>
-      <c r="D40" s="2">
-        <v>2.483133E-9</v>
+      <c r="D40">
+        <v>5.3503800000000003E-10</v>
       </c>
       <c r="F40" s="2">
         <v>2.483133E-9</v>
@@ -1256,8 +1377,11 @@
       <c r="G40" s="5">
         <v>15.45</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H40">
+        <v>5.3503800000000003E-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -1267,8 +1391,8 @@
       <c r="C41" s="3">
         <v>22.63</v>
       </c>
-      <c r="D41" s="2">
-        <v>2.0417379999999998E-9</v>
+      <c r="D41">
+        <v>5.3645199999999996E-10</v>
       </c>
       <c r="F41" s="2">
         <v>2.0417379999999998E-9</v>
@@ -1276,8 +1400,11 @@
       <c r="G41" s="5">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H41">
+        <v>5.3645199999999996E-10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -1287,8 +1414,8 @@
       <c r="C42" s="3">
         <v>22.63</v>
       </c>
-      <c r="D42" s="2">
-        <v>2.5556419999999999E-9</v>
+      <c r="D42">
+        <v>5.3920900000000004E-10</v>
       </c>
       <c r="F42" s="2">
         <v>2.5556419999999999E-9</v>
@@ -1296,8 +1423,11 @@
       <c r="G42" s="5">
         <v>15.65</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H42">
+        <v>5.3920900000000004E-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -1307,8 +1437,8 @@
       <c r="C43" s="3">
         <v>22.63</v>
       </c>
-      <c r="D43" s="2">
-        <v>1.7988709999999999E-9</v>
+      <c r="D43">
+        <v>5.4263799999999998E-10</v>
       </c>
       <c r="F43" s="2">
         <v>1.7988709999999999E-9</v>
@@ -1316,8 +1446,11 @@
       <c r="G43" s="5">
         <v>15.75</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H43">
+        <v>5.4263799999999998E-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -1327,8 +1460,8 @@
       <c r="C44" s="3">
         <v>22.63</v>
       </c>
-      <c r="D44" s="2">
-        <v>2.3173949999999999E-9</v>
+      <c r="D44">
+        <v>5.4585200000000005E-10</v>
       </c>
       <c r="F44" s="2">
         <v>2.3173949999999999E-9</v>
@@ -1336,8 +1469,11 @@
       <c r="G44" s="5">
         <v>15.85</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H44">
+        <v>5.4585200000000005E-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -1347,8 +1483,8 @@
       <c r="C45" s="3">
         <v>22.63</v>
       </c>
-      <c r="D45" s="2">
-        <v>1.7782790000000001E-9</v>
+      <c r="D45">
+        <v>5.4966099999999995E-10</v>
       </c>
       <c r="F45" s="2">
         <v>1.7782790000000001E-9</v>
@@ -1356,8 +1492,11 @@
       <c r="G45" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H45">
+        <v>5.4966099999999995E-10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -1367,8 +1506,8 @@
       <c r="C46" s="3">
         <v>22.63</v>
       </c>
-      <c r="D46" s="2">
-        <v>2.2258710000000002E-9</v>
+      <c r="D46">
+        <v>5.5285300000000003E-10</v>
       </c>
       <c r="F46" s="2">
         <v>2.2258710000000002E-9</v>
@@ -1376,8 +1515,11 @@
       <c r="G46" s="5">
         <v>15.95</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H46">
+        <v>5.5285300000000003E-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -1387,8 +1529,8 @@
       <c r="C47" s="3">
         <v>22.63</v>
       </c>
-      <c r="D47" s="2">
-        <v>1.9724229999999998E-9</v>
+      <c r="D47">
+        <v>5.5546199999999998E-10</v>
       </c>
       <c r="F47" s="2">
         <v>1.9724229999999998E-9</v>
@@ -1396,8 +1538,11 @@
       <c r="G47" s="5">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H47">
+        <v>5.5546199999999998E-10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -1407,8 +1552,8 @@
       <c r="C48" s="3">
         <v>22.63</v>
       </c>
-      <c r="D48" s="2">
-        <v>2.113489E-9</v>
+      <c r="D48">
+        <v>5.5870000000000005E-10</v>
       </c>
       <c r="F48" s="2">
         <v>2.113489E-9</v>
@@ -1416,8 +1561,11 @@
       <c r="G48" s="5">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H48">
+        <v>5.5870000000000005E-10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -1427,8 +1575,8 @@
       <c r="C49" s="3">
         <v>22.63</v>
       </c>
-      <c r="D49" s="2">
-        <v>2.4547090000000002E-9</v>
+      <c r="D49">
+        <v>5.6240499999999998E-10</v>
       </c>
       <c r="F49" s="2">
         <v>2.4547090000000002E-9</v>
@@ -1436,8 +1584,11 @@
       <c r="G49" s="5">
         <v>16.45</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H49">
+        <v>5.6240499999999998E-10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -1447,8 +1598,8 @@
       <c r="C50" s="3">
         <v>22.63</v>
       </c>
-      <c r="D50" s="2">
-        <v>1.487647E-9</v>
+      <c r="D50">
+        <v>5.6656199999999997E-10</v>
       </c>
       <c r="F50" s="2">
         <v>1.487647E-9</v>
@@ -1456,8 +1607,11 @@
       <c r="G50" s="5">
         <v>16.649999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H50">
+        <v>5.6656199999999997E-10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -1467,8 +1621,8 @@
       <c r="C51" s="3">
         <v>22.63</v>
       </c>
-      <c r="D51" s="2">
-        <v>2.2646440000000002E-9</v>
+      <c r="D51">
+        <v>5.7078299999999999E-10</v>
       </c>
       <c r="F51" s="2">
         <v>2.2646440000000002E-9</v>
@@ -1476,8 +1630,11 @@
       <c r="G51" s="5">
         <v>16.649999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H51">
+        <v>5.7078299999999999E-10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -1487,8 +1644,8 @@
       <c r="C52" s="3">
         <v>22.63</v>
       </c>
-      <c r="D52" s="2">
-        <v>1.8197009999999999E-9</v>
+      <c r="D52">
+        <v>5.7303599999999998E-10</v>
       </c>
       <c r="F52" s="2">
         <v>1.8197009999999999E-9</v>
@@ -1496,8 +1653,11 @@
       <c r="G52" s="5">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H52">
+        <v>5.7303599999999998E-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -1507,8 +1667,8 @@
       <c r="C53" s="3">
         <v>22.63</v>
       </c>
-      <c r="D53" s="2">
-        <v>2.2387209999999998E-9</v>
+      <c r="D53">
+        <v>5.7553400000000001E-10</v>
       </c>
       <c r="F53" s="2">
         <v>2.2387209999999998E-9</v>
@@ -1516,8 +1676,11 @@
       <c r="G53" s="5">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H53">
+        <v>5.7553400000000001E-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -1527,8 +1690,8 @@
       <c r="C54" s="3">
         <v>22.63</v>
       </c>
-      <c r="D54" s="2">
-        <v>1.437143E-9</v>
+      <c r="D54">
+        <v>5.7829999999999996E-10</v>
       </c>
       <c r="F54" s="2">
         <v>1.437143E-9</v>
@@ -1536,8 +1699,11 @@
       <c r="G54" s="5">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H54">
+        <v>5.7829999999999996E-10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -1547,8 +1713,8 @@
       <c r="C55" s="3">
         <v>22.63</v>
       </c>
-      <c r="D55" s="2">
-        <v>2.2646440000000002E-9</v>
+      <c r="D55">
+        <v>5.8116400000000002E-10</v>
       </c>
       <c r="F55" s="2">
         <v>2.2646440000000002E-9</v>
@@ -1556,8 +1722,11 @@
       <c r="G55" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H55">
+        <v>5.8116400000000002E-10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -1567,8 +1736,8 @@
       <c r="C56" s="3">
         <v>22.63</v>
       </c>
-      <c r="D56" s="2">
-        <v>2.722701E-9</v>
+      <c r="D56">
+        <v>5.8386799999999995E-10</v>
       </c>
       <c r="F56" s="2">
         <v>2.722701E-9</v>
@@ -1576,8 +1745,11 @@
       <c r="G56" s="5">
         <v>17.05</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H56">
+        <v>5.8386799999999995E-10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -1587,8 +1759,8 @@
       <c r="C57" s="3">
         <v>22.63</v>
       </c>
-      <c r="D57" s="2">
-        <v>2.3173949999999999E-9</v>
+      <c r="D57">
+        <v>5.8694199999999996E-10</v>
       </c>
       <c r="F57" s="2">
         <v>2.3173949999999999E-9</v>
@@ -1596,8 +1768,11 @@
       <c r="G57" s="5">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H57">
+        <v>5.8694199999999996E-10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -1607,8 +1782,8 @@
       <c r="C58" s="3">
         <v>22.63</v>
       </c>
-      <c r="D58" s="2">
-        <v>2.4406189999999999E-9</v>
+      <c r="D58">
+        <v>5.8901300000000004E-10</v>
       </c>
       <c r="F58" s="2">
         <v>2.4406189999999999E-9</v>
@@ -1616,8 +1791,11 @@
       <c r="G58" s="5">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H58">
+        <v>5.8901300000000004E-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -1627,8 +1805,8 @@
       <c r="C59" s="3">
         <v>22.63</v>
       </c>
-      <c r="D59" s="2">
-        <v>2.0300190000000001E-9</v>
+      <c r="D59">
+        <v>5.91816E-10</v>
       </c>
       <c r="F59" s="2">
         <v>2.0300190000000001E-9</v>
@@ -1636,8 +1814,11 @@
       <c r="G59" s="5">
         <v>17.350000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H59">
+        <v>5.91816E-10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -1647,8 +1828,8 @@
       <c r="C60" s="3">
         <v>22.63</v>
       </c>
-      <c r="D60" s="2">
-        <v>2.4266100000000002E-9</v>
+      <c r="D60">
+        <v>5.9325999999999998E-10</v>
       </c>
       <c r="F60" s="2">
         <v>2.4266100000000002E-9</v>
@@ -1656,8 +1837,11 @@
       <c r="G60" s="5">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H60">
+        <v>5.9325999999999998E-10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -1667,8 +1851,8 @@
       <c r="C61" s="3">
         <v>22.63</v>
       </c>
-      <c r="D61" s="2">
-        <v>1.5399269999999999E-9</v>
+      <c r="D61">
+        <v>5.9461400000000001E-10</v>
       </c>
       <c r="F61" s="2">
         <v>1.5399269999999999E-9</v>
@@ -1676,8 +1860,11 @@
       <c r="G61" s="5">
         <v>17.649999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H61">
+        <v>5.9461400000000001E-10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -1687,8 +1874,8 @@
       <c r="C62" s="3">
         <v>22.63</v>
       </c>
-      <c r="D62" s="2">
-        <v>2.3577620000000002E-9</v>
+      <c r="D62">
+        <v>5.9679199999999998E-10</v>
       </c>
       <c r="F62" s="2">
         <v>2.3577620000000002E-9</v>
@@ -1696,8 +1883,11 @@
       <c r="G62" s="5">
         <v>17.850000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H62">
+        <v>5.9679199999999998E-10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -1707,8 +1897,8 @@
       <c r="C63" s="3">
         <v>22.63</v>
       </c>
-      <c r="D63" s="2">
-        <v>2.8183830000000001E-9</v>
+      <c r="D63">
+        <v>6.0020199999999997E-10</v>
       </c>
       <c r="F63" s="2">
         <v>2.8183830000000001E-9</v>
@@ -1716,8 +1906,11 @@
       <c r="G63" s="5">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H63">
+        <v>6.0020199999999997E-10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -1727,8 +1920,8 @@
       <c r="C64" s="3">
         <v>22.63</v>
       </c>
-      <c r="D64" s="2">
-        <v>2.3577620000000002E-9</v>
+      <c r="D64">
+        <v>6.0289400000000001E-10</v>
       </c>
       <c r="F64" s="2">
         <v>2.3577620000000002E-9</v>
@@ -1736,8 +1929,11 @@
       <c r="G64" s="5">
         <v>18.05</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H64">
+        <v>6.0289400000000001E-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -1747,8 +1943,8 @@
       <c r="C65" s="3">
         <v>22.63</v>
       </c>
-      <c r="D65" s="2">
-        <v>2.5703960000000001E-9</v>
+      <c r="D65">
+        <v>6.0654099999999996E-10</v>
       </c>
       <c r="F65" s="2">
         <v>2.5703960000000001E-9</v>
@@ -1756,8 +1952,11 @@
       <c r="G65" s="5">
         <v>18.05</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H65">
+        <v>6.0654099999999996E-10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -1767,8 +1966,8 @@
       <c r="C66" s="3">
         <v>22.63</v>
       </c>
-      <c r="D66" s="2">
-        <v>2.344229E-9</v>
+      <c r="D66">
+        <v>6.0941800000000004E-10</v>
       </c>
       <c r="F66" s="2">
         <v>2.344229E-9</v>
@@ -1776,8 +1975,11 @@
       <c r="G66" s="5">
         <v>18.25</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H66">
+        <v>6.0941800000000004E-10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -1787,8 +1989,8 @@
       <c r="C67" s="3">
         <v>22.63</v>
       </c>
-      <c r="D67" s="2">
-        <v>2.483133E-9</v>
+      <c r="D67">
+        <v>6.1167200000000004E-10</v>
       </c>
       <c r="F67" s="2">
         <v>2.483133E-9</v>
@@ -1796,8 +1998,11 @@
       <c r="G67" s="5">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H67">
+        <v>6.1167200000000004E-10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -1807,8 +2012,8 @@
       <c r="C68" s="3">
         <v>22.63</v>
       </c>
-      <c r="D68" s="2">
-        <v>1.7080480000000001E-9</v>
+      <c r="D68">
+        <v>6.1408699999999997E-10</v>
       </c>
       <c r="F68" s="2">
         <v>1.7080480000000001E-9</v>
@@ -1816,8 +2021,11 @@
       <c r="G68" s="5">
         <v>18.45</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H68">
+        <v>6.1408699999999997E-10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -1827,8 +2035,8 @@
       <c r="C69" s="3">
         <v>22.63</v>
       </c>
-      <c r="D69" s="2">
-        <v>2.6151700000000002E-9</v>
+      <c r="D69">
+        <v>6.1634700000000002E-10</v>
       </c>
       <c r="F69" s="2">
         <v>2.6151700000000002E-9</v>
@@ -1836,8 +2044,11 @@
       <c r="G69" s="5">
         <v>18.45</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H69">
+        <v>6.1634700000000002E-10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -1847,8 +2058,8 @@
       <c r="C70" s="3">
         <v>22.63</v>
       </c>
-      <c r="D70" s="2">
-        <v>2.3040930000000002E-9</v>
+      <c r="D70">
+        <v>6.1965000000000003E-10</v>
       </c>
       <c r="F70" s="2">
         <v>2.3040930000000002E-9</v>
@@ -1856,8 +2067,11 @@
       <c r="G70" s="5">
         <v>18.649999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H70">
+        <v>6.1965000000000003E-10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -1867,8 +2081,8 @@
       <c r="C71" s="3">
         <v>22.63</v>
       </c>
-      <c r="D71" s="2">
-        <v>2.5118860000000001E-9</v>
+      <c r="D71">
+        <v>6.2275199999999996E-10</v>
       </c>
       <c r="F71" s="2">
         <v>2.5118860000000001E-9</v>
@@ -1876,8 +2090,11 @@
       <c r="G71" s="5">
         <v>18.75</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H71">
+        <v>6.2275199999999996E-10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -1887,8 +2104,8 @@
       <c r="C72" s="3">
         <v>22.63</v>
       </c>
-      <c r="D72" s="2">
-        <v>2.2908680000000002E-9</v>
+      <c r="D72">
+        <v>6.2595300000000002E-10</v>
       </c>
       <c r="F72" s="2">
         <v>2.2908680000000002E-9</v>
@@ -1896,8 +2113,11 @@
       <c r="G72" s="5">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H72">
+        <v>6.2595300000000002E-10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -1907,8 +2127,8 @@
       <c r="C73" s="3">
         <v>22.63</v>
       </c>
-      <c r="D73" s="2">
-        <v>2.5409729999999999E-9</v>
+      <c r="D73">
+        <v>6.2821299999999997E-10</v>
       </c>
       <c r="F73" s="2">
         <v>2.5409729999999999E-9</v>
@@ -1916,8 +2136,11 @@
       <c r="G73" s="5">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H73">
+        <v>6.2821299999999997E-10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -1927,8 +2150,8 @@
       <c r="C74" s="3">
         <v>22.63</v>
       </c>
-      <c r="D74" s="2">
-        <v>1.862087E-9</v>
+      <c r="D74">
+        <v>6.3042300000000001E-10</v>
       </c>
       <c r="F74" s="2">
         <v>1.862087E-9</v>
@@ -1936,8 +2159,11 @@
       <c r="G74" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H74">
+        <v>6.3042300000000001E-10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -1947,8 +2173,8 @@
       <c r="C75" s="3">
         <v>22.63</v>
       </c>
-      <c r="D75" s="2">
-        <v>2.4974679999999998E-9</v>
+      <c r="D75">
+        <v>6.3268599999999998E-10</v>
       </c>
       <c r="F75" s="2">
         <v>2.4974679999999998E-9</v>
@@ -1956,8 +2182,11 @@
       <c r="G75" s="5">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H75">
+        <v>6.3268599999999998E-10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -1967,8 +2196,8 @@
       <c r="C76" s="3">
         <v>22.63</v>
       </c>
-      <c r="D76" s="2">
-        <v>1.7179080000000001E-9</v>
+      <c r="D76">
+        <v>6.3581200000000002E-10</v>
       </c>
       <c r="F76" s="2">
         <v>1.7179080000000001E-9</v>
@@ -1976,8 +2205,11 @@
       <c r="G76" s="5">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H76">
+        <v>6.3581200000000002E-10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -1987,8 +2219,8 @@
       <c r="C77" s="3">
         <v>22.63</v>
       </c>
-      <c r="D77" s="2">
-        <v>2.5409729999999999E-9</v>
+      <c r="D77">
+        <v>6.3980599999999995E-10</v>
       </c>
       <c r="F77" s="2">
         <v>2.5409729999999999E-9</v>
@@ -1996,8 +2228,11 @@
       <c r="G77" s="5">
         <v>19.45</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H77">
+        <v>6.3980599999999995E-10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="4">
         <v>76</v>
       </c>
@@ -2007,8 +2242,8 @@
       <c r="C78" s="3">
         <v>22.63</v>
       </c>
-      <c r="D78" s="2">
-        <v>1.6500610000000001E-9</v>
+      <c r="D78">
+        <v>6.43126E-10</v>
       </c>
       <c r="F78" s="2">
         <v>1.6500610000000001E-9</v>
@@ -2016,8 +2251,11 @@
       <c r="G78" s="5">
         <v>19.649999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H78">
+        <v>6.43126E-10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="4">
         <v>77</v>
       </c>
@@ -2027,8 +2265,8 @@
       <c r="C79" s="3">
         <v>22.63</v>
       </c>
-      <c r="D79" s="2">
-        <v>2.4974679999999998E-9</v>
+      <c r="D79">
+        <v>6.4615600000000004E-10</v>
       </c>
       <c r="F79" s="2">
         <v>2.4974679999999998E-9</v>
@@ -2036,8 +2274,11 @@
       <c r="G79" s="5">
         <v>19.55</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H79">
+        <v>6.4615600000000004E-10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="4">
         <v>78</v>
       </c>
@@ -2047,8 +2288,8 @@
       <c r="C80" s="3">
         <v>22.63</v>
       </c>
-      <c r="D80" s="2">
-        <v>2.2387209999999998E-9</v>
+      <c r="D80">
+        <v>6.49213E-10</v>
       </c>
       <c r="F80" s="2">
         <v>2.2387209999999998E-9</v>
@@ -2056,8 +2297,11 @@
       <c r="G80" s="5">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H80">
+        <v>6.49213E-10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -2067,8 +2311,8 @@
       <c r="C81" s="3">
         <v>22.63</v>
       </c>
-      <c r="D81" s="2">
-        <v>2.6151700000000002E-9</v>
+      <c r="D81">
+        <v>6.5199299999999996E-10</v>
       </c>
       <c r="F81" s="2">
         <v>2.6151700000000002E-9</v>
@@ -2076,8 +2320,11 @@
       <c r="G81" s="5">
         <v>19.75</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H81">
+        <v>6.5199299999999996E-10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -2087,8 +2334,8 @@
       <c r="C82" s="3">
         <v>22.63</v>
       </c>
-      <c r="D82" s="2">
-        <v>2.9006809999999999E-9</v>
+      <c r="D82">
+        <v>6.5578700000000004E-10</v>
       </c>
       <c r="F82" s="2">
         <v>2.9006809999999999E-9</v>
@@ -2096,8 +2343,11 @@
       <c r="G82" s="5">
         <v>19.75</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H82">
+        <v>6.5578700000000004E-10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -2107,8 +2357,8 @@
       <c r="C83" s="3">
         <v>22.63</v>
       </c>
-      <c r="D83" s="2">
-        <v>2.5852350000000001E-9</v>
+      <c r="D83">
+        <v>6.5923899999999998E-10</v>
       </c>
       <c r="F83" s="2">
         <v>2.5852350000000001E-9</v>
@@ -2116,8 +2366,11 @@
       <c r="G83" s="5">
         <v>19.95</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H83">
+        <v>6.5923899999999998E-10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="4">
         <v>82</v>
       </c>
@@ -2127,8 +2380,8 @@
       <c r="C84" s="3">
         <v>22.63</v>
       </c>
-      <c r="D84" s="2">
-        <v>1.7782790000000001E-9</v>
+      <c r="D84">
+        <v>6.6242600000000002E-10</v>
       </c>
       <c r="F84" s="2">
         <v>1.7782790000000001E-9</v>
@@ -2136,8 +2389,11 @@
       <c r="G84" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H84">
+        <v>6.6242600000000002E-10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -2147,8 +2403,8 @@
       <c r="C85" s="3">
         <v>22.63</v>
       </c>
-      <c r="D85" s="2">
-        <v>2.6001599999999998E-9</v>
+      <c r="D85">
+        <v>6.6536099999999997E-10</v>
       </c>
       <c r="F85" s="2">
         <v>2.6001599999999998E-9</v>
@@ -2156,8 +2412,11 @@
       <c r="G85" s="5">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H85">
+        <v>6.6536099999999997E-10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -2167,8 +2426,8 @@
       <c r="C86" s="3">
         <v>22.63</v>
       </c>
-      <c r="D86" s="2">
-        <v>2.0067809999999999E-9</v>
+      <c r="D86">
+        <v>6.6699999999999997E-10</v>
       </c>
       <c r="F86" s="2">
         <v>2.0067809999999999E-9</v>
@@ -2176,8 +2435,11 @@
       <c r="G86" s="5">
         <v>20.149999999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H86">
+        <v>6.6699999999999997E-10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -2187,8 +2449,8 @@
       <c r="C87" s="3">
         <v>22.63</v>
       </c>
-      <c r="D87" s="2">
-        <v>2.676086E-9</v>
+      <c r="D87">
+        <v>6.6933799999999997E-10</v>
       </c>
       <c r="F87" s="2">
         <v>2.676086E-9</v>
@@ -2196,8 +2458,11 @@
       <c r="G87" s="5">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H87">
+        <v>6.6933799999999997E-10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -2207,8 +2472,8 @@
       <c r="C88" s="3">
         <v>22.63</v>
       </c>
-      <c r="D88" s="2">
-        <v>2.3307729999999999E-9</v>
+      <c r="D88">
+        <v>6.7218499999999999E-10</v>
       </c>
       <c r="F88" s="2">
         <v>2.3307729999999999E-9</v>
@@ -2216,8 +2481,11 @@
       <c r="G88" s="5">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H88">
+        <v>6.7218499999999999E-10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -2227,8 +2495,8 @@
       <c r="C89" s="3">
         <v>22.63</v>
       </c>
-      <c r="D89" s="2">
-        <v>2.5703960000000001E-9</v>
+      <c r="D89">
+        <v>6.7505800000000003E-10</v>
       </c>
       <c r="F89" s="2">
         <v>2.5703960000000001E-9</v>
@@ -2236,8 +2504,11 @@
       <c r="G89" s="5">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H89">
+        <v>6.7505800000000003E-10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -2247,8 +2518,8 @@
       <c r="C90" s="3">
         <v>22.63</v>
       </c>
-      <c r="D90" s="2">
-        <v>3.1081359999999999E-9</v>
+      <c r="D90">
+        <v>6.7766899999999999E-10</v>
       </c>
       <c r="F90" s="2">
         <v>3.1081359999999999E-9</v>
@@ -2256,8 +2527,11 @@
       <c r="G90" s="5">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H90">
+        <v>6.7766899999999999E-10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="4">
         <v>89</v>
       </c>
@@ -2267,8 +2541,8 @@
       <c r="C91" s="3">
         <v>22.63</v>
       </c>
-      <c r="D91" s="2">
-        <v>2.6607249999999998E-9</v>
+      <c r="D91">
+        <v>6.8026899999999996E-10</v>
       </c>
       <c r="F91" s="2">
         <v>2.6607249999999998E-9</v>
@@ -2276,8 +2550,11 @@
       <c r="G91" s="5">
         <v>20.75</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H91">
+        <v>6.8026899999999996E-10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -2287,8 +2564,8 @@
       <c r="C92" s="3">
         <v>22.63</v>
       </c>
-      <c r="D92" s="2">
-        <v>3.3689920000000002E-9</v>
+      <c r="D92">
+        <v>6.82371E-10</v>
       </c>
       <c r="F92" s="2">
         <v>3.3689920000000002E-9</v>
@@ -2296,8 +2573,11 @@
       <c r="G92" s="5">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H92">
+        <v>6.82371E-10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -2307,8 +2587,8 @@
       <c r="C93" s="3">
         <v>22.63</v>
       </c>
-      <c r="D93" s="2">
-        <v>2.6454529999999999E-9</v>
+      <c r="D93">
+        <v>6.8554200000000001E-10</v>
       </c>
       <c r="F93" s="2">
         <v>2.6454529999999999E-9</v>
@@ -2316,8 +2596,11 @@
       <c r="G93" s="5">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H93">
+        <v>6.8554200000000001E-10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -2327,8 +2610,8 @@
       <c r="C94" s="3">
         <v>22.63</v>
       </c>
-      <c r="D94" s="2">
-        <v>3.090295E-9</v>
+      <c r="D94">
+        <v>6.8842999999999997E-10</v>
       </c>
       <c r="F94" s="2">
         <v>3.090295E-9</v>
@@ -2336,8 +2619,11 @@
       <c r="G94" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H94">
+        <v>6.8842999999999997E-10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="4">
         <v>93</v>
       </c>
@@ -2347,8 +2633,8 @@
       <c r="C95" s="3">
         <v>22.63</v>
       </c>
-      <c r="D95" s="2">
-        <v>2.6151700000000002E-9</v>
+      <c r="D95">
+        <v>6.9110399999999995E-10</v>
       </c>
       <c r="F95" s="2">
         <v>2.6151700000000002E-9</v>
@@ -2356,8 +2642,11 @@
       <c r="G95" s="5">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H95">
+        <v>6.9110399999999995E-10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -2367,8 +2656,8 @@
       <c r="C96" s="3">
         <v>22.63</v>
       </c>
-      <c r="D96" s="2">
-        <v>2.1379620000000001E-9</v>
+      <c r="D96">
+        <v>6.94207E-10</v>
       </c>
       <c r="F96" s="2">
         <v>2.1379620000000001E-9</v>
@@ -2376,8 +2665,11 @@
       <c r="G96" s="5">
         <v>21.25</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H96">
+        <v>6.94207E-10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="4">
         <v>95</v>
       </c>
@@ -2387,8 +2679,8 @@
       <c r="C97" s="3">
         <v>22.63</v>
       </c>
-      <c r="D97" s="2">
-        <v>2.630268E-9</v>
+      <c r="D97">
+        <v>6.9790499999999998E-10</v>
       </c>
       <c r="F97" s="2">
         <v>2.630268E-9</v>
@@ -2396,8 +2688,11 @@
       <c r="G97" s="5">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H97">
+        <v>6.9790499999999998E-10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="4">
         <v>96</v>
       </c>
@@ -2407,8 +2702,8 @@
       <c r="C98" s="3">
         <v>22.63</v>
       </c>
-      <c r="D98" s="2">
-        <v>3.0549209999999999E-9</v>
+      <c r="D98">
+        <v>7.0031900000000001E-10</v>
       </c>
       <c r="F98" s="2">
         <v>3.0549209999999999E-9</v>
@@ -2416,8 +2711,11 @@
       <c r="G98" s="5">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H98">
+        <v>7.0031900000000001E-10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="4">
         <v>97</v>
       </c>
@@ -2427,8 +2725,8 @@
       <c r="C99" s="3">
         <v>22.63</v>
       </c>
-      <c r="D99" s="2">
-        <v>2.707073E-9</v>
+      <c r="D99">
+        <v>7.0389000000000004E-10</v>
       </c>
       <c r="F99" s="2">
         <v>2.707073E-9</v>
@@ -2436,8 +2734,11 @@
       <c r="G99" s="5">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H99">
+        <v>7.0389000000000004E-10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="4">
         <v>98</v>
       </c>
@@ -2447,8 +2748,8 @@
       <c r="C100" s="3">
         <v>22.63</v>
       </c>
-      <c r="D100" s="2">
-        <v>3.3496539999999999E-9</v>
+      <c r="D100">
+        <v>7.0706900000000001E-10</v>
       </c>
       <c r="F100" s="2">
         <v>3.3496539999999999E-9</v>
@@ -2456,8 +2757,11 @@
       <c r="G100" s="5">
         <v>21.75</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H100">
+        <v>7.0706900000000001E-10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -2467,8 +2771,8 @@
       <c r="C101" s="3">
         <v>22.63</v>
       </c>
-      <c r="D101" s="2">
-        <v>2.7384200000000001E-9</v>
+      <c r="D101">
+        <v>7.0988200000000005E-10</v>
       </c>
       <c r="F101" s="2">
         <v>2.7384200000000001E-9</v>
@@ -2476,8 +2780,11 @@
       <c r="G101" s="5">
         <v>21.85</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H101">
+        <v>7.0988200000000005E-10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="4">
         <v>100</v>
       </c>
@@ -2487,8 +2794,8 @@
       <c r="C102" s="3">
         <v>22.63</v>
       </c>
-      <c r="D102" s="2">
-        <v>3.2923049999999998E-9</v>
+      <c r="D102">
+        <v>7.12359E-10</v>
       </c>
       <c r="F102" s="2">
         <v>3.2923049999999998E-9</v>
@@ -2496,8 +2803,11 @@
       <c r="G102" s="5">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H102">
+        <v>7.12359E-10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="4">
         <v>101</v>
       </c>
@@ -2507,8 +2817,8 @@
       <c r="C103" s="3">
         <v>22.63</v>
       </c>
-      <c r="D103" s="2">
-        <v>2.8183830000000001E-9</v>
+      <c r="D103">
+        <v>7.1465999999999999E-10</v>
       </c>
       <c r="F103" s="2">
         <v>2.8183830000000001E-9</v>
@@ -2516,8 +2826,11 @@
       <c r="G103" s="5">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H103">
+        <v>7.1465999999999999E-10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="4">
         <v>102</v>
       </c>
@@ -2527,8 +2840,8 @@
       <c r="C104" s="3">
         <v>22.63</v>
       </c>
-      <c r="D104" s="2">
-        <v>3.3884420000000002E-9</v>
+      <c r="D104">
+        <v>7.1818200000000001E-10</v>
       </c>
       <c r="F104" s="2">
         <v>3.3884420000000002E-9</v>
@@ -2536,8 +2849,11 @@
       <c r="G104" s="5">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H104">
+        <v>7.1818200000000001E-10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="4">
         <v>103</v>
       </c>
@@ -2547,8 +2863,8 @@
       <c r="C105" s="3">
         <v>22.63</v>
       </c>
-      <c r="D105" s="2">
-        <v>2.7701289999999999E-9</v>
+      <c r="D105">
+        <v>7.2164400000000004E-10</v>
       </c>
       <c r="F105" s="2">
         <v>2.7701289999999999E-9</v>
@@ -2556,8 +2872,11 @@
       <c r="G105" s="5">
         <v>22.25</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H105">
+        <v>7.2164400000000004E-10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -2567,8 +2886,8 @@
       <c r="C106" s="3">
         <v>22.63</v>
       </c>
-      <c r="D106" s="2">
-        <v>1.8728370000000002E-9</v>
+      <c r="D106">
+        <v>7.24979E-10</v>
       </c>
       <c r="F106" s="2">
         <v>1.8728370000000002E-9</v>
@@ -2576,8 +2895,11 @@
       <c r="G106" s="5">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H106">
+        <v>7.24979E-10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="4">
         <v>105</v>
       </c>
@@ -2587,8 +2909,8 @@
       <c r="C107" s="3">
         <v>22.63</v>
       </c>
-      <c r="D107" s="2">
-        <v>2.7861210000000002E-9</v>
+      <c r="D107">
+        <v>7.2793999999999997E-10</v>
       </c>
       <c r="F107" s="2">
         <v>2.7861210000000002E-9</v>
@@ -2596,8 +2918,11 @@
       <c r="G107" s="5">
         <v>22.55</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H107">
+        <v>7.2793999999999997E-10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="4">
         <v>106</v>
       </c>
@@ -2607,8 +2932,8 @@
       <c r="C108" s="3">
         <v>22.63</v>
       </c>
-      <c r="D108" s="2">
-        <v>1.862087E-9</v>
+      <c r="D108">
+        <v>7.3083199999999996E-10</v>
       </c>
       <c r="F108" s="2">
         <v>1.862087E-9</v>
@@ -2616,8 +2941,11 @@
       <c r="G108" s="5">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H108">
+        <v>7.3083199999999996E-10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="4">
         <v>107</v>
       </c>
@@ -2627,8 +2955,8 @@
       <c r="C109" s="3">
         <v>22.63</v>
       </c>
-      <c r="D109" s="2">
-        <v>2.8840319999999998E-9</v>
+      <c r="D109">
+        <v>7.32717E-10</v>
       </c>
       <c r="F109" s="2">
         <v>2.8840319999999998E-9</v>
@@ -2636,8 +2964,11 @@
       <c r="G109" s="5">
         <v>22.95</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H109">
+        <v>7.32717E-10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="4">
         <v>108</v>
       </c>
@@ -2647,8 +2978,8 @@
       <c r="C110" s="3">
         <v>22.63</v>
       </c>
-      <c r="D110" s="2">
-        <v>2.676086E-9</v>
+      <c r="D110">
+        <v>7.3553299999999997E-10</v>
       </c>
       <c r="F110" s="2">
         <v>2.676086E-9</v>
@@ -2656,8 +2987,11 @@
       <c r="G110" s="5">
         <v>23.05</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H110">
+        <v>7.3553299999999997E-10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="4">
         <v>109</v>
       </c>
@@ -2667,8 +3001,8 @@
       <c r="C111" s="3">
         <v>22.63</v>
       </c>
-      <c r="D111" s="2">
-        <v>3.0199519999999999E-9</v>
+      <c r="D111">
+        <v>7.3861E-10</v>
       </c>
       <c r="F111" s="2">
         <v>3.0199519999999999E-9</v>
@@ -2676,8 +3010,11 @@
       <c r="G111" s="5">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H111">
+        <v>7.3861E-10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="4">
         <v>110</v>
       </c>
@@ -2687,8 +3024,8 @@
       <c r="C112" s="3">
         <v>22.63</v>
       </c>
-      <c r="D112" s="2">
-        <v>2.1379620000000001E-9</v>
+      <c r="D112">
+        <v>7.4181499999999999E-10</v>
       </c>
       <c r="F112" s="2">
         <v>2.1379620000000001E-9</v>
@@ -2696,8 +3033,11 @@
       <c r="G112" s="5">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H112">
+        <v>7.4181499999999999E-10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" s="4">
         <v>111</v>
       </c>
@@ -2707,8 +3047,8 @@
       <c r="C113" s="3">
         <v>22.63</v>
       </c>
-      <c r="D113" s="2">
-        <v>2.9682469999999998E-9</v>
+      <c r="D113">
+        <v>7.4508199999999999E-10</v>
       </c>
       <c r="F113" s="2">
         <v>2.9682469999999998E-9</v>
@@ -2716,8 +3056,11 @@
       <c r="G113" s="5">
         <v>23.35</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H113">
+        <v>7.4508199999999999E-10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" s="4">
         <v>112</v>
       </c>
@@ -2727,8 +3070,8 @@
       <c r="C114" s="3">
         <v>22.63</v>
       </c>
-      <c r="D114" s="2">
-        <v>2.3850640000000001E-9</v>
+      <c r="D114">
+        <v>7.4836600000000004E-10</v>
       </c>
       <c r="F114" s="2">
         <v>2.3850640000000001E-9</v>
@@ -2736,8 +3079,11 @@
       <c r="G114" s="5">
         <v>23.45</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H114">
+        <v>7.4836600000000004E-10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" s="4">
         <v>113</v>
       </c>
@@ -2747,8 +3093,8 @@
       <c r="C115" s="3">
         <v>22.63</v>
       </c>
-      <c r="D115" s="2">
-        <v>2.9006809999999999E-9</v>
+      <c r="D115">
+        <v>7.5049299999999998E-10</v>
       </c>
       <c r="F115" s="2">
         <v>2.9006809999999999E-9</v>
@@ -2756,8 +3102,11 @@
       <c r="G115" s="5">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H115">
+        <v>7.5049299999999998E-10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="4">
         <v>114</v>
       </c>
@@ -2767,8 +3116,8 @@
       <c r="C116" s="3">
         <v>22.63</v>
       </c>
-      <c r="D116" s="2">
-        <v>2.6607249999999998E-9</v>
+      <c r="D116">
+        <v>7.5386899999999999E-10</v>
       </c>
       <c r="F116" s="2">
         <v>2.6607249999999998E-9</v>
@@ -2776,8 +3125,11 @@
       <c r="G116" s="5">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H116">
+        <v>7.5386899999999999E-10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" s="4">
         <v>115</v>
       </c>
@@ -2787,8 +3139,8 @@
       <c r="C117" s="3">
         <v>22.63</v>
       </c>
-      <c r="D117" s="2">
-        <v>2.8840319999999998E-9</v>
+      <c r="D117">
+        <v>7.5737000000000004E-10</v>
       </c>
       <c r="F117" s="2">
         <v>2.8840319999999998E-9</v>
@@ -2796,8 +3148,11 @@
       <c r="G117" s="5">
         <v>23.85</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H117">
+        <v>7.5737000000000004E-10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" s="4">
         <v>116</v>
       </c>
@@ -2807,8 +3162,8 @@
       <c r="C118" s="3">
         <v>22.63</v>
       </c>
-      <c r="D118" s="2">
-        <v>2.2258710000000002E-9</v>
+      <c r="D118">
+        <v>7.6120699999999998E-10</v>
       </c>
       <c r="F118" s="2">
         <v>2.2258710000000002E-9</v>
@@ -2816,8 +3171,11 @@
       <c r="G118" s="5">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H118">
+        <v>7.6120699999999998E-10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" s="4">
         <v>117</v>
       </c>
@@ -2827,8 +3185,8 @@
       <c r="C119" s="3">
         <v>22.63</v>
       </c>
-      <c r="D119" s="2">
-        <v>3.002617E-9</v>
+      <c r="D119">
+        <v>7.6387600000000002E-10</v>
       </c>
       <c r="F119" s="2">
         <v>3.002617E-9</v>
@@ -2836,8 +3194,11 @@
       <c r="G119" s="5">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H119">
+        <v>7.6387600000000002E-10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="4">
         <v>118</v>
       </c>
@@ -2847,8 +3208,8 @@
       <c r="C120" s="3">
         <v>22.63</v>
       </c>
-      <c r="D120" s="2">
-        <v>2.1503049999999998E-9</v>
+      <c r="D120">
+        <v>7.6601399999999996E-10</v>
       </c>
       <c r="F120" s="2">
         <v>2.1503049999999998E-9</v>
@@ -2856,8 +3217,11 @@
       <c r="G120" s="5">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H120">
+        <v>7.6601399999999996E-10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="4">
         <v>119</v>
       </c>
@@ -2867,8 +3231,8 @@
       <c r="C121" s="3">
         <v>22.63</v>
       </c>
-      <c r="D121" s="2">
-        <v>3.002617E-9</v>
+      <c r="D121">
+        <v>7.6864499999999999E-10</v>
       </c>
       <c r="F121" s="2">
         <v>3.002617E-9</v>
@@ -2876,8 +3240,11 @@
       <c r="G121" s="5">
         <v>24.25</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H121">
+        <v>7.6864499999999999E-10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="4">
         <v>120</v>
       </c>
@@ -2887,8 +3254,8 @@
       <c r="C122" s="3">
         <v>22.63</v>
       </c>
-      <c r="D122" s="2">
-        <v>2.0183659999999999E-9</v>
+      <c r="D122">
+        <v>7.7222199999999996E-10</v>
       </c>
       <c r="F122" s="2">
         <v>2.0183659999999999E-9</v>
@@ -2896,8 +3263,11 @@
       <c r="G122" s="5">
         <v>24.3</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H122">
+        <v>7.7222199999999996E-10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" s="4">
         <v>121</v>
       </c>
@@ -2907,8 +3277,8 @@
       <c r="C123" s="3">
         <v>22.63</v>
       </c>
-      <c r="D123" s="2">
-        <v>3.1988949999999998E-9</v>
+      <c r="D123">
+        <v>7.7550399999999999E-10</v>
       </c>
       <c r="F123" s="2">
         <v>3.1988949999999998E-9</v>
@@ -2916,8 +3286,11 @@
       <c r="G123" s="5">
         <v>24.55</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H123">
+        <v>7.7550399999999999E-10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" s="4">
         <v>122</v>
       </c>
@@ -2927,8 +3300,8 @@
       <c r="C124" s="3">
         <v>22.63</v>
       </c>
-      <c r="D124" s="2">
-        <v>2.1256899999999999E-9</v>
+      <c r="D124">
+        <v>7.7790900000000005E-10</v>
       </c>
       <c r="F124" s="2">
         <v>2.1256899999999999E-9</v>
@@ -2936,8 +3309,11 @@
       <c r="G124" s="5">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H124">
+        <v>7.7790900000000005E-10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" s="4">
         <v>123</v>
       </c>
@@ -2947,8 +3323,8 @@
       <c r="C125" s="3">
         <v>22.63</v>
       </c>
-      <c r="D125" s="2">
-        <v>3.2359370000000002E-9</v>
+      <c r="D125">
+        <v>7.8222400000000005E-10</v>
       </c>
       <c r="F125" s="2">
         <v>3.2359370000000002E-9</v>
@@ -2956,8 +3332,11 @@
       <c r="G125" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H125">
+        <v>7.8222400000000005E-10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="4">
         <v>124</v>
       </c>
@@ -2967,8 +3346,8 @@
       <c r="C126" s="3">
         <v>22.63</v>
       </c>
-      <c r="D126" s="2">
-        <v>2.1379620000000001E-9</v>
+      <c r="D126">
+        <v>7.8576099999999999E-10</v>
       </c>
       <c r="F126" s="2">
         <v>2.1379620000000001E-9</v>
@@ -2976,8 +3355,11 @@
       <c r="G126" s="5">
         <v>25.05</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H126">
+        <v>7.8576099999999999E-10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" s="4">
         <v>125</v>
       </c>
@@ -2987,8 +3369,8 @@
       <c r="C127" s="3">
         <v>22.63</v>
       </c>
-      <c r="D127" s="2">
-        <v>3.1988949999999998E-9</v>
+      <c r="D127">
+        <v>7.9001900000000002E-10</v>
       </c>
       <c r="F127" s="2">
         <v>3.1988949999999998E-9</v>
@@ -2996,8 +3378,11 @@
       <c r="G127" s="5">
         <v>25.05</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H127">
+        <v>7.9001900000000002E-10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" s="4">
         <v>126</v>
       </c>
@@ -3007,8 +3392,8 @@
       <c r="C128" s="3">
         <v>22.63</v>
       </c>
-      <c r="D128" s="2">
-        <v>2.8840319999999998E-9</v>
+      <c r="D128">
+        <v>7.9349799999999998E-10</v>
       </c>
       <c r="F128" s="2">
         <v>2.8840319999999998E-9</v>
@@ -3016,8 +3401,11 @@
       <c r="G128" s="5">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H128">
+        <v>7.9349799999999998E-10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" s="4">
         <v>127</v>
       </c>
@@ -3027,8 +3415,8 @@
       <c r="C129" s="3">
         <v>22.63</v>
       </c>
-      <c r="D129" s="2">
-        <v>3.2923049999999998E-9</v>
+      <c r="D129">
+        <v>7.9751999999999995E-10</v>
       </c>
       <c r="F129" s="2">
         <v>3.2923049999999998E-9</v>
@@ -3036,8 +3424,11 @@
       <c r="G129" s="5">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H129">
+        <v>7.9751999999999995E-10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" s="4">
         <v>128</v>
       </c>
@@ -3047,8 +3438,8 @@
       <c r="C130" s="3">
         <v>22.63</v>
       </c>
-      <c r="D130" s="2">
-        <v>2.5409729999999999E-9</v>
+      <c r="D130">
+        <v>8.0202999999999997E-10</v>
       </c>
       <c r="F130" s="2">
         <v>2.5409729999999999E-9</v>
@@ -3056,8 +3447,11 @@
       <c r="G130" s="5">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H130">
+        <v>8.0202999999999997E-10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" s="4">
         <v>129</v>
       </c>
@@ -3067,8 +3461,8 @@
       <c r="C131" s="3">
         <v>22.63</v>
       </c>
-      <c r="D131" s="2">
-        <v>3.1988949999999998E-9</v>
+      <c r="D131">
+        <v>8.0629799999999998E-10</v>
       </c>
       <c r="F131" s="2">
         <v>3.1988949999999998E-9</v>
@@ -3076,8 +3470,11 @@
       <c r="G131" s="5">
         <v>25.6</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H131">
+        <v>8.0629799999999998E-10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" s="4">
         <v>130</v>
       </c>
@@ -3087,8 +3484,8 @@
       <c r="C132" s="3">
         <v>22.63</v>
       </c>
-      <c r="D132" s="2">
-        <v>2.3173949999999999E-9</v>
+      <c r="D132">
+        <v>8.0864699999999997E-10</v>
       </c>
       <c r="F132" s="2">
         <v>2.3173949999999999E-9</v>
@@ -3096,8 +3493,11 @@
       <c r="G132" s="5">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H132">
+        <v>8.0864699999999997E-10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133" s="4">
         <v>131</v>
       </c>
@@ -3107,8 +3507,8 @@
       <c r="C133" s="3">
         <v>22.63</v>
       </c>
-      <c r="D133" s="2">
-        <v>3.3304279999999998E-9</v>
+      <c r="D133">
+        <v>8.1188300000000002E-10</v>
       </c>
       <c r="F133" s="2">
         <v>3.3304279999999998E-9</v>
@@ -3116,8 +3516,11 @@
       <c r="G133" s="5">
         <v>25.95</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H133">
+        <v>8.1188300000000002E-10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134" s="4">
         <v>132</v>
       </c>
@@ -3127,8 +3530,8 @@
       <c r="C134" s="3">
         <v>22.63</v>
       </c>
-      <c r="D134" s="2">
-        <v>2.1013580000000001E-9</v>
+      <c r="D134">
+        <v>8.15292E-10</v>
       </c>
       <c r="F134" s="2">
         <v>2.1013580000000001E-9</v>
@@ -3136,8 +3539,11 @@
       <c r="G134" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H134">
+        <v>8.15292E-10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" s="4">
         <v>133</v>
       </c>
@@ -3147,8 +3553,8 @@
       <c r="C135" s="3">
         <v>22.63</v>
       </c>
-      <c r="D135" s="2">
-        <v>3.2359370000000002E-9</v>
+      <c r="D135">
+        <v>8.1871099999999997E-10</v>
       </c>
       <c r="F135" s="2">
         <v>3.2359370000000002E-9</v>
@@ -3156,8 +3562,11 @@
       <c r="G135" s="5">
         <v>26.05</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H135">
+        <v>8.1871099999999997E-10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136" s="4">
         <v>134</v>
       </c>
@@ -3167,8 +3576,8 @@
       <c r="C136" s="3">
         <v>22.63</v>
       </c>
-      <c r="D136" s="2">
-        <v>3.3884420000000002E-9</v>
+      <c r="D136">
+        <v>8.2091899999999999E-10</v>
       </c>
       <c r="F136" s="2">
         <v>3.3884420000000002E-9</v>
@@ -3176,8 +3585,11 @@
       <c r="G136" s="5">
         <v>26.15</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H136">
+        <v>8.2091899999999999E-10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137" s="4">
         <v>135</v>
       </c>
@@ -3187,8 +3599,8 @@
       <c r="C137" s="3">
         <v>22.63</v>
       </c>
-      <c r="D137" s="2">
-        <v>3.180534E-9</v>
+      <c r="D137">
+        <v>8.2256500000000004E-10</v>
       </c>
       <c r="F137" s="2">
         <v>3.180534E-9</v>
@@ -3196,8 +3608,11 @@
       <c r="G137" s="5">
         <v>26.3</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H137">
+        <v>8.2256500000000004E-10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138" s="4">
         <v>136</v>
       </c>
@@ -3207,8 +3622,8 @@
       <c r="C138" s="3">
         <v>22.63</v>
       </c>
-      <c r="D138" s="2">
-        <v>2.2516449999999998E-9</v>
+      <c r="D138">
+        <v>8.2492300000000001E-10</v>
       </c>
       <c r="F138" s="2">
         <v>2.2516449999999998E-9</v>
@@ -3216,8 +3631,11 @@
       <c r="G138" s="5">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H138">
+        <v>8.2492300000000001E-10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139" s="4">
         <v>137</v>
       </c>
@@ -3227,8 +3645,8 @@
       <c r="C139" s="3">
         <v>22.63</v>
       </c>
-      <c r="D139" s="2">
-        <v>3.180534E-9</v>
+      <c r="D139">
+        <v>8.2766000000000001E-10</v>
       </c>
       <c r="F139" s="2">
         <v>3.180534E-9</v>
@@ -3236,8 +3654,11 @@
       <c r="G139" s="5">
         <v>26.7</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H139">
+        <v>8.2766000000000001E-10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140" s="4">
         <v>138</v>
       </c>
@@ -3247,8 +3668,8 @@
       <c r="C140" s="3">
         <v>22.63</v>
       </c>
-      <c r="D140" s="2">
-        <v>2.2908680000000002E-9</v>
+      <c r="D140">
+        <v>8.3105399999999997E-10</v>
       </c>
       <c r="F140" s="2">
         <v>2.2908680000000002E-9</v>
@@ -3256,8 +3677,11 @@
       <c r="G140" s="5">
         <v>26.75</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H140">
+        <v>8.3105399999999997E-10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141" s="4">
         <v>139</v>
       </c>
@@ -3267,8 +3691,8 @@
       <c r="C141" s="3">
         <v>22.63</v>
       </c>
-      <c r="D141" s="2">
-        <v>3.2359370000000002E-9</v>
+      <c r="D141">
+        <v>8.3465400000000004E-10</v>
       </c>
       <c r="F141" s="2">
         <v>3.2359370000000002E-9</v>
@@ -3276,8 +3700,11 @@
       <c r="G141" s="5">
         <v>26.9</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H141">
+        <v>8.3465400000000004E-10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142" s="4">
         <v>140</v>
       </c>
@@ -3287,8 +3714,8 @@
       <c r="C142" s="3">
         <v>22.63</v>
       </c>
-      <c r="D142" s="2">
-        <v>4.004055E-9</v>
+      <c r="D142">
+        <v>8.3878900000000005E-10</v>
       </c>
       <c r="F142" s="2">
         <v>4.004055E-9</v>
@@ -3296,8 +3723,11 @@
       <c r="G142" s="5">
         <v>27.05</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H142">
+        <v>8.3878900000000005E-10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143" s="4">
         <v>141</v>
       </c>
@@ -3307,8 +3737,8 @@
       <c r="C143" s="3">
         <v>22.63</v>
       </c>
-      <c r="D143" s="2">
-        <v>3.2173629999999999E-9</v>
+      <c r="D143">
+        <v>8.4167299999999997E-10</v>
       </c>
       <c r="F143" s="2">
         <v>3.2173629999999999E-9</v>
@@ -3316,8 +3746,11 @@
       <c r="G143" s="5">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H143">
+        <v>8.4167299999999997E-10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144" s="4">
         <v>142</v>
       </c>
@@ -3327,8 +3760,8 @@
       <c r="C144" s="3">
         <v>22.63</v>
       </c>
-      <c r="D144" s="2">
-        <v>3.981072E-9</v>
+      <c r="D144">
+        <v>8.4528599999999995E-10</v>
       </c>
       <c r="F144" s="2">
         <v>3.981072E-9</v>
@@ -3336,8 +3769,11 @@
       <c r="G144" s="5">
         <v>27.25</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H144">
+        <v>8.4528599999999995E-10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" s="4">
         <v>143</v>
       </c>
@@ -3347,8 +3783,8 @@
       <c r="C145" s="3">
         <v>22.63</v>
       </c>
-      <c r="D145" s="2">
-        <v>3.3689920000000002E-9</v>
+      <c r="D145">
+        <v>8.4856000000000001E-10</v>
       </c>
       <c r="F145" s="2">
         <v>3.3689920000000002E-9</v>
@@ -3356,8 +3792,11 @@
       <c r="G145" s="5">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H145">
+        <v>8.4856000000000001E-10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146" s="4">
         <v>144</v>
       </c>
@@ -3367,8 +3806,8 @@
       <c r="C146" s="3">
         <v>22.63</v>
       </c>
-      <c r="D146" s="2">
-        <v>3.5892189999999998E-9</v>
+      <c r="D146">
+        <v>8.5279799999999997E-10</v>
       </c>
       <c r="F146" s="2">
         <v>3.5892189999999998E-9</v>
@@ -3376,8 +3815,11 @@
       <c r="G146" s="5">
         <v>27.55</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H146">
+        <v>8.5279799999999997E-10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147" s="4">
         <v>145</v>
       </c>
@@ -3387,8 +3829,8 @@
       <c r="C147" s="3">
         <v>22.63</v>
       </c>
-      <c r="D147" s="2">
-        <v>3.2359370000000002E-9</v>
+      <c r="D147">
+        <v>8.5730599999999998E-10</v>
       </c>
       <c r="F147" s="2">
         <v>3.2359370000000002E-9</v>
@@ -3396,8 +3838,11 @@
       <c r="G147" s="5">
         <v>27.75</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H147">
+        <v>8.5730599999999998E-10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148" s="4">
         <v>146</v>
       </c>
@@ -3407,8 +3852,8 @@
       <c r="C148" s="3">
         <v>22.63</v>
       </c>
-      <c r="D148" s="2">
-        <v>3.5481339999999999E-9</v>
+      <c r="D148">
+        <v>8.6148400000000004E-10</v>
       </c>
       <c r="F148" s="2">
         <v>3.5481339999999999E-9</v>
@@ -3416,8 +3861,11 @@
       <c r="G148" s="5">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H148">
+        <v>8.6148400000000004E-10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149" s="4">
         <v>147</v>
       </c>
@@ -3427,8 +3875,8 @@
       <c r="C149" s="3">
         <v>22.63</v>
       </c>
-      <c r="D149" s="2">
-        <v>3.3496539999999999E-9</v>
+      <c r="D149">
+        <v>8.6485900000000004E-10</v>
       </c>
       <c r="F149" s="2">
         <v>3.3496539999999999E-9</v>
@@ -3436,8 +3884,11 @@
       <c r="G149" s="5">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H149">
+        <v>8.6485900000000004E-10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150" s="4">
         <v>148</v>
       </c>
@@ -3447,8 +3898,8 @@
       <c r="C150" s="3">
         <v>22.63</v>
       </c>
-      <c r="D150" s="2">
-        <v>3.7368010000000001E-9</v>
+      <c r="D150">
+        <v>8.6896800000000003E-10</v>
       </c>
       <c r="F150" s="2">
         <v>3.7368010000000001E-9</v>
@@ -3456,8 +3907,11 @@
       <c r="G150" s="5">
         <v>28.15</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H150">
+        <v>8.6896800000000003E-10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151" s="4">
         <v>149</v>
       </c>
@@ -3467,8 +3921,8 @@
       <c r="C151" s="3">
         <v>22.63</v>
       </c>
-      <c r="D151" s="2">
-        <v>2.5852350000000001E-9</v>
+      <c r="D151">
+        <v>8.7303100000000004E-10</v>
       </c>
       <c r="F151" s="2">
         <v>2.5852350000000001E-9</v>
@@ -3476,8 +3930,11 @@
       <c r="G151" s="5">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H151">
+        <v>8.7303100000000004E-10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152" s="4">
         <v>150</v>
       </c>
@@ -3487,8 +3944,8 @@
       <c r="C152" s="3">
         <v>22.63</v>
       </c>
-      <c r="D152" s="2">
-        <v>3.5892189999999998E-9</v>
+      <c r="D152">
+        <v>8.7668699999999997E-10</v>
       </c>
       <c r="F152" s="2">
         <v>3.5892189999999998E-9</v>
@@ -3496,8 +3953,11 @@
       <c r="G152" s="5">
         <v>28.35</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H152">
+        <v>8.7668699999999997E-10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" s="4">
         <v>151</v>
       </c>
@@ -3507,8 +3967,8 @@
       <c r="C153" s="3">
         <v>22.63</v>
       </c>
-      <c r="D153" s="2">
-        <v>2.5118860000000001E-9</v>
+      <c r="D153">
+        <v>8.7994199999999998E-10</v>
       </c>
       <c r="F153" s="2">
         <v>2.5118860000000001E-9</v>
@@ -3516,8 +3976,11 @@
       <c r="G153" s="5">
         <v>28.35</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H153">
+        <v>8.7994199999999998E-10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" s="4">
         <v>152</v>
       </c>
@@ -3527,8 +3990,8 @@
       <c r="C154" s="3">
         <v>22.63</v>
       </c>
-      <c r="D154" s="2">
-        <v>3.4873859999999999E-9</v>
+      <c r="D154">
+        <v>8.8329299999999998E-10</v>
       </c>
       <c r="F154" s="2">
         <v>3.4873859999999999E-9</v>
@@ -3536,8 +3999,11 @@
       <c r="G154" s="5">
         <v>28.65</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H154">
+        <v>8.8329299999999998E-10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155" s="4">
         <v>153</v>
       </c>
@@ -3547,8 +4013,8 @@
       <c r="C155" s="3">
         <v>22.63</v>
       </c>
-      <c r="D155" s="2">
-        <v>2.707073E-9</v>
+      <c r="D155">
+        <v>8.8937599999999995E-10</v>
       </c>
       <c r="F155" s="2">
         <v>2.707073E-9</v>
@@ -3556,8 +4022,11 @@
       <c r="G155" s="5">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H155">
+        <v>8.8937599999999995E-10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156" s="4">
         <v>154</v>
       </c>
@@ -3567,8 +4036,8 @@
       <c r="C156" s="3">
         <v>22.63</v>
       </c>
-      <c r="D156" s="2">
-        <v>3.4474659999999998E-9</v>
+      <c r="D156">
+        <v>8.9424899999999998E-10</v>
       </c>
       <c r="F156" s="2">
         <v>3.4474659999999998E-9</v>
@@ -3576,8 +4045,11 @@
       <c r="G156" s="5">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H156">
+        <v>8.9424899999999998E-10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157" s="4">
         <v>155</v>
       </c>
@@ -3587,8 +4059,8 @@
       <c r="C157" s="3">
         <v>22.63</v>
       </c>
-      <c r="D157" s="2">
-        <v>2.5409729999999999E-9</v>
+      <c r="D157">
+        <v>8.9871600000000004E-10</v>
       </c>
       <c r="F157" s="2">
         <v>2.5409729999999999E-9</v>
@@ -3596,8 +4068,11 @@
       <c r="G157" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H157">
+        <v>8.9871600000000004E-10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" s="4">
         <v>156</v>
       </c>
@@ -3607,8 +4082,8 @@
       <c r="C158" s="3">
         <v>22.63</v>
       </c>
-      <c r="D158" s="2">
-        <v>3.3496539999999999E-9</v>
+      <c r="D158">
+        <v>9.0243900000000003E-10</v>
       </c>
       <c r="F158" s="2">
         <v>3.3496539999999999E-9</v>
@@ -3616,8 +4091,11 @@
       <c r="G158" s="5">
         <v>29.15</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H158">
+        <v>9.0243900000000003E-10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159" s="4">
         <v>157</v>
       </c>
@@ -3627,8 +4105,8 @@
       <c r="C159" s="3">
         <v>22.63</v>
       </c>
-      <c r="D159" s="2">
-        <v>4.4411969999999998E-9</v>
+      <c r="D159">
+        <v>9.0614599999999998E-10</v>
       </c>
       <c r="F159" s="2">
         <v>4.4411969999999998E-9</v>
@@ -3636,8 +4114,11 @@
       <c r="G159" s="5">
         <v>29.25</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H159">
+        <v>9.0614599999999998E-10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" s="4">
         <v>158</v>
       </c>
@@ -3647,8 +4128,8 @@
       <c r="C160" s="3">
         <v>22.63</v>
       </c>
-      <c r="D160" s="2">
-        <v>3.507519E-9</v>
+      <c r="D160">
+        <v>9.0852700000000004E-10</v>
       </c>
       <c r="F160" s="2">
         <v>3.507519E-9</v>
@@ -3656,8 +4137,11 @@
       <c r="G160" s="5">
         <v>29.45</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H160">
+        <v>9.0852700000000004E-10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161" s="4">
         <v>159</v>
       </c>
@@ -3667,8 +4151,8 @@
       <c r="C161" s="3">
         <v>22.63</v>
       </c>
-      <c r="D161" s="2">
-        <v>3.7800710000000001E-9</v>
+      <c r="D161">
+        <v>9.1200099999999996E-10</v>
       </c>
       <c r="F161" s="2">
         <v>3.7800710000000001E-9</v>
@@ -3676,8 +4160,11 @@
       <c r="G161" s="5">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H161">
+        <v>9.1200099999999996E-10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162" s="4">
         <v>160</v>
       </c>
@@ -3687,8 +4174,8 @@
       <c r="C162" s="3">
         <v>22.63</v>
       </c>
-      <c r="D162" s="2">
-        <v>3.3113110000000001E-9</v>
+      <c r="D162">
+        <v>9.1492800000000005E-10</v>
       </c>
       <c r="F162" s="2">
         <v>3.3113110000000001E-9</v>
@@ -3696,8 +4183,11 @@
       <c r="G162" s="5">
         <v>29.8</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H162">
+        <v>9.1492800000000005E-10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A163" s="4">
         <v>161</v>
       </c>
@@ -3707,8 +4197,8 @@
       <c r="C163" s="3">
         <v>22.63</v>
       </c>
-      <c r="D163" s="2">
-        <v>3.7153519999999998E-9</v>
+      <c r="D163">
+        <v>9.1831300000000003E-10</v>
       </c>
       <c r="F163" s="2">
         <v>3.7153519999999998E-9</v>
@@ -3716,8 +4206,11 @@
       <c r="G163" s="5">
         <v>30.15</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H163">
+        <v>9.1831300000000003E-10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A164" s="4">
         <v>162</v>
       </c>
@@ -3727,8 +4220,8 @@
       <c r="C164" s="3">
         <v>22.63</v>
       </c>
-      <c r="D164" s="2">
-        <v>2.9512089999999999E-9</v>
+      <c r="D164">
+        <v>9.2247899999999999E-10</v>
       </c>
       <c r="F164" s="2">
         <v>2.9512089999999999E-9</v>
@@ -3736,8 +4229,11 @@
       <c r="G164" s="5">
         <v>30.15</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H164">
+        <v>9.2247899999999999E-10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A165" s="4">
         <v>163</v>
       </c>
@@ -3747,8 +4243,8 @@
       <c r="C165" s="3">
         <v>22.63</v>
       </c>
-      <c r="D165" s="2">
-        <v>3.7583739999999997E-9</v>
+      <c r="D165">
+        <v>9.2607999999999997E-10</v>
       </c>
       <c r="F165" s="2">
         <v>3.7583739999999997E-9</v>
@@ -3756,8 +4252,11 @@
       <c r="G165" s="5">
         <v>30.35</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H165">
+        <v>9.2607999999999997E-10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A166" s="4">
         <v>164</v>
       </c>
@@ -3767,8 +4266,8 @@
       <c r="C166" s="3">
         <v>22.63</v>
       </c>
-      <c r="D166" s="2">
-        <v>2.6001599999999998E-9</v>
+      <c r="D166">
+        <v>9.2837700000000003E-10</v>
       </c>
       <c r="F166" s="2">
         <v>2.6001599999999998E-9</v>
@@ -3776,8 +4275,11 @@
       <c r="G166" s="5">
         <v>30.35</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H166">
+        <v>9.2837700000000003E-10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A167" s="4">
         <v>165</v>
       </c>
@@ -3787,8 +4289,8 @@
       <c r="C167" s="3">
         <v>22.63</v>
       </c>
-      <c r="D167" s="2">
-        <v>3.7368010000000001E-9</v>
+      <c r="D167">
+        <v>9.3147799999999996E-10</v>
       </c>
       <c r="F167" s="2">
         <v>3.7368010000000001E-9</v>
@@ -3796,8 +4298,11 @@
       <c r="G167" s="5">
         <v>30.75</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H167">
+        <v>9.3147799999999996E-10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A168" s="4">
         <v>166</v>
       </c>
@@ -3807,8 +4312,8 @@
       <c r="C168" s="3">
         <v>22.63</v>
       </c>
-      <c r="D168" s="2">
-        <v>3.801894E-9</v>
+      <c r="D168">
+        <v>9.3496099999999995E-10</v>
       </c>
       <c r="F168" s="2">
         <v>3.801894E-9</v>
@@ -3816,8 +4321,11 @@
       <c r="G168" s="5">
         <v>30.95</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H168">
+        <v>9.3496099999999995E-10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A169" s="4">
         <v>167</v>
       </c>
@@ -3827,8 +4335,8 @@
       <c r="C169" s="3">
         <v>22.63</v>
       </c>
-      <c r="D169" s="2">
-        <v>3.7583739999999997E-9</v>
+      <c r="D169">
+        <v>9.3898699999999995E-10</v>
       </c>
       <c r="F169" s="2">
         <v>3.7583739999999997E-9</v>
@@ -3836,8 +4344,11 @@
       <c r="G169" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H169">
+        <v>9.3898699999999995E-10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A170" s="4">
         <v>168</v>
       </c>
@@ -3847,8 +4358,8 @@
       <c r="C170" s="3">
         <v>22.63</v>
       </c>
-      <c r="D170" s="2">
-        <v>4.3903590000000002E-9</v>
+      <c r="D170">
+        <v>9.4351600000000003E-10</v>
       </c>
       <c r="F170" s="2">
         <v>4.3903590000000002E-9</v>
@@ -3856,8 +4367,11 @@
       <c r="G170" s="5">
         <v>31.05</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H170">
+        <v>9.4351600000000003E-10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171" s="4">
         <v>169</v>
       </c>
@@ -3867,8 +4381,8 @@
       <c r="C171" s="3">
         <v>22.63</v>
       </c>
-      <c r="D171" s="2">
-        <v>3.6728229999999999E-9</v>
+      <c r="D171">
+        <v>9.469350000000001E-10</v>
       </c>
       <c r="F171" s="2">
         <v>3.6728229999999999E-9</v>
@@ -3876,8 +4390,11 @@
       <c r="G171" s="5">
         <v>31.2</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H171">
+        <v>9.469350000000001E-10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A172" s="4">
         <v>170</v>
       </c>
@@ -3887,8 +4404,8 @@
       <c r="C172" s="3">
         <v>22.63</v>
       </c>
-      <c r="D172" s="2">
-        <v>2.8510180000000001E-9</v>
+      <c r="D172">
+        <v>9.5128000000000005E-10</v>
       </c>
       <c r="F172" s="2">
         <v>2.8510180000000001E-9</v>
@@ -3896,8 +4413,11 @@
       <c r="G172" s="5">
         <v>31.55</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H172">
+        <v>9.5128000000000005E-10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A173" s="4">
         <v>171</v>
       </c>
@@ -3907,8 +4427,8 @@
       <c r="C173" s="3">
         <v>22.63</v>
       </c>
-      <c r="D173" s="2">
-        <v>3.6940259999999999E-9</v>
+      <c r="D173">
+        <v>9.5648400000000002E-10</v>
       </c>
       <c r="F173" s="2">
         <v>3.6940259999999999E-9</v>
@@ -3916,8 +4436,11 @@
       <c r="G173" s="5">
         <v>31.55</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H173">
+        <v>9.5648400000000002E-10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A174" s="4">
         <v>172</v>
       </c>
@@ -3927,8 +4450,8 @@
       <c r="C174" s="3">
         <v>22.63</v>
       </c>
-      <c r="D174" s="2">
-        <v>4.6773509999999997E-9</v>
+      <c r="D174">
+        <v>9.6198600000000007E-10</v>
       </c>
       <c r="F174" s="2">
         <v>4.6773509999999997E-9</v>
@@ -3936,8 +4459,11 @@
       <c r="G174" s="5">
         <v>31.65</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H174">
+        <v>9.6198600000000007E-10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A175" s="4">
         <v>173</v>
       </c>
@@ -3947,8 +4473,8 @@
       <c r="C175" s="3">
         <v>22.63</v>
       </c>
-      <c r="D175" s="2">
-        <v>3.507519E-9</v>
+      <c r="D175">
+        <v>9.6593800000000006E-10</v>
       </c>
       <c r="F175" s="2">
         <v>3.507519E-9</v>
@@ -3956,8 +4482,11 @@
       <c r="G175" s="5">
         <v>31.95</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H175">
+        <v>9.6593800000000006E-10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A176" s="4">
         <v>174</v>
       </c>
@@ -3967,8 +4496,8 @@
       <c r="C176" s="3">
         <v>22.63</v>
       </c>
-      <c r="D176" s="2">
-        <v>4.265795E-9</v>
+      <c r="D176">
+        <v>9.6986200000000002E-10</v>
       </c>
       <c r="F176" s="2">
         <v>4.265795E-9</v>
@@ -3976,8 +4505,11 @@
       <c r="G176" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H176">
+        <v>9.6986200000000002E-10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A177" s="4">
         <v>175</v>
       </c>
@@ -3987,8 +4519,8 @@
       <c r="C177" s="3">
         <v>22.63</v>
       </c>
-      <c r="D177" s="2">
-        <v>3.6940259999999999E-9</v>
+      <c r="D177">
+        <v>9.7247999999999993E-10</v>
       </c>
       <c r="F177" s="2">
         <v>3.6940259999999999E-9</v>
@@ -3996,8 +4528,11 @@
       <c r="G177" s="5">
         <v>32.1</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H177">
+        <v>9.7247999999999993E-10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A178" s="4">
         <v>176</v>
       </c>
@@ -4007,8 +4542,8 @@
       <c r="C178" s="3">
         <v>22.63</v>
       </c>
-      <c r="D178" s="2">
-        <v>4.0738029999999999E-9</v>
+      <c r="D178">
+        <v>9.7603499999999993E-10</v>
       </c>
       <c r="F178" s="2">
         <v>4.0738029999999999E-9</v>
@@ -4016,8 +4551,11 @@
       <c r="G178" s="5">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H178">
+        <v>9.7603499999999993E-10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179" s="4">
         <v>177</v>
       </c>
@@ -4027,8 +4565,8 @@
       <c r="C179" s="3">
         <v>22.63</v>
       </c>
-      <c r="D179" s="2">
-        <v>3.6940259999999999E-9</v>
+      <c r="D179">
+        <v>9.8014300000000001E-10</v>
       </c>
       <c r="F179" s="2">
         <v>3.6940259999999999E-9</v>
@@ -4036,8 +4574,11 @@
       <c r="G179" s="5">
         <v>32.549999999999997</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H179">
+        <v>9.8014300000000001E-10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180" s="4">
         <v>178</v>
       </c>
@@ -4047,8 +4588,8 @@
       <c r="C180" s="3">
         <v>22.63</v>
       </c>
-      <c r="D180" s="2">
-        <v>3.9582209999999999E-9</v>
+      <c r="D180">
+        <v>9.8509800000000002E-10</v>
       </c>
       <c r="F180" s="2">
         <v>3.9582209999999999E-9</v>
@@ -4056,8 +4597,11 @@
       <c r="G180" s="5">
         <v>32.65</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H180">
+        <v>9.8509800000000002E-10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A181" s="4">
         <v>179</v>
       </c>
@@ -4067,8 +4611,8 @@
       <c r="C181" s="3">
         <v>22.63</v>
       </c>
-      <c r="D181" s="2">
-        <v>3.5481339999999999E-9</v>
+      <c r="D181">
+        <v>9.8987099999999992E-10</v>
       </c>
       <c r="F181" s="2">
         <v>3.5481339999999999E-9</v>
@@ -4076,8 +4620,11 @@
       <c r="G181" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H181">
+        <v>9.8987099999999992E-10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A182" s="4">
         <v>180</v>
       </c>
@@ -4087,8 +4634,8 @@
       <c r="C182" s="3">
         <v>22.63</v>
       </c>
-      <c r="D182" s="2">
-        <v>4.1927600000000003E-9</v>
+      <c r="D182">
+        <v>9.9535000000000008E-10</v>
       </c>
       <c r="F182" s="2">
         <v>4.1927600000000003E-9</v>
@@ -4096,8 +4643,11 @@
       <c r="G182" s="5">
         <v>32.85</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H182">
+        <v>9.9535000000000008E-10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A183" s="4">
         <v>181</v>
       </c>
@@ -4107,8 +4657,8 @@
       <c r="C183" s="3">
         <v>22.63</v>
       </c>
-      <c r="D183" s="2">
-        <v>3.1081359999999999E-9</v>
+      <c r="D183">
+        <v>9.9889499999999999E-10</v>
       </c>
       <c r="F183" s="2">
         <v>3.1081359999999999E-9</v>
@@ -4116,8 +4666,11 @@
       <c r="G183" s="5">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H183">
+        <v>9.9889499999999999E-10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A184" s="4">
         <v>182</v>
       </c>
@@ -4127,8 +4680,8 @@
       <c r="C184" s="3">
         <v>22.63</v>
       </c>
-      <c r="D184" s="2">
-        <v>4.1209749999999996E-9</v>
+      <c r="D184">
+        <v>1.002404E-9</v>
       </c>
       <c r="F184" s="2">
         <v>4.1209749999999996E-9</v>
@@ -4136,8 +4689,11 @@
       <c r="G184" s="5">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H184">
+        <v>1.002404E-9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185" s="4">
         <v>183</v>
       </c>
@@ -4147,8 +4703,8 @@
       <c r="C185" s="3">
         <v>22.63</v>
       </c>
-      <c r="D185" s="2">
-        <v>2.8183830000000001E-9</v>
+      <c r="D185">
+        <v>1.0059540000000001E-9</v>
       </c>
       <c r="F185" s="2">
         <v>2.8183830000000001E-9</v>
@@ -4156,8 +4712,11 @@
       <c r="G185" s="5">
         <v>33.549999999999997</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H185">
+        <v>1.0059540000000001E-9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A186" s="4">
         <v>184</v>
       </c>
@@ -4167,8 +4726,8 @@
       <c r="C186" s="3">
         <v>22.63</v>
       </c>
-      <c r="D186" s="2">
-        <v>4.0504190000000003E-9</v>
+      <c r="D186">
+        <v>1.009874E-9</v>
       </c>
       <c r="F186" s="2">
         <v>4.0504190000000003E-9</v>
@@ -4176,8 +4735,11 @@
       <c r="G186" s="5">
         <v>33.75</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H186">
+        <v>1.009874E-9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A187" s="4">
         <v>185</v>
       </c>
@@ -4187,8 +4749,8 @@
       <c r="C187" s="3">
         <v>22.63</v>
       </c>
-      <c r="D187" s="2">
-        <v>3.3304279999999998E-9</v>
+      <c r="D187">
+        <v>1.0147729999999999E-9</v>
       </c>
       <c r="F187" s="2">
         <v>3.3304279999999998E-9</v>
@@ -4196,8 +4758,11 @@
       <c r="G187" s="5">
         <v>33.950000000000003</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H187">
+        <v>1.0147729999999999E-9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188" s="4">
         <v>186</v>
       </c>
@@ -4207,8 +4772,8 @@
       <c r="C188" s="3">
         <v>22.63</v>
       </c>
-      <c r="D188" s="2">
-        <v>4.0738029999999999E-9</v>
+      <c r="D188">
+        <v>1.0199439999999999E-9</v>
       </c>
       <c r="F188" s="2">
         <v>4.0738029999999999E-9</v>
@@ -4216,8 +4781,11 @@
       <c r="G188" s="5">
         <v>33.9</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H188">
+        <v>1.0199439999999999E-9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A189" s="4">
         <v>187</v>
       </c>
@@ -4227,8 +4795,8 @@
       <c r="C189" s="3">
         <v>22.63</v>
       </c>
-      <c r="D189" s="2">
-        <v>3.090295E-9</v>
+      <c r="D189">
+        <v>1.0263929999999999E-9</v>
       </c>
       <c r="F189" s="2">
         <v>3.090295E-9</v>
@@ -4236,8 +4804,11 @@
       <c r="G189" s="5">
         <v>34.15</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H189">
+        <v>1.0263929999999999E-9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A190" s="4">
         <v>188</v>
       </c>
@@ -4247,8 +4818,8 @@
       <c r="C190" s="3">
         <v>22.63</v>
       </c>
-      <c r="D190" s="2">
-        <v>3.9582209999999999E-9</v>
+      <c r="D190">
+        <v>1.031446E-9</v>
       </c>
       <c r="F190" s="2">
         <v>3.9582209999999999E-9</v>
@@ -4256,8 +4827,11 @@
       <c r="G190" s="5">
         <v>34.1</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H190">
+        <v>1.031446E-9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A191" s="4">
         <v>189</v>
       </c>
@@ -4267,8 +4841,8 @@
       <c r="C191" s="3">
         <v>22.63</v>
       </c>
-      <c r="D191" s="2">
-        <v>2.985383E-9</v>
+      <c r="D191">
+        <v>1.03495E-9</v>
       </c>
       <c r="F191" s="2">
         <v>2.985383E-9</v>
@@ -4276,8 +4850,11 @@
       <c r="G191" s="5">
         <v>34.299999999999997</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H191">
+        <v>1.03495E-9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A192" s="4">
         <v>190</v>
       </c>
@@ -4287,8 +4864,8 @@
       <c r="C192" s="3">
         <v>22.63</v>
       </c>
-      <c r="D192" s="2">
-        <v>4.004055E-9</v>
+      <c r="D192">
+        <v>1.0378460000000001E-9</v>
       </c>
       <c r="F192" s="2">
         <v>4.004055E-9</v>
@@ -4296,8 +4873,11 @@
       <c r="G192" s="5">
         <v>34.450000000000003</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H192">
+        <v>1.0378460000000001E-9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A193" s="4">
         <v>191</v>
       </c>
@@ -4307,8 +4887,8 @@
       <c r="C193" s="3">
         <v>22.63</v>
       </c>
-      <c r="D193" s="2">
-        <v>4.2169650000000002E-9</v>
+      <c r="D193">
+        <v>1.0421160000000001E-9</v>
       </c>
       <c r="F193" s="2">
         <v>4.2169650000000002E-9</v>
@@ -4316,8 +4896,11 @@
       <c r="G193" s="5">
         <v>34.75</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H193">
+        <v>1.0421160000000001E-9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A194" s="4">
         <v>192</v>
       </c>
@@ -4327,8 +4910,8 @@
       <c r="C194" s="3">
         <v>22.63</v>
       </c>
-      <c r="D194" s="2">
-        <v>3.9582209999999999E-9</v>
+      <c r="D194">
+        <v>1.04567E-9</v>
       </c>
       <c r="F194" s="2">
         <v>3.9582209999999999E-9</v>
@@ -4336,8 +4919,11 @@
       <c r="G194" s="5">
         <v>34.75</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H194">
+        <v>1.04567E-9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A195" s="4">
         <v>193</v>
       </c>
@@ -4347,8 +4933,8 @@
       <c r="C195" s="3">
         <v>22.63</v>
       </c>
-      <c r="D195" s="2">
-        <v>5.1879999999999999E-9</v>
+      <c r="D195">
+        <v>1.051536E-9</v>
       </c>
       <c r="F195" s="2">
         <v>5.1879999999999999E-9</v>
@@ -4356,8 +4942,11 @@
       <c r="G195" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H195">
+        <v>1.051536E-9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A196" s="4">
         <v>194</v>
       </c>
@@ -4367,8 +4956,8 @@
       <c r="C196" s="3">
         <v>22.63</v>
       </c>
-      <c r="D196" s="2">
-        <v>3.9129109999999998E-9</v>
+      <c r="D196">
+        <v>1.0564859999999999E-9</v>
       </c>
       <c r="F196" s="2">
         <v>3.9129109999999998E-9</v>
@@ -4376,8 +4965,11 @@
       <c r="G196" s="5">
         <v>35.15</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H196">
+        <v>1.0564859999999999E-9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A197" s="4">
         <v>195</v>
       </c>
@@ -4387,8 +4979,8 @@
       <c r="C197" s="3">
         <v>22.63</v>
       </c>
-      <c r="D197" s="2">
-        <v>4.8417240000000001E-9</v>
+      <c r="D197">
+        <v>1.0612469999999999E-9</v>
       </c>
       <c r="F197" s="2">
         <v>4.8417240000000001E-9</v>
@@ -4396,8 +4988,11 @@
       <c r="G197" s="5">
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H197">
+        <v>1.0612469999999999E-9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A198" s="4">
         <v>196</v>
       </c>
@@ -4407,8 +5002,8 @@
       <c r="C198" s="3">
         <v>22.63</v>
       </c>
-      <c r="D198" s="2">
-        <v>4.0271699999999999E-9</v>
+      <c r="D198">
+        <v>1.0648000000000001E-9</v>
       </c>
       <c r="F198" s="2">
         <v>4.0271699999999999E-9</v>
@@ -4416,8 +5011,11 @@
       <c r="G198" s="5">
         <v>35.4</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H198">
+        <v>1.0648000000000001E-9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A199" s="4">
         <v>197</v>
       </c>
@@ -4427,8 +5025,8 @@
       <c r="C199" s="3">
         <v>22.63</v>
       </c>
-      <c r="D199" s="2">
-        <v>3.0725569999999999E-9</v>
+      <c r="D199">
+        <v>1.0676790000000001E-9</v>
       </c>
       <c r="F199" s="2">
         <v>3.0725569999999999E-9</v>
@@ -4436,8 +5034,11 @@
       <c r="G199" s="5">
         <v>35.700000000000003</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H199">
+        <v>1.0676790000000001E-9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A200" s="4">
         <v>198</v>
       </c>
@@ -4447,8 +5048,8 @@
       <c r="C200" s="3">
         <v>22.63</v>
       </c>
-      <c r="D200" s="2">
-        <v>4.0738029999999999E-9</v>
+      <c r="D200">
+        <v>1.070617E-9</v>
       </c>
       <c r="F200" s="2">
         <v>4.0738029999999999E-9</v>
@@ -4456,8 +5057,11 @@
       <c r="G200" s="5">
         <v>35.799999999999997</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H200">
+        <v>1.070617E-9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A201" s="4">
         <v>199</v>
       </c>
@@ -4467,8 +5071,8 @@
       <c r="C201" s="3">
         <v>22.63</v>
       </c>
-      <c r="D201" s="2">
-        <v>3.1260790000000001E-9</v>
+      <c r="D201">
+        <v>1.074833E-9</v>
       </c>
       <c r="F201" s="2">
         <v>3.1260790000000001E-9</v>
@@ -4476,8 +5080,11 @@
       <c r="G201" s="5">
         <v>36.1</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H201">
+        <v>1.074833E-9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A202" s="4">
         <v>200</v>
       </c>
@@ -4487,8 +5094,8 @@
       <c r="C202" s="3">
         <v>22.63</v>
       </c>
-      <c r="D202" s="2">
-        <v>4.0504190000000003E-9</v>
+      <c r="D202">
+        <v>1.079948E-9</v>
       </c>
       <c r="F202" s="2">
         <v>4.0504190000000003E-9</v>
@@ -4496,8 +5103,11 @@
       <c r="G202" s="5">
         <v>36.299999999999997</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H202">
+        <v>1.079948E-9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A203" s="4">
         <v>201</v>
       </c>
@@ -4507,8 +5117,8 @@
       <c r="C203" s="3">
         <v>22.63</v>
       </c>
-      <c r="D203" s="2">
-        <v>3.002617E-9</v>
+      <c r="D203">
+        <v>1.0853699999999999E-9</v>
       </c>
       <c r="F203" s="2">
         <v>3.002617E-9</v>
@@ -4516,8 +5126,11 @@
       <c r="G203" s="5">
         <v>36.4</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H203">
+        <v>1.0853699999999999E-9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A204" s="4">
         <v>202</v>
       </c>
@@ -4527,8 +5140,8 @@
       <c r="C204" s="3">
         <v>22.63</v>
       </c>
-      <c r="D204" s="2">
-        <v>4.2904220000000004E-9</v>
+      <c r="D204">
+        <v>1.0902009999999999E-9</v>
       </c>
       <c r="F204" s="2">
         <v>4.2904220000000004E-9</v>
@@ -4536,8 +5149,11 @@
       <c r="G204" s="5">
         <v>36.65</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H204">
+        <v>1.0902009999999999E-9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A205" s="4">
         <v>203</v>
       </c>
@@ -4547,8 +5163,8 @@
       <c r="C205" s="3">
         <v>22.63</v>
       </c>
-      <c r="D205" s="2">
-        <v>3.2173629999999999E-9</v>
+      <c r="D205">
+        <v>1.0934399999999999E-9</v>
       </c>
       <c r="F205" s="2">
         <v>3.2173629999999999E-9</v>
@@ -4556,8 +5172,11 @@
       <c r="G205" s="5">
         <v>36.549999999999997</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H205">
+        <v>1.0934399999999999E-9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A206" s="4">
         <v>204</v>
       </c>
@@ -4567,8 +5186,8 @@
       <c r="C206" s="3">
         <v>22.63</v>
       </c>
-      <c r="D206" s="2">
-        <v>4.265795E-9</v>
+      <c r="D206">
+        <v>1.0982360000000001E-9</v>
       </c>
       <c r="F206" s="2">
         <v>4.265795E-9</v>
@@ -4576,8 +5195,11 @@
       <c r="G206" s="5">
         <v>36.950000000000003</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H206">
+        <v>1.0982360000000001E-9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A207" s="4">
         <v>205</v>
       </c>
@@ -4587,8 +5209,8 @@
       <c r="C207" s="3">
         <v>22.63</v>
       </c>
-      <c r="D207" s="2">
-        <v>4.3651579999999996E-9</v>
+      <c r="D207">
+        <v>1.1036120000000001E-9</v>
       </c>
       <c r="F207" s="2">
         <v>4.3651579999999996E-9</v>
@@ -4596,8 +5218,11 @@
       <c r="G207" s="5">
         <v>37.4</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H207">
+        <v>1.1036120000000001E-9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A208" s="4">
         <v>206</v>
       </c>
@@ -4607,8 +5232,8 @@
       <c r="C208" s="3">
         <v>22.63</v>
       </c>
-      <c r="D208" s="2">
-        <v>4.2169650000000002E-9</v>
+      <c r="D208">
+        <v>1.109107E-9</v>
       </c>
       <c r="F208" s="2">
         <v>4.2169650000000002E-9</v>
@@ -4616,8 +5241,11 @@
       <c r="G208" s="5">
         <v>37.35</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H208">
+        <v>1.109107E-9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A209" s="4">
         <v>207</v>
       </c>
@@ -4627,8 +5255,8 @@
       <c r="C209" s="3">
         <v>22.63</v>
       </c>
-      <c r="D209" s="2">
-        <v>3.4873859999999999E-9</v>
+      <c r="D209">
+        <v>1.114167E-9</v>
       </c>
       <c r="F209" s="2">
         <v>3.4873859999999999E-9</v>
@@ -4636,8 +5264,11 @@
       <c r="G209" s="5">
         <v>37.549999999999997</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H209">
+        <v>1.114167E-9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A210" s="4">
         <v>208</v>
       </c>
@@ -4647,8 +5278,8 @@
       <c r="C210" s="3">
         <v>22.63</v>
       </c>
-      <c r="D210" s="2">
-        <v>4.3401030000000001E-9</v>
+      <c r="D210">
+        <v>1.1180520000000001E-9</v>
       </c>
       <c r="F210" s="2">
         <v>4.3401030000000001E-9</v>
@@ -4656,8 +5287,11 @@
       <c r="G210" s="5">
         <v>37.450000000000003</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H210">
+        <v>1.1180520000000001E-9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A211" s="4">
         <v>209</v>
       </c>
@@ -4667,8 +5301,8 @@
       <c r="C211" s="3">
         <v>22.63</v>
       </c>
-      <c r="D211" s="2">
-        <v>3.3113110000000001E-9</v>
+      <c r="D211">
+        <v>1.121189E-9</v>
       </c>
       <c r="F211" s="2">
         <v>3.3113110000000001E-9</v>
@@ -4676,8 +5310,11 @@
       <c r="G211" s="5">
         <v>37.799999999999997</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H211">
+        <v>1.121189E-9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A212" s="4">
         <v>210</v>
       </c>
@@ -4687,8 +5324,8 @@
       <c r="C212" s="3">
         <v>22.63</v>
       </c>
-      <c r="D212" s="2">
-        <v>4.3151909999999998E-9</v>
+      <c r="D212">
+        <v>1.126014E-9</v>
       </c>
       <c r="F212" s="2">
         <v>4.3151909999999998E-9</v>
@@ -4696,8 +5333,11 @@
       <c r="G212" s="5">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H212">
+        <v>1.126014E-9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A213" s="4">
         <v>211</v>
       </c>
@@ -4707,8 +5347,8 @@
       <c r="C213" s="3">
         <v>22.63</v>
       </c>
-      <c r="D213" s="2">
-        <v>3.3113110000000001E-9</v>
+      <c r="D213">
+        <v>1.1300080000000001E-9</v>
       </c>
       <c r="F213" s="2">
         <v>3.3113110000000001E-9</v>
@@ -4716,8 +5356,11 @@
       <c r="G213" s="5">
         <v>38.35</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H213">
+        <v>1.1300080000000001E-9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A214" s="4">
         <v>212</v>
       </c>
@@ -4727,8 +5370,8 @@
       <c r="C214" s="3">
         <v>22.63</v>
       </c>
-      <c r="D214" s="2">
-        <v>4.5185589999999998E-9</v>
+      <c r="D214">
+        <v>1.133856E-9</v>
       </c>
       <c r="F214" s="2">
         <v>4.5185589999999998E-9</v>
@@ -4736,8 +5379,11 @@
       <c r="G214" s="5">
         <v>38.35</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H214">
+        <v>1.133856E-9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A215" s="4">
         <v>213</v>
       </c>
@@ -4747,8 +5393,8 @@
       <c r="C215" s="3">
         <v>22.63</v>
       </c>
-      <c r="D215" s="2">
-        <v>3.4080029999999999E-9</v>
+      <c r="D215">
+        <v>1.13793E-9</v>
       </c>
       <c r="F215" s="2">
         <v>3.4080029999999999E-9</v>
@@ -4756,8 +5402,11 @@
       <c r="G215" s="5">
         <v>38.6</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H215">
+        <v>1.13793E-9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A216" s="4">
         <v>214</v>
       </c>
@@ -4767,8 +5416,8 @@
       <c r="C216" s="3">
         <v>22.63</v>
       </c>
-      <c r="D216" s="2">
-        <v>4.4668360000000002E-9</v>
+      <c r="D216">
+        <v>1.141808E-9</v>
       </c>
       <c r="F216" s="2">
         <v>4.4668360000000002E-9</v>
@@ -4776,8 +5425,11 @@
       <c r="G216" s="5">
         <v>38.700000000000003</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H216">
+        <v>1.141808E-9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A217" s="4">
         <v>215</v>
       </c>
@@ -4787,8 +5439,8 @@
       <c r="C217" s="3">
         <v>22.63</v>
       </c>
-      <c r="D217" s="2">
-        <v>3.7800710000000001E-9</v>
+      <c r="D217">
+        <v>1.145402E-9</v>
       </c>
       <c r="F217" s="2">
         <v>3.7800710000000001E-9</v>
@@ -4796,8 +5448,11 @@
       <c r="G217" s="5">
         <v>39</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H217">
+        <v>1.145402E-9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A218" s="4">
         <v>216</v>
       </c>
@@ -4807,8 +5462,8 @@
       <c r="C218" s="3">
         <v>22.63</v>
       </c>
-      <c r="D218" s="2">
-        <v>4.5185589999999998E-9</v>
+      <c r="D218">
+        <v>1.149773E-9</v>
       </c>
       <c r="F218" s="2">
         <v>4.5185589999999998E-9</v>
@@ -4816,8 +5471,11 @@
       <c r="G218" s="5">
         <v>39.15</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H218">
+        <v>1.149773E-9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A219" s="4">
         <v>217</v>
       </c>
@@ -4827,8 +5485,8 @@
       <c r="C219" s="3">
         <v>22.63</v>
       </c>
-      <c r="D219" s="2">
-        <v>3.9582209999999999E-9</v>
+      <c r="D219">
+        <v>1.1547050000000001E-9</v>
       </c>
       <c r="F219" s="2">
         <v>3.9582209999999999E-9</v>
@@ -4836,8 +5494,11 @@
       <c r="G219" s="5">
         <v>39.4</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H219">
+        <v>1.1547050000000001E-9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A220" s="4">
         <v>218</v>
       </c>
@@ -4847,8 +5508,8 @@
       <c r="C220" s="3">
         <v>22.63</v>
       </c>
-      <c r="D220" s="2">
-        <v>4.5446449999999997E-9</v>
+      <c r="D220">
+        <v>1.159694E-9</v>
       </c>
       <c r="F220" s="2">
         <v>4.5446449999999997E-9</v>
@@ -4856,8 +5517,11 @@
       <c r="G220" s="5">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H220">
+        <v>1.159694E-9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A221" s="4">
         <v>219</v>
       </c>
@@ -4867,8 +5531,8 @@
       <c r="C221" s="3">
         <v>22.63</v>
       </c>
-      <c r="D221" s="2">
-        <v>3.6940259999999999E-9</v>
+      <c r="D221">
+        <v>1.165305E-9</v>
       </c>
       <c r="F221" s="2">
         <v>3.6940259999999999E-9</v>
@@ -4876,8 +5540,11 @@
       <c r="G221" s="5">
         <v>39.700000000000003</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H221">
+        <v>1.165305E-9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A222" s="4">
         <v>220</v>
       </c>
@@ -4887,8 +5554,8 @@
       <c r="C222" s="3">
         <v>22.63</v>
       </c>
-      <c r="D222" s="2">
-        <v>4.4411969999999998E-9</v>
+      <c r="D222">
+        <v>1.1687680000000001E-9</v>
       </c>
       <c r="F222" s="2">
         <v>4.4411969999999998E-9</v>
@@ -4896,8 +5563,11 @@
       <c r="G222" s="5">
         <v>39.9</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H222">
+        <v>1.1687680000000001E-9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A223" s="4">
         <v>221</v>
       </c>
@@ -4907,8 +5577,8 @@
       <c r="C223" s="3">
         <v>22.63</v>
       </c>
-      <c r="D223" s="2">
-        <v>3.4873859999999999E-9</v>
+      <c r="D223">
+        <v>1.173711E-9</v>
       </c>
       <c r="F223" s="2">
         <v>3.4873859999999999E-9</v>
@@ -4916,8 +5586,11 @@
       <c r="G223" s="5">
         <v>40.15</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H223">
+        <v>1.173711E-9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A224" s="4">
         <v>222</v>
       </c>
@@ -4927,8 +5600,8 @@
       <c r="C224" s="3">
         <v>22.63</v>
       </c>
-      <c r="D224" s="2">
-        <v>4.5446449999999997E-9</v>
+      <c r="D224">
+        <v>1.178938E-9</v>
       </c>
       <c r="F224" s="2">
         <v>4.5446449999999997E-9</v>
@@ -4936,8 +5609,11 @@
       <c r="G224" s="5">
         <v>40.15</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H224">
+        <v>1.178938E-9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A225" s="4">
         <v>223</v>
       </c>
@@ -4947,8 +5623,8 @@
       <c r="C225" s="3">
         <v>22.63</v>
       </c>
-      <c r="D225" s="2">
-        <v>3.7368010000000001E-9</v>
+      <c r="D225">
+        <v>1.183547E-9</v>
       </c>
       <c r="F225" s="2">
         <v>3.7368010000000001E-9</v>
@@ -4956,8 +5632,11 @@
       <c r="G225" s="5">
         <v>40.450000000000003</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H225">
+        <v>1.183547E-9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A226" s="4">
         <v>224</v>
       </c>
@@ -4967,8 +5646,8 @@
       <c r="C226" s="3">
         <v>22.63</v>
       </c>
-      <c r="D226" s="2">
-        <v>4.8417240000000001E-9</v>
+      <c r="D226">
+        <v>1.1881929999999999E-9</v>
       </c>
       <c r="F226" s="2">
         <v>4.8417240000000001E-9</v>
@@ -4976,8 +5655,11 @@
       <c r="G226" s="5">
         <v>40.5</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H226">
+        <v>1.1881929999999999E-9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A227" s="4">
         <v>225</v>
       </c>
@@ -4987,8 +5669,8 @@
       <c r="C227" s="3">
         <v>22.63</v>
       </c>
-      <c r="D227" s="2">
-        <v>3.6940259999999999E-9</v>
+      <c r="D227">
+        <v>1.192471E-9</v>
       </c>
       <c r="F227" s="2">
         <v>3.6940259999999999E-9</v>
@@ -4996,8 +5678,11 @@
       <c r="G227" s="5">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H227">
+        <v>1.192471E-9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A228" s="4">
         <v>226</v>
       </c>
@@ -5007,8 +5692,8 @@
       <c r="C228" s="3">
         <v>22.63</v>
       </c>
-      <c r="D228" s="2">
-        <v>4.8417240000000001E-9</v>
+      <c r="D228">
+        <v>1.195202E-9</v>
       </c>
       <c r="F228" s="2">
         <v>4.8417240000000001E-9</v>
@@ -5016,8 +5701,11 @@
       <c r="G228" s="5">
         <v>41</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H228">
+        <v>1.195202E-9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A229" s="4">
         <v>227</v>
       </c>
@@ -5027,8 +5715,8 @@
       <c r="C229" s="3">
         <v>22.63</v>
       </c>
-      <c r="D229" s="2">
-        <v>3.6307810000000001E-9</v>
+      <c r="D229">
+        <v>1.1998129999999999E-9</v>
       </c>
       <c r="F229" s="2">
         <v>3.6307810000000001E-9</v>
@@ -5036,8 +5724,11 @@
       <c r="G229" s="5">
         <v>41.5</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H229">
+        <v>1.1998129999999999E-9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A230" s="4">
         <v>228</v>
       </c>
@@ -5047,8 +5738,8 @@
       <c r="C230" s="3">
         <v>22.63</v>
       </c>
-      <c r="D230" s="2">
-        <v>4.8139330000000003E-9</v>
+      <c r="D230">
+        <v>1.2055249999999999E-9</v>
       </c>
       <c r="F230" s="2">
         <v>4.8139330000000003E-9</v>
@@ -5056,8 +5747,11 @@
       <c r="G230" s="5">
         <v>41.4</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H230">
+        <v>1.2055249999999999E-9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A231" s="4">
         <v>229</v>
       </c>
@@ -5067,8 +5761,8 @@
       <c r="C231" s="3">
         <v>22.63</v>
       </c>
-      <c r="D231" s="2">
-        <v>4.5972699999999998E-9</v>
+      <c r="D231">
+        <v>1.2117579999999999E-9</v>
       </c>
       <c r="F231" s="2">
         <v>4.5972699999999998E-9</v>
@@ -5076,8 +5770,11 @@
       <c r="G231" s="5">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H231">
+        <v>1.2117579999999999E-9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A232" s="4">
         <v>230</v>
       </c>
@@ -5087,8 +5784,8 @@
       <c r="C232" s="3">
         <v>22.63</v>
       </c>
-      <c r="D232" s="2">
-        <v>4.8977879999999997E-9</v>
+      <c r="D232">
+        <v>1.2180290000000001E-9</v>
       </c>
       <c r="F232" s="2">
         <v>4.8977879999999997E-9</v>
@@ -5096,8 +5793,11 @@
       <c r="G232" s="5">
         <v>41.7</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H232">
+        <v>1.2180290000000001E-9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A233" s="4">
         <v>231</v>
       </c>
@@ -5107,8 +5807,8 @@
       <c r="C233" s="3">
         <v>22.63</v>
       </c>
-      <c r="D233" s="2">
-        <v>4.168694E-9</v>
+      <c r="D233">
+        <v>1.223709E-9</v>
       </c>
       <c r="F233" s="2">
         <v>4.168694E-9</v>
@@ -5116,8 +5816,11 @@
       <c r="G233" s="5">
         <v>41.95</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H233">
+        <v>1.223709E-9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A234" s="4">
         <v>232</v>
       </c>
@@ -5127,8 +5830,8 @@
       <c r="C234" s="3">
         <v>22.63</v>
       </c>
-      <c r="D234" s="2">
-        <v>4.8139330000000003E-9</v>
+      <c r="D234">
+        <v>1.2277320000000001E-9</v>
       </c>
       <c r="F234" s="2">
         <v>4.8139330000000003E-9</v>
@@ -5136,8 +5839,11 @@
       <c r="G234" s="5">
         <v>42.05</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H234">
+        <v>1.2277320000000001E-9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A235" s="4">
         <v>233</v>
       </c>
@@ -5147,8 +5853,8 @@
       <c r="C235" s="3">
         <v>22.63</v>
       </c>
-      <c r="D235" s="2">
-        <v>4.004055E-9</v>
+      <c r="D235">
+        <v>1.2340539999999999E-9</v>
       </c>
       <c r="F235" s="2">
         <v>4.004055E-9</v>
@@ -5156,8 +5862,11 @@
       <c r="G235" s="5">
         <v>42.35</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H235">
+        <v>1.2340539999999999E-9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A236" s="4">
         <v>234</v>
       </c>
@@ -5167,8 +5876,8 @@
       <c r="C236" s="3">
         <v>22.63</v>
       </c>
-      <c r="D236" s="2">
-        <v>4.9545019999999996E-9</v>
+      <c r="D236">
+        <v>1.2412780000000001E-9</v>
       </c>
       <c r="F236" s="2">
         <v>4.9545019999999996E-9</v>
@@ -5176,8 +5885,11 @@
       <c r="G236" s="5">
         <v>42.2</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H236">
+        <v>1.2412780000000001E-9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A237" s="4">
         <v>235</v>
       </c>
@@ -5187,8 +5899,8 @@
       <c r="C237" s="3">
         <v>22.63</v>
       </c>
-      <c r="D237" s="2">
-        <v>3.981072E-9</v>
+      <c r="D237">
+        <v>1.2480650000000001E-9</v>
       </c>
       <c r="F237" s="2">
         <v>3.981072E-9</v>
@@ -5196,8 +5908,11 @@
       <c r="G237" s="5">
         <v>42.9</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H237">
+        <v>1.2480650000000001E-9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A238" s="4">
         <v>236</v>
       </c>
@@ -5207,8 +5922,8 @@
       <c r="C238" s="3">
         <v>22.63</v>
       </c>
-      <c r="D238" s="2">
-        <v>5.0118720000000002E-9</v>
+      <c r="D238">
+        <v>1.254327E-9</v>
       </c>
       <c r="F238" s="2">
         <v>5.0118720000000002E-9</v>
@@ -5216,8 +5931,11 @@
       <c r="G238" s="5">
         <v>43.05</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H238">
+        <v>1.254327E-9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A239" s="4">
         <v>237</v>
       </c>
@@ -5227,8 +5945,8 @@
       <c r="C239" s="3">
         <v>22.63</v>
       </c>
-      <c r="D239" s="2">
-        <v>4.0504190000000003E-9</v>
+      <c r="D239">
+        <v>1.258506E-9</v>
       </c>
       <c r="F239" s="2">
         <v>4.0504190000000003E-9</v>
@@ -5236,8 +5954,11 @@
       <c r="G239" s="5">
         <v>43.15</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H239">
+        <v>1.258506E-9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A240" s="4">
         <v>238</v>
       </c>
@@ -5247,8 +5968,8 @@
       <c r="C240" s="3">
         <v>22.63</v>
       </c>
-      <c r="D240" s="2">
-        <v>5.2179510000000001E-9</v>
+      <c r="D240">
+        <v>1.262805E-9</v>
       </c>
       <c r="F240" s="2">
         <v>5.2179510000000001E-9</v>
@@ -5256,8 +5977,11 @@
       <c r="G240" s="5">
         <v>43.35</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H240">
+        <v>1.262805E-9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A241" s="4">
         <v>239</v>
       </c>
@@ -5267,8 +5991,8 @@
       <c r="C241" s="3">
         <v>22.63</v>
       </c>
-      <c r="D241" s="2">
-        <v>4.926063E-9</v>
+      <c r="D241">
+        <v>1.26699E-9</v>
       </c>
       <c r="F241" s="2">
         <v>4.926063E-9</v>
@@ -5276,8 +6000,11 @@
       <c r="G241" s="5">
         <v>43.6</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H241">
+        <v>1.26699E-9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A242" s="4">
         <v>240</v>
       </c>
@@ -5287,8 +6014,8 @@
       <c r="C242" s="3">
         <v>22.63</v>
       </c>
-      <c r="D242" s="2">
-        <v>5.2179510000000001E-9</v>
+      <c r="D242">
+        <v>1.27217E-9</v>
       </c>
       <c r="F242" s="2">
         <v>5.2179510000000001E-9</v>
@@ -5296,8 +6023,11 @@
       <c r="G242" s="5">
         <v>43.85</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H242">
+        <v>1.27217E-9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A243" s="4">
         <v>241</v>
       </c>
@@ -5307,8 +6037,8 @@
       <c r="C243" s="3">
         <v>22.63</v>
       </c>
-      <c r="D243" s="2">
-        <v>4.9831050000000002E-9</v>
+      <c r="D243">
+        <v>1.2775080000000001E-9</v>
       </c>
       <c r="F243" s="2">
         <v>4.9831050000000002E-9</v>
@@ -5316,8 +6046,11 @@
       <c r="G243" s="5">
         <v>44.05</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H243">
+        <v>1.2775080000000001E-9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A244" s="4">
         <v>242</v>
       </c>
@@ -5327,8 +6060,8 @@
       <c r="C244" s="3">
         <v>22.63</v>
       </c>
-      <c r="D244" s="2">
-        <v>5.2783719999999996E-9</v>
+      <c r="D244">
+        <v>1.283639E-9</v>
       </c>
       <c r="F244" s="2">
         <v>5.2783719999999996E-9</v>
@@ -5336,8 +6069,11 @@
       <c r="G244" s="5">
         <v>44.05</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H244">
+        <v>1.283639E-9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A245" s="4">
         <v>243</v>
       </c>
@@ -5347,8 +6083,8 @@
       <c r="C245" s="3">
         <v>22.63</v>
       </c>
-      <c r="D245" s="2">
-        <v>4.9545019999999996E-9</v>
+      <c r="D245">
+        <v>1.287964E-9</v>
       </c>
       <c r="F245" s="2">
         <v>4.9545019999999996E-9</v>
@@ -5356,8 +6092,11 @@
       <c r="G245" s="5">
         <v>44.4</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H245">
+        <v>1.287964E-9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A246" s="4">
         <v>244</v>
       </c>
@@ -5367,8 +6106,8 @@
       <c r="C246" s="3">
         <v>22.63</v>
       </c>
-      <c r="D246" s="2">
-        <v>4.8139330000000003E-9</v>
+      <c r="D246">
+        <v>1.2934389999999999E-9</v>
       </c>
       <c r="F246" s="2">
         <v>4.8139330000000003E-9</v>
@@ -5376,8 +6115,11 @@
       <c r="G246" s="5">
         <v>44.65</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H246">
+        <v>1.2934389999999999E-9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A247" s="4">
         <v>245</v>
       </c>
@@ -5387,8 +6129,8 @@
       <c r="C247" s="3">
         <v>22.63</v>
       </c>
-      <c r="D247" s="2">
-        <v>4.926063E-9</v>
+      <c r="D247">
+        <v>1.2984080000000001E-9</v>
       </c>
       <c r="F247" s="2">
         <v>4.926063E-9</v>
@@ -5396,8 +6138,11 @@
       <c r="G247" s="5">
         <v>44.7</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H247">
+        <v>1.2984080000000001E-9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A248" s="4">
         <v>246</v>
       </c>
@@ -5407,8 +6152,8 @@
       <c r="C248" s="3">
         <v>22.63</v>
       </c>
-      <c r="D248" s="2">
-        <v>4.2413100000000001E-9</v>
+      <c r="D248">
+        <v>1.3035720000000001E-9</v>
       </c>
       <c r="F248" s="2">
         <v>4.2413100000000001E-9</v>
@@ -5416,8 +6161,11 @@
       <c r="G248" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H248">
+        <v>1.3035720000000001E-9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A249" s="4">
         <v>247</v>
       </c>
@@ -5427,8 +6175,8 @@
       <c r="C249" s="3">
         <v>22.63</v>
       </c>
-      <c r="D249" s="2">
-        <v>4.9831050000000002E-9</v>
+      <c r="D249">
+        <v>1.3085950000000001E-9</v>
       </c>
       <c r="F249" s="2">
         <v>4.9831050000000002E-9</v>
@@ -5436,8 +6184,11 @@
       <c r="G249" s="5">
         <v>45.35</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H249">
+        <v>1.3085950000000001E-9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A250" s="4">
         <v>248</v>
       </c>
@@ -5447,8 +6198,8 @@
       <c r="C250" s="3">
         <v>22.63</v>
       </c>
-      <c r="D250" s="2">
-        <v>4.0504190000000003E-9</v>
+      <c r="D250">
+        <v>1.31501E-9</v>
       </c>
       <c r="F250" s="2">
         <v>4.0504190000000003E-9</v>
@@ -5456,8 +6207,11 @@
       <c r="G250" s="5">
         <v>45.5</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H250">
+        <v>1.31501E-9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A251" s="4">
         <v>249</v>
       </c>
@@ -5467,8 +6221,8 @@
       <c r="C251" s="3">
         <v>22.63</v>
       </c>
-      <c r="D251" s="2">
-        <v>5.0991759999999997E-9</v>
+      <c r="D251">
+        <v>1.3200309999999999E-9</v>
       </c>
       <c r="F251" s="2">
         <v>5.0991759999999997E-9</v>
@@ -5476,8 +6230,11 @@
       <c r="G251" s="5">
         <v>45.6</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H251">
+        <v>1.3200309999999999E-9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A252" s="4">
         <v>250</v>
       </c>
@@ -5487,8 +6244,8 @@
       <c r="C252" s="3">
         <v>22.63</v>
       </c>
-      <c r="D252" s="2">
-        <v>4.4926229999999999E-9</v>
+      <c r="D252">
+        <v>1.326032E-9</v>
       </c>
       <c r="F252" s="2">
         <v>4.4926229999999999E-9</v>
@@ -5496,8 +6253,11 @@
       <c r="G252" s="5">
         <v>45.9</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H252">
+        <v>1.326032E-9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A253" s="4">
         <v>251</v>
       </c>
@@ -5507,8 +6267,8 @@
       <c r="C253" s="3">
         <v>22.63</v>
       </c>
-      <c r="D253" s="2">
-        <v>5.0699070000000002E-9</v>
+      <c r="D253">
+        <v>1.332728E-9</v>
       </c>
       <c r="F253" s="2">
         <v>5.0699070000000002E-9</v>
@@ -5516,8 +6276,11 @@
       <c r="G253" s="5">
         <v>46.1</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H253">
+        <v>1.332728E-9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A254" s="4">
         <v>252</v>
       </c>
@@ -5527,8 +6290,8 @@
       <c r="C254" s="3">
         <v>22.63</v>
       </c>
-      <c r="D254" s="2">
-        <v>5.3394929999999999E-9</v>
+      <c r="D254">
+        <v>1.3390729999999999E-9</v>
       </c>
       <c r="F254" s="2">
         <v>5.3394929999999999E-9</v>
@@ -5536,8 +6299,11 @@
       <c r="G254" s="5">
         <v>46.45</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H254">
+        <v>1.3390729999999999E-9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A255" s="4">
         <v>253</v>
       </c>
@@ -5547,8 +6313,8 @@
       <c r="C255" s="3">
         <v>22.63</v>
       </c>
-      <c r="D255" s="2">
-        <v>5.2179510000000001E-9</v>
+      <c r="D255">
+        <v>1.3452909999999999E-9</v>
       </c>
       <c r="F255" s="2">
         <v>5.2179510000000001E-9</v>
@@ -5556,8 +6322,11 @@
       <c r="G255" s="5">
         <v>46.65</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H255">
+        <v>1.3452909999999999E-9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A256" s="4">
         <v>254</v>
       </c>
@@ -5567,8 +6336,8 @@
       <c r="C256" s="3">
         <v>22.63</v>
       </c>
-      <c r="D256" s="2">
-        <v>5.6234130000000003E-9</v>
+      <c r="D256">
+        <v>1.349345E-9</v>
       </c>
       <c r="F256" s="2">
         <v>5.6234130000000003E-9</v>
@@ -5576,8 +6345,11 @@
       <c r="G256" s="5">
         <v>46.9</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H256">
+        <v>1.349345E-9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A257" s="4">
         <v>255</v>
       </c>
@@ -5587,8 +6359,8 @@
       <c r="C257" s="3">
         <v>22.63</v>
       </c>
-      <c r="D257" s="2">
-        <v>5.3703179999999999E-9</v>
+      <c r="D257">
+        <v>1.3549089999999999E-9</v>
       </c>
       <c r="F257" s="2">
         <v>5.3703179999999999E-9</v>
@@ -5596,8 +6368,11 @@
       <c r="G257" s="5">
         <v>47</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H257">
+        <v>1.3549089999999999E-9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A258" s="4">
         <v>256</v>
       </c>
@@ -5607,8 +6382,8 @@
       <c r="C258" s="3">
         <v>22.63</v>
       </c>
-      <c r="D258" s="2">
-        <v>4.1209749999999996E-9</v>
+      <c r="D258">
+        <v>1.361148E-9</v>
       </c>
       <c r="F258" s="2">
         <v>4.1209749999999996E-9</v>
@@ -5616,8 +6391,11 @@
       <c r="G258" s="5">
         <v>47.3</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H258">
+        <v>1.361148E-9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A259" s="4">
         <v>257</v>
       </c>
@@ -5627,8 +6405,8 @@
       <c r="C259" s="3">
         <v>22.63</v>
       </c>
-      <c r="D259" s="2">
-        <v>5.3394929999999999E-9</v>
+      <c r="D259">
+        <v>1.369163E-9</v>
       </c>
       <c r="F259" s="2">
         <v>5.3394929999999999E-9</v>
@@ -5636,8 +6414,11 @@
       <c r="G259" s="5">
         <v>47.55</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H259">
+        <v>1.369163E-9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A260" s="4">
         <v>258</v>
       </c>
@@ -5647,8 +6428,8 @@
       <c r="C260" s="3">
         <v>22.63</v>
       </c>
-      <c r="D260" s="2">
-        <v>4.5972699999999998E-9</v>
+      <c r="D260">
+        <v>1.37694E-9</v>
       </c>
       <c r="F260" s="2">
         <v>4.5972699999999998E-9</v>
@@ -5656,8 +6437,11 @@
       <c r="G260" s="5">
         <v>47.8</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H260">
+        <v>1.37694E-9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A261" s="4">
         <v>259</v>
       </c>
@@ -5667,8 +6451,8 @@
       <c r="C261" s="3">
         <v>22.63</v>
       </c>
-      <c r="D261" s="2">
-        <v>5.4013209999999996E-9</v>
+      <c r="D261">
+        <v>1.3840450000000001E-9</v>
       </c>
       <c r="F261" s="2">
         <v>5.4013209999999996E-9</v>
@@ -5676,8 +6460,11 @@
       <c r="G261" s="5">
         <v>48.05</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H261">
+        <v>1.3840450000000001E-9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A262" s="4">
         <v>260</v>
       </c>
@@ -5687,8 +6474,8 @@
       <c r="C262" s="3">
         <v>22.63</v>
       </c>
-      <c r="D262" s="2">
-        <v>4.926063E-9</v>
+      <c r="D262">
+        <v>1.3891979999999999E-9</v>
       </c>
       <c r="F262" s="2">
         <v>4.926063E-9</v>
@@ -5696,8 +6483,11 @@
       <c r="G262" s="5">
         <v>48.15</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H262">
+        <v>1.3891979999999999E-9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A263" s="4">
         <v>261</v>
       </c>
@@ -5707,8 +6497,8 @@
       <c r="C263" s="3">
         <v>22.63</v>
       </c>
-      <c r="D263" s="2">
-        <v>5.9910090000000001E-9</v>
+      <c r="D263">
+        <v>1.3946770000000001E-9</v>
       </c>
       <c r="F263" s="2">
         <v>5.9910090000000001E-9</v>
@@ -5716,8 +6506,11 @@
       <c r="G263" s="5">
         <v>48.35</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H263">
+        <v>1.3946770000000001E-9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A264" s="4">
         <v>262</v>
       </c>
@@ -5727,8 +6520,8 @@
       <c r="C264" s="3">
         <v>22.63</v>
       </c>
-      <c r="D264" s="2">
-        <v>5.1582220000000002E-9</v>
+      <c r="D264">
+        <v>1.3993220000000001E-9</v>
       </c>
       <c r="F264" s="2">
         <v>5.1582220000000002E-9</v>
@@ -5736,8 +6529,11 @@
       <c r="G264" s="5">
         <v>48.6</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H264">
+        <v>1.3993220000000001E-9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A265" s="4">
         <v>263</v>
       </c>
@@ -5747,8 +6543,8 @@
       <c r="C265" s="3">
         <v>22.63</v>
       </c>
-      <c r="D265" s="2">
-        <v>6.2733569999999998E-9</v>
+      <c r="D265">
+        <v>1.4046299999999999E-9</v>
       </c>
       <c r="F265" s="2">
         <v>6.2733569999999998E-9</v>
@@ -5756,8 +6552,11 @@
       <c r="G265" s="5">
         <v>48.6</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H265">
+        <v>1.4046299999999999E-9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A266" s="4">
         <v>264</v>
       </c>
@@ -5767,8 +6566,8 @@
       <c r="C266" s="3">
         <v>22.63</v>
       </c>
-      <c r="D266" s="2">
-        <v>5.1582220000000002E-9</v>
+      <c r="D266">
+        <v>1.410217E-9</v>
       </c>
       <c r="F266" s="2">
         <v>5.1582220000000002E-9</v>
@@ -5776,8 +6575,11 @@
       <c r="G266" s="5">
         <v>48.85</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H266">
+        <v>1.410217E-9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A267" s="4">
         <v>265</v>
       </c>
@@ -5787,8 +6589,8 @@
       <c r="C267" s="3">
         <v>22.63</v>
       </c>
-      <c r="D267" s="2">
-        <v>6.4938160000000002E-9</v>
+      <c r="D267">
+        <v>1.416158E-9</v>
       </c>
       <c r="F267" s="2">
         <v>6.4938160000000002E-9</v>
@@ -5796,8 +6598,11 @@
       <c r="G267" s="5">
         <v>49.05</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H267">
+        <v>1.416158E-9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A268" s="4">
         <v>266</v>
       </c>
@@ -5807,8 +6612,8 @@
       <c r="C268" s="3">
         <v>22.63</v>
       </c>
-      <c r="D268" s="2">
-        <v>5.3394929999999999E-9</v>
+      <c r="D268">
+        <v>1.42118E-9</v>
       </c>
       <c r="F268" s="2">
         <v>5.3394929999999999E-9</v>
@@ -5816,8 +6621,11 @@
       <c r="G268" s="5">
         <v>49.3</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H268">
+        <v>1.42118E-9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A269" s="4">
         <v>267</v>
       </c>
@@ -5827,8 +6635,8 @@
       <c r="C269" s="3">
         <v>22.63</v>
       </c>
-      <c r="D269" s="2">
-        <v>6.8785990000000003E-9</v>
+      <c r="D269">
+        <v>1.4269629999999999E-9</v>
       </c>
       <c r="F269" s="2">
         <v>6.8785990000000003E-9</v>
@@ -5836,8 +6644,11 @@
       <c r="G269" s="5">
         <v>49.55</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H269">
+        <v>1.4269629999999999E-9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A270" s="4">
         <v>268</v>
       </c>
@@ -5847,8 +6658,8 @@
       <c r="C270" s="3">
         <v>22.63</v>
       </c>
-      <c r="D270" s="2">
-        <v>5.5271340000000002E-9</v>
+      <c r="D270">
+        <v>1.431935E-9</v>
       </c>
       <c r="F270" s="2">
         <v>5.5271340000000002E-9</v>
@@ -5856,8 +6667,11 @@
       <c r="G270" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H270">
+        <v>1.431935E-9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A271" s="4">
         <v>269</v>
       </c>
@@ -5867,8 +6681,8 @@
       <c r="C271" s="3">
         <v>22.63</v>
       </c>
-      <c r="D271" s="2">
-        <v>6.9984199999999999E-9</v>
+      <c r="D271">
+        <v>1.436907E-9</v>
       </c>
       <c r="F271" s="2">
         <v>6.9984199999999999E-9</v>
@@ -5876,8 +6690,11 @@
       <c r="G271" s="5">
         <v>50.5</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H271">
+        <v>1.436907E-9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A272" s="4">
         <v>270</v>
       </c>
@@ -5887,8 +6704,8 @@
       <c r="C272" s="3">
         <v>22.63</v>
       </c>
-      <c r="D272" s="2">
-        <v>5.6885290000000001E-9</v>
+      <c r="D272">
+        <v>1.443018E-9</v>
       </c>
       <c r="F272" s="2">
         <v>5.6885290000000001E-9</v>
@@ -5896,8 +6713,11 @@
       <c r="G272" s="5">
         <v>50.65</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H272">
+        <v>1.443018E-9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A273" s="4">
         <v>271</v>
       </c>
@@ -5907,8 +6727,8 @@
       <c r="C273" s="3">
         <v>22.63</v>
       </c>
-      <c r="D273" s="2">
-        <v>4.9545019999999996E-9</v>
+      <c r="D273">
+        <v>1.448259E-9</v>
       </c>
       <c r="F273" s="2">
         <v>4.9545019999999996E-9</v>
@@ -5916,8 +6736,11 @@
       <c r="G273" s="5">
         <v>50.75</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H273">
+        <v>1.448259E-9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A274" s="4">
         <v>272</v>
       </c>
@@ -5927,8 +6750,8 @@
       <c r="C274" s="3">
         <v>22.63</v>
       </c>
-      <c r="D274" s="2">
-        <v>5.559043E-9</v>
+      <c r="D274">
+        <v>1.456837E-9</v>
       </c>
       <c r="F274" s="2">
         <v>5.559043E-9</v>
@@ -5936,8 +6759,11 @@
       <c r="G274" s="5">
         <v>50.95</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H274">
+        <v>1.456837E-9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A275" s="4">
         <v>273</v>
       </c>
@@ -5947,8 +6773,8 @@
       <c r="C275" s="3">
         <v>22.63</v>
       </c>
-      <c r="D275" s="2">
-        <v>5.4013209999999996E-9</v>
+      <c r="D275">
+        <v>1.4654200000000001E-9</v>
       </c>
       <c r="F275" s="2">
         <v>5.4013209999999996E-9</v>
@@ -5956,8 +6782,11 @@
       <c r="G275" s="5">
         <v>51.1</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H275">
+        <v>1.4654200000000001E-9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A276" s="4">
         <v>274</v>
       </c>
@@ -5967,8 +6796,8 @@
       <c r="C276" s="3">
         <v>22.63</v>
       </c>
-      <c r="D276" s="2">
-        <v>5.6558780000000003E-9</v>
+      <c r="D276">
+        <v>1.473861E-9</v>
       </c>
       <c r="F276" s="2">
         <v>5.6558780000000003E-9</v>
@@ -5976,8 +6805,11 @@
       <c r="G276" s="5">
         <v>51.45</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H276">
+        <v>1.473861E-9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A277" s="4">
         <v>275</v>
       </c>
@@ -5987,8 +6819,8 @@
       <c r="C277" s="3">
         <v>22.63</v>
       </c>
-      <c r="D277" s="2">
-        <v>5.6558780000000003E-9</v>
+      <c r="D277">
+        <v>1.4823050000000001E-9</v>
       </c>
       <c r="F277" s="2">
         <v>5.6558780000000003E-9</v>
@@ -5996,8 +6828,11 @@
       <c r="G277" s="5">
         <v>51.65</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H277">
+        <v>1.4823050000000001E-9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A278" s="4">
         <v>276</v>
       </c>
@@ -6007,8 +6842,8 @@
       <c r="C278" s="3">
         <v>22.63</v>
       </c>
-      <c r="D278" s="2">
-        <v>5.8210319999999999E-9</v>
+      <c r="D278">
+        <v>1.490626E-9</v>
       </c>
       <c r="F278" s="2">
         <v>5.8210319999999999E-9</v>
@@ -6016,8 +6851,11 @@
       <c r="G278" s="5">
         <v>51.85</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H278">
+        <v>1.490626E-9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A279" s="4">
         <v>277</v>
       </c>
@@ -6027,8 +6865,8 @@
       <c r="C279" s="3">
         <v>22.63</v>
       </c>
-      <c r="D279" s="2">
-        <v>5.6885290000000001E-9</v>
+      <c r="D279">
+        <v>1.4965439999999999E-9</v>
       </c>
       <c r="F279" s="2">
         <v>5.6885290000000001E-9</v>
@@ -6036,8 +6874,11 @@
       <c r="G279" s="5">
         <v>52.05</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H279">
+        <v>1.4965439999999999E-9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A280" s="4">
         <v>278</v>
       </c>
@@ -6047,8 +6888,8 @@
       <c r="C280" s="3">
         <v>22.63</v>
       </c>
-      <c r="D280" s="2">
-        <v>6.6450769999999998E-9</v>
+      <c r="D280">
+        <v>1.5041710000000001E-9</v>
       </c>
       <c r="F280" s="2">
         <v>6.6450769999999998E-9</v>
@@ -6056,8 +6897,11 @@
       <c r="G280" s="5">
         <v>52.15</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H280">
+        <v>1.5041710000000001E-9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A281" s="4">
         <v>279</v>
       </c>
@@ -6067,8 +6911,8 @@
       <c r="C281" s="3">
         <v>22.63</v>
       </c>
-      <c r="D281" s="2">
-        <v>5.6234130000000003E-9</v>
+      <c r="D281">
+        <v>1.5120719999999999E-9</v>
       </c>
       <c r="F281" s="2">
         <v>5.6234130000000003E-9</v>
@@ -6076,8 +6920,11 @@
       <c r="G281" s="5">
         <v>52.55</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H281">
+        <v>1.5120719999999999E-9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A282" s="4">
         <v>280</v>
       </c>
@@ -6087,8 +6934,8 @@
       <c r="C282" s="3">
         <v>22.63</v>
       </c>
-      <c r="D282" s="2">
-        <v>6.9183099999999999E-9</v>
+      <c r="D282">
+        <v>1.519055E-9</v>
       </c>
       <c r="F282" s="2">
         <v>6.9183099999999999E-9</v>
@@ -6096,8 +6943,11 @@
       <c r="G282" s="5">
         <v>52.85</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H282">
+        <v>1.519055E-9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A283" s="4">
         <v>281</v>
       </c>
@@ -6107,8 +6957,8 @@
       <c r="C283" s="3">
         <v>22.63</v>
       </c>
-      <c r="D283" s="2">
-        <v>5.7543990000000004E-9</v>
+      <c r="D283">
+        <v>1.5253720000000001E-9</v>
       </c>
       <c r="F283" s="2">
         <v>5.7543990000000004E-9</v>
@@ -6116,8 +6966,11 @@
       <c r="G283" s="5">
         <v>53.1</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H283">
+        <v>1.5253720000000001E-9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A284" s="4">
         <v>282</v>
       </c>
@@ -6127,8 +6980,8 @@
       <c r="C284" s="3">
         <v>22.63</v>
       </c>
-      <c r="D284" s="2">
-        <v>7.5857760000000006E-9</v>
+      <c r="D284">
+        <v>1.5296860000000001E-9</v>
       </c>
       <c r="F284" s="2">
         <v>7.5857760000000006E-9</v>
@@ -6136,8 +6989,11 @@
       <c r="G284" s="5">
         <v>53.2</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H284">
+        <v>1.5296860000000001E-9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A285" s="4">
         <v>283</v>
       </c>
@@ -6147,8 +7003,8 @@
       <c r="C285" s="3">
         <v>22.63</v>
       </c>
-      <c r="D285" s="2">
-        <v>5.7543990000000004E-9</v>
+      <c r="D285">
+        <v>1.5322089999999999E-9</v>
       </c>
       <c r="F285" s="2">
         <v>5.7543990000000004E-9</v>
@@ -6156,8 +7012,11 @@
       <c r="G285" s="5">
         <v>53.55</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H285">
+        <v>1.5322089999999999E-9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A286" s="4">
         <v>284</v>
       </c>
@@ -6167,8 +7026,8 @@
       <c r="C286" s="3">
         <v>22.63</v>
       </c>
-      <c r="D286" s="2">
-        <v>7.24436E-9</v>
+      <c r="D286">
+        <v>1.5356439999999999E-9</v>
       </c>
       <c r="F286" s="2">
         <v>7.24436E-9</v>
@@ -6176,8 +7035,11 @@
       <c r="G286" s="5">
         <v>53.95</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H286">
+        <v>1.5356439999999999E-9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A287" s="4">
         <v>285</v>
       </c>
@@ -6187,8 +7049,8 @@
       <c r="C287" s="3">
         <v>22.63</v>
       </c>
-      <c r="D287" s="2">
-        <v>6.0255959999999999E-9</v>
+      <c r="D287">
+        <v>1.540747E-9</v>
       </c>
       <c r="F287" s="2">
         <v>6.0255959999999999E-9</v>
@@ -6196,8 +7058,11 @@
       <c r="G287" s="5">
         <v>54.1</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H287">
+        <v>1.540747E-9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A288" s="4">
         <v>286</v>
       </c>
@@ -6207,8 +7072,8 @@
       <c r="C288" s="3">
         <v>22.63</v>
       </c>
-      <c r="D288" s="2">
-        <v>7.6295689999999994E-9</v>
+      <c r="D288">
+        <v>1.545835E-9</v>
       </c>
       <c r="F288" s="2">
         <v>7.6295689999999994E-9</v>
@@ -6216,8 +7081,11 @@
       <c r="G288" s="5">
         <v>54.25</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H288">
+        <v>1.545835E-9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A289" s="4">
         <v>287</v>
       </c>
@@ -6227,8 +7095,8 @@
       <c r="C289" s="3">
         <v>22.63</v>
       </c>
-      <c r="D289" s="2">
-        <v>5.956621E-9</v>
+      <c r="D289">
+        <v>1.551581E-9</v>
       </c>
       <c r="F289" s="2">
         <v>5.956621E-9</v>
@@ -6236,8 +7104,11 @@
       <c r="G289" s="5">
         <v>54.6</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H289">
+        <v>1.551581E-9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A290" s="4">
         <v>288</v>
       </c>
@@ -6247,8 +7118,8 @@
       <c r="C290" s="3">
         <v>22.63</v>
       </c>
-      <c r="D290" s="2">
-        <v>4.9831050000000002E-9</v>
+      <c r="D290">
+        <v>1.5564699999999999E-9</v>
       </c>
       <c r="F290" s="2">
         <v>4.9831050000000002E-9</v>
@@ -6256,8 +7127,11 @@
       <c r="G290" s="5">
         <v>54.9</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H290">
+        <v>1.5564699999999999E-9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A291" s="4">
         <v>289</v>
       </c>
@@ -6267,8 +7141,8 @@
       <c r="C291" s="3">
         <v>22.63</v>
       </c>
-      <c r="D291" s="2">
-        <v>5.8884369999999999E-9</v>
+      <c r="D291">
+        <v>1.563178E-9</v>
       </c>
       <c r="F291" s="2">
         <v>5.8884369999999999E-9</v>
@@ -6276,8 +7150,11 @@
       <c r="G291" s="5">
         <v>54.95</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H291">
+        <v>1.563178E-9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A292" s="4">
         <v>290</v>
       </c>
@@ -6287,8 +7164,8 @@
       <c r="C292" s="3">
         <v>22.63</v>
       </c>
-      <c r="D292" s="2">
-        <v>5.0408059999999996E-9</v>
+      <c r="D292">
+        <v>1.5697720000000001E-9</v>
       </c>
       <c r="F292" s="2">
         <v>5.0408059999999996E-9</v>
@@ -6296,8 +7173,11 @@
       <c r="G292" s="5">
         <v>55.25</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H292">
+        <v>1.5697720000000001E-9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A293" s="4">
         <v>291</v>
       </c>
@@ -6307,8 +7187,8 @@
       <c r="C293" s="3">
         <v>22.63</v>
       </c>
-      <c r="D293" s="2">
-        <v>5.8210319999999999E-9</v>
+      <c r="D293">
+        <v>1.575991E-9</v>
       </c>
       <c r="F293" s="2">
         <v>5.8210319999999999E-9</v>
@@ -6316,8 +7196,11 @@
       <c r="G293" s="5">
         <v>55.75</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H293">
+        <v>1.575991E-9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A294" s="4">
         <v>292</v>
       </c>
@@ -6327,8 +7210,8 @@
       <c r="C294" s="3">
         <v>22.63</v>
       </c>
-      <c r="D294" s="2">
-        <v>5.7876199999999999E-9</v>
+      <c r="D294">
+        <v>1.5840590000000001E-9</v>
       </c>
       <c r="F294" s="2">
         <v>5.7876199999999999E-9</v>
@@ -6336,8 +7219,11 @@
       <c r="G294" s="5">
         <v>55.75</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H294">
+        <v>1.5840590000000001E-9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A295" s="4">
         <v>293</v>
       </c>
@@ -6347,8 +7233,8 @@
       <c r="C295" s="3">
         <v>22.63</v>
       </c>
-      <c r="D295" s="2">
-        <v>6.1659500000000002E-9</v>
+      <c r="D295">
+        <v>1.5924320000000001E-9</v>
       </c>
       <c r="F295" s="2">
         <v>6.1659500000000002E-9</v>
@@ -6356,8 +7242,11 @@
       <c r="G295" s="5">
         <v>55.9</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H295">
+        <v>1.5924320000000001E-9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A296" s="4">
         <v>294</v>
       </c>
@@ -6367,8 +7256,8 @@
       <c r="C296" s="3">
         <v>22.63</v>
       </c>
-      <c r="D296" s="2">
-        <v>6.7220229999999996E-9</v>
+      <c r="D296">
+        <v>1.599421E-9</v>
       </c>
       <c r="F296" s="2">
         <v>6.7220229999999996E-9</v>
@@ -6376,8 +7265,11 @@
       <c r="G296" s="5">
         <v>56.45</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H296">
+        <v>1.599421E-9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A297" s="4">
         <v>295</v>
       </c>
@@ -6387,8 +7279,8 @@
       <c r="C297" s="3">
         <v>22.63</v>
       </c>
-      <c r="D297" s="2">
-        <v>6.1659500000000002E-9</v>
+      <c r="D297">
+        <v>1.6076180000000001E-9</v>
       </c>
       <c r="F297" s="2">
         <v>6.1659500000000002E-9</v>
@@ -6396,8 +7288,11 @@
       <c r="G297" s="5">
         <v>56.75</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H297">
+        <v>1.6076180000000001E-9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A298" s="4">
         <v>296</v>
       </c>
@@ -6407,8 +7302,8 @@
       <c r="C298" s="3">
         <v>22.63</v>
       </c>
-      <c r="D298" s="2">
-        <v>7.5422340000000008E-9</v>
+      <c r="D298">
+        <v>1.61557E-9</v>
       </c>
       <c r="F298" s="2">
         <v>7.5422340000000008E-9</v>
@@ -6416,8 +7311,11 @@
       <c r="G298" s="5">
         <v>56.95</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H298">
+        <v>1.61557E-9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A299" s="4">
         <v>297</v>
       </c>
@@ -6427,8 +7325,8 @@
       <c r="C299" s="3">
         <v>22.63</v>
       </c>
-      <c r="D299" s="2">
-        <v>6.2015459999999999E-9</v>
+      <c r="D299">
+        <v>1.6228450000000001E-9</v>
       </c>
       <c r="F299" s="2">
         <v>6.2015459999999999E-9</v>
@@ -6436,8 +7334,11 @@
       <c r="G299" s="5">
         <v>57.1</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H299">
+        <v>1.6228450000000001E-9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A300" s="4">
         <v>298</v>
       </c>
@@ -6447,8 +7348,8 @@
       <c r="C300" s="3">
         <v>22.63</v>
       </c>
-      <c r="D300" s="2">
-        <v>5.2179510000000001E-9</v>
+      <c r="D300">
+        <v>1.6287309999999999E-9</v>
       </c>
       <c r="F300" s="2">
         <v>5.2179510000000001E-9</v>
@@ -6456,8 +7357,11 @@
       <c r="G300" s="5">
         <v>57.25</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H300">
+        <v>1.6287309999999999E-9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A301" s="4">
         <v>299</v>
       </c>
@@ -6467,8 +7371,8 @@
       <c r="C301" s="3">
         <v>22.63</v>
       </c>
-      <c r="D301" s="2">
-        <v>6.1659500000000002E-9</v>
+      <c r="D301">
+        <v>1.6335549999999999E-9</v>
       </c>
       <c r="F301" s="2">
         <v>6.1659500000000002E-9</v>
@@ -6476,8 +7380,11 @@
       <c r="G301" s="5">
         <v>57.8</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H301">
+        <v>1.6335549999999999E-9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A302" s="4">
         <v>300</v>
       </c>
@@ -6487,8 +7394,8 @@
       <c r="C302" s="3">
         <v>22.63</v>
       </c>
-      <c r="D302" s="2">
-        <v>5.1879999999999999E-9</v>
+      <c r="D302">
+        <v>1.636931E-9</v>
       </c>
       <c r="F302" s="2">
         <v>5.1879999999999999E-9</v>
@@ -6496,8 +7403,11 @@
       <c r="G302" s="5">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H302">
+        <v>1.636931E-9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A303" s="4">
         <v>301</v>
       </c>
@@ -6507,8 +7417,8 @@
       <c r="C303" s="3">
         <v>22.63</v>
       </c>
-      <c r="D303" s="2">
-        <v>6.237348E-9</v>
+      <c r="D303">
+        <v>1.6420700000000001E-9</v>
       </c>
       <c r="F303" s="2">
         <v>6.237348E-9</v>
@@ -6516,8 +7426,11 @@
       <c r="G303" s="5">
         <v>58.3</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H303">
+        <v>1.6420700000000001E-9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A304" s="4">
         <v>302</v>
       </c>
@@ -6527,8 +7440,8 @@
       <c r="C304" s="3">
         <v>22.63</v>
       </c>
-      <c r="D304" s="2">
-        <v>5.4638650000000001E-9</v>
+      <c r="D304">
+        <v>1.648171E-9</v>
       </c>
       <c r="F304" s="2">
         <v>5.4638650000000001E-9</v>
@@ -6536,8 +7449,11 @@
       <c r="G304" s="5">
         <v>58.45</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H304">
+        <v>1.648171E-9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A305" s="4">
         <v>303</v>
       </c>
@@ -6547,8 +7463,8 @@
       <c r="C305" s="3">
         <v>22.63</v>
       </c>
-      <c r="D305" s="2">
-        <v>6.4565419999999999E-9</v>
+      <c r="D305">
+        <v>1.6545040000000001E-9</v>
       </c>
       <c r="F305" s="2">
         <v>6.4565419999999999E-9</v>
@@ -6556,8 +7472,11 @@
       <c r="G305" s="5">
         <v>58.9</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H305">
+        <v>1.6545040000000001E-9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A306" s="4">
         <v>304</v>
       </c>
@@ -6567,8 +7486,8 @@
       <c r="C306" s="3">
         <v>22.63</v>
       </c>
-      <c r="D306" s="2">
-        <v>5.3088439999999997E-9</v>
+      <c r="D306">
+        <v>1.6615539999999999E-9</v>
       </c>
       <c r="F306" s="2">
         <v>5.3088439999999997E-9</v>
@@ -6576,8 +7495,11 @@
       <c r="G306" s="5">
         <v>59.2</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H306">
+        <v>1.6615539999999999E-9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A307" s="4">
         <v>305</v>
       </c>
@@ -6587,8 +7509,8 @@
       <c r="C307" s="3">
         <v>22.63</v>
       </c>
-      <c r="D307" s="2">
-        <v>6.3826350000000003E-9</v>
+      <c r="D307">
+        <v>1.667023E-9</v>
       </c>
       <c r="F307" s="2">
         <v>6.3826350000000003E-9</v>
@@ -6596,8 +7518,11 @@
       <c r="G307" s="5">
         <v>59.35</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H307">
+        <v>1.667023E-9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A308" s="4">
         <v>306</v>
       </c>
@@ -6607,8 +7532,8 @@
       <c r="C308" s="3">
         <v>22.63</v>
       </c>
-      <c r="D308" s="2">
-        <v>5.6234130000000003E-9</v>
+      <c r="D308">
+        <v>1.6743480000000001E-9</v>
       </c>
       <c r="F308" s="2">
         <v>5.6234130000000003E-9</v>
@@ -6616,8 +7541,11 @@
       <c r="G308" s="5">
         <v>59.7</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H308">
+        <v>1.6743480000000001E-9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A309" s="4">
         <v>307</v>
       </c>
@@ -6627,8 +7555,8 @@
       <c r="C309" s="3">
         <v>22.63</v>
       </c>
-      <c r="D309" s="2">
-        <v>6.4565419999999999E-9</v>
+      <c r="D309">
+        <v>1.681638E-9</v>
       </c>
       <c r="F309" s="2">
         <v>6.4565419999999999E-9</v>
@@ -6636,8 +7564,11 @@
       <c r="G309" s="5">
         <v>59.8</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H309">
+        <v>1.681638E-9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A310" s="4">
         <v>308</v>
       </c>
@@ -6647,8 +7578,8 @@
       <c r="C310" s="3">
         <v>22.63</v>
       </c>
-      <c r="D310" s="2">
-        <v>5.6558780000000003E-9</v>
+      <c r="D310">
+        <v>1.689441E-9</v>
       </c>
       <c r="F310" s="2">
         <v>5.6558780000000003E-9</v>
@@ -6656,8 +7587,11 @@
       <c r="G310" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H310">
+        <v>1.689441E-9</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A311" s="4">
         <v>309</v>
       </c>
@@ -6667,8 +7601,8 @@
       <c r="C311" s="3">
         <v>22.63</v>
       </c>
-      <c r="D311" s="2">
-        <v>6.6069339999999997E-9</v>
+      <c r="D311">
+        <v>1.6971830000000001E-9</v>
       </c>
       <c r="F311" s="2">
         <v>6.6069339999999997E-9</v>
@@ -6676,8 +7610,11 @@
       <c r="G311" s="5">
         <v>60.3</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H311">
+        <v>1.6971830000000001E-9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A312" s="4">
         <v>310</v>
       </c>
@@ -6687,8 +7624,8 @@
       <c r="C312" s="3">
         <v>22.63</v>
       </c>
-      <c r="D312" s="2">
-        <v>6.2015459999999999E-9</v>
+      <c r="D312">
+        <v>1.7056730000000001E-9</v>
       </c>
       <c r="F312" s="2">
         <v>6.2015459999999999E-9</v>
@@ -6696,8 +7633,11 @@
       <c r="G312" s="5">
         <v>60.7</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H312">
+        <v>1.7056730000000001E-9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A313" s="4">
         <v>311</v>
       </c>
@@ -6707,8 +7647,8 @@
       <c r="C313" s="3">
         <v>22.63</v>
       </c>
-      <c r="D313" s="2">
-        <v>6.5313059999999998E-9</v>
+      <c r="D313">
+        <v>1.71199E-9</v>
       </c>
       <c r="F313" s="2">
         <v>6.5313059999999998E-9</v>
@@ -6716,8 +7656,11 @@
       <c r="G313" s="5">
         <v>60.75</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H313">
+        <v>1.71199E-9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A314" s="4">
         <v>312</v>
       </c>
@@ -6727,8 +7670,8 @@
       <c r="C314" s="3">
         <v>22.63</v>
       </c>
-      <c r="D314" s="2">
-        <v>6.1659500000000002E-9</v>
+      <c r="D314">
+        <v>1.7198E-9</v>
       </c>
       <c r="F314" s="2">
         <v>6.1659500000000002E-9</v>
@@ -6736,8 +7679,11 @@
       <c r="G314" s="5">
         <v>60.9</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H314">
+        <v>1.7198E-9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A315" s="4">
         <v>313</v>
       </c>
@@ -6747,8 +7693,8 @@
       <c r="C315" s="3">
         <v>22.63</v>
       </c>
-      <c r="D315" s="2">
-        <v>6.4938160000000002E-9</v>
+      <c r="D315">
+        <v>1.7247839999999999E-9</v>
       </c>
       <c r="F315" s="2">
         <v>6.4938160000000002E-9</v>
@@ -6756,8 +7702,11 @@
       <c r="G315" s="5">
         <v>60.65</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H315">
+        <v>1.7247839999999999E-9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A316" s="4">
         <v>314</v>
       </c>
@@ -6767,8 +7716,8 @@
       <c r="C316" s="3">
         <v>22.63</v>
       </c>
-      <c r="D316" s="2">
-        <v>6.4565419999999999E-9</v>
+      <c r="D316">
+        <v>1.729808E-9</v>
       </c>
       <c r="F316" s="2">
         <v>6.4565419999999999E-9</v>
@@ -6776,8 +7725,11 @@
       <c r="G316" s="5">
         <v>60.4</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H316">
+        <v>1.729808E-9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A317" s="4">
         <v>315</v>
       </c>
@@ -6787,8 +7739,8 @@
       <c r="C317" s="3">
         <v>22.63</v>
       </c>
-      <c r="D317" s="2">
-        <v>7.455899E-9</v>
+      <c r="D317">
+        <v>1.734473E-9</v>
       </c>
       <c r="F317" s="2">
         <v>7.455899E-9</v>
@@ -6796,8 +7748,11 @@
       <c r="G317" s="5">
         <v>60.4</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H317">
+        <v>1.734473E-9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A318" s="4">
         <v>316</v>
       </c>
@@ -6807,8 +7762,8 @@
       <c r="C318" s="3">
         <v>22.63</v>
       </c>
-      <c r="D318" s="2">
-        <v>6.3459989999999999E-9</v>
+      <c r="D318">
+        <v>1.7381249999999999E-9</v>
       </c>
       <c r="F318" s="2">
         <v>6.3459989999999999E-9</v>
@@ -6816,8 +7771,11 @@
       <c r="G318" s="5">
         <v>59.95</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H318">
+        <v>1.7381249999999999E-9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A319" s="4">
         <v>317</v>
       </c>
@@ -6827,8 +7785,8 @@
       <c r="C319" s="3">
         <v>22.63</v>
       </c>
-      <c r="D319" s="2">
-        <v>8.1283049999999997E-9</v>
+      <c r="D319">
+        <v>1.739886E-9</v>
       </c>
       <c r="F319" s="2">
         <v>8.1283049999999997E-9</v>
@@ -6836,8 +7794,11 @@
       <c r="G319" s="5">
         <v>59.75</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H319">
+        <v>1.739886E-9</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A320" s="4">
         <v>318</v>
       </c>
@@ -6847,8 +7808,8 @@
       <c r="C320" s="3">
         <v>22.63</v>
       </c>
-      <c r="D320" s="2">
-        <v>6.1659500000000002E-9</v>
+      <c r="D320">
+        <v>1.739871E-9</v>
       </c>
       <c r="F320" s="2">
         <v>6.1659500000000002E-9</v>
@@ -6856,8 +7817,11 @@
       <c r="G320" s="5">
         <v>59.25</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H320">
+        <v>1.739871E-9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A321" s="4">
         <v>319</v>
       </c>
@@ -6867,8 +7831,8 @@
       <c r="C321" s="3">
         <v>22.63</v>
       </c>
-      <c r="D321" s="2">
-        <v>7.286182E-9</v>
+      <c r="D321">
+        <v>1.737699E-9</v>
       </c>
       <c r="F321" s="2">
         <v>7.286182E-9</v>
@@ -6876,8 +7840,11 @@
       <c r="G321" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H321">
+        <v>1.737699E-9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A322" s="4">
         <v>320</v>
       </c>
@@ -6887,8 +7854,8 @@
       <c r="C322" s="3">
         <v>22.63</v>
       </c>
-      <c r="D322" s="2">
-        <v>6.3095730000000003E-9</v>
+      <c r="D322">
+        <v>1.7349209999999999E-9</v>
       </c>
       <c r="F322" s="2">
         <v>6.3095730000000003E-9</v>
@@ -6896,8 +7863,11 @@
       <c r="G322" s="5">
         <v>58.9</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H322">
+        <v>1.7349209999999999E-9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A323" s="4">
         <v>321</v>
       </c>
@@ -6907,8 +7877,8 @@
       <c r="C323" s="3">
         <v>22.63</v>
       </c>
-      <c r="D323" s="2">
-        <v>5.3394929999999999E-9</v>
+      <c r="D323">
+        <v>1.731736E-9</v>
       </c>
       <c r="F323" s="2">
         <v>5.3394929999999999E-9</v>
@@ -6916,8 +7886,11 @@
       <c r="G323" s="5">
         <v>58.75</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H323">
+        <v>1.731736E-9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A324" s="4">
         <v>322</v>
       </c>
@@ -6927,8 +7900,8 @@
       <c r="C324" s="3">
         <v>22.63</v>
       </c>
-      <c r="D324" s="2">
-        <v>6.3459989999999999E-9</v>
+      <c r="D324">
+        <v>1.7297699999999999E-9</v>
       </c>
       <c r="F324" s="2">
         <v>6.3459989999999999E-9</v>
@@ -6936,8 +7909,11 @@
       <c r="G324" s="5">
         <v>58.35</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H324">
+        <v>1.7297699999999999E-9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A325" s="4">
         <v>323</v>
       </c>
@@ -6947,8 +7923,8 @@
       <c r="C325" s="3">
         <v>22.63</v>
       </c>
-      <c r="D325" s="2">
-        <v>5.4638650000000001E-9</v>
+      <c r="D325">
+        <v>1.7265380000000001E-9</v>
       </c>
       <c r="F325" s="2">
         <v>5.4638650000000001E-9</v>
@@ -6956,8 +7932,11 @@
       <c r="G325" s="5">
         <v>58.45</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H325">
+        <v>1.7265380000000001E-9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A326" s="4">
         <v>324</v>
       </c>
@@ -6967,8 +7946,8 @@
       <c r="C326" s="3">
         <v>22.63</v>
       </c>
-      <c r="D326" s="2">
-        <v>6.5313059999999998E-9</v>
+      <c r="D326">
+        <v>1.7242920000000001E-9</v>
       </c>
       <c r="F326" s="2">
         <v>6.5313059999999998E-9</v>
@@ -6976,8 +7955,11 @@
       <c r="G326" s="5">
         <v>58.4</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H326">
+        <v>1.7242920000000001E-9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A327" s="4">
         <v>325</v>
       </c>
@@ -6987,8 +7969,8 @@
       <c r="C327" s="3">
         <v>22.63</v>
       </c>
-      <c r="D327" s="2">
-        <v>5.8884369999999999E-9</v>
+      <c r="D327">
+        <v>1.718535E-9</v>
       </c>
       <c r="F327" s="2">
         <v>5.8884369999999999E-9</v>
@@ -6996,8 +7978,11 @@
       <c r="G327" s="5">
         <v>58.2</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H327">
+        <v>1.718535E-9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A328" s="4">
         <v>326</v>
       </c>
@@ -7007,8 +7992,8 @@
       <c r="C328" s="3">
         <v>22.63</v>
       </c>
-      <c r="D328" s="2">
-        <v>6.4565419999999999E-9</v>
+      <c r="D328">
+        <v>1.711536E-9</v>
       </c>
       <c r="F328" s="2">
         <v>6.4565419999999999E-9</v>
@@ -7016,8 +8001,11 @@
       <c r="G328" s="5">
         <v>58.25</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H328">
+        <v>1.711536E-9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A329" s="4">
         <v>327</v>
       </c>
@@ -7027,8 +8015,8 @@
       <c r="C329" s="3">
         <v>22.63</v>
       </c>
-      <c r="D329" s="2">
-        <v>6.4194820000000001E-9</v>
+      <c r="D329">
+        <v>1.705281E-9</v>
       </c>
       <c r="F329" s="2">
         <v>6.4194820000000001E-9</v>
@@ -7036,8 +8024,11 @@
       <c r="G329" s="5">
         <v>58.05</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H329">
+        <v>1.705281E-9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A330" s="4">
         <v>328</v>
       </c>
@@ -7047,8 +8038,8 @@
       <c r="C330" s="3">
         <v>22.63</v>
       </c>
-      <c r="D330" s="2">
-        <v>6.4938160000000002E-9</v>
+      <c r="D330">
+        <v>1.7008439999999999E-9</v>
       </c>
       <c r="F330" s="2">
         <v>6.4938160000000002E-9</v>
@@ -7056,8 +8047,11 @@
       <c r="G330" s="5">
         <v>58.05</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H330">
+        <v>1.7008439999999999E-9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A331" s="4">
         <v>329</v>
       </c>
@@ -7067,8 +8061,8 @@
       <c r="C331" s="3">
         <v>22.63</v>
       </c>
-      <c r="D331" s="2">
-        <v>6.1659500000000002E-9</v>
+      <c r="D331">
+        <v>1.6964429999999999E-9</v>
       </c>
       <c r="F331" s="2">
         <v>6.1659500000000002E-9</v>
@@ -7076,8 +8070,11 @@
       <c r="G331" s="5">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H331">
+        <v>1.6964429999999999E-9</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A332" s="4">
         <v>330</v>
       </c>
@@ -7087,8 +8084,8 @@
       <c r="C332" s="3">
         <v>22.63</v>
       </c>
-      <c r="D332" s="2">
-        <v>7.3282449999999999E-9</v>
+      <c r="D332">
+        <v>1.693644E-9</v>
       </c>
       <c r="F332" s="2">
         <v>7.3282449999999999E-9</v>
@@ -7096,8 +8093,11 @@
       <c r="G332" s="5">
         <v>57.85</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H332">
+        <v>1.693644E-9</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A333" s="4">
         <v>331</v>
       </c>
@@ -7107,8 +8107,8 @@
       <c r="C333" s="3">
         <v>22.63</v>
       </c>
-      <c r="D333" s="2">
-        <v>6.1659500000000002E-9</v>
+      <c r="D333">
+        <v>1.690837E-9</v>
       </c>
       <c r="F333" s="2">
         <v>6.1659500000000002E-9</v>
@@ -7116,8 +8116,11 @@
       <c r="G333" s="5">
         <v>57.95</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H333">
+        <v>1.690837E-9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A334" s="4">
         <v>332</v>
       </c>
@@ -7127,8 +8130,8 @@
       <c r="C334" s="3">
         <v>22.63</v>
       </c>
-      <c r="D334" s="2">
-        <v>5.2179510000000001E-9</v>
+      <c r="D334">
+        <v>1.688468E-9</v>
       </c>
       <c r="F334" s="2">
         <v>5.2179510000000001E-9</v>
@@ -7136,8 +8139,11 @@
       <c r="G334" s="5">
         <v>58.05</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H334">
+        <v>1.688468E-9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A335" s="4">
         <v>333</v>
       </c>
@@ -7147,8 +8153,8 @@
       <c r="C335" s="3">
         <v>22.63</v>
       </c>
-      <c r="D335" s="2">
-        <v>6.1305580000000002E-9</v>
+      <c r="D335">
+        <v>1.6857960000000001E-9</v>
       </c>
       <c r="F335" s="2">
         <v>6.1305580000000002E-9</v>
@@ -7156,8 +8162,11 @@
       <c r="G335" s="5">
         <v>57.95</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H335">
+        <v>1.6857960000000001E-9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A336" s="4">
         <v>334</v>
       </c>
@@ -7167,8 +8176,8 @@
       <c r="C336" s="3">
         <v>22.63</v>
       </c>
-      <c r="D336" s="2">
-        <v>5.3394929999999999E-9</v>
+      <c r="D336">
+        <v>1.6841470000000001E-9</v>
       </c>
       <c r="F336" s="2">
         <v>5.3394929999999999E-9</v>
@@ -7176,8 +8185,11 @@
       <c r="G336" s="5">
         <v>57.95</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H336">
+        <v>1.6841470000000001E-9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A337" s="4">
         <v>335</v>
       </c>
@@ -7187,8 +8199,8 @@
       <c r="C337" s="3">
         <v>22.63</v>
       </c>
-      <c r="D337" s="2">
-        <v>6.4194820000000001E-9</v>
+      <c r="D337">
+        <v>1.681985E-9</v>
       </c>
       <c r="F337" s="2">
         <v>6.4194820000000001E-9</v>
@@ -7196,8 +8208,11 @@
       <c r="G337" s="5">
         <v>57.8</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H337">
+        <v>1.681985E-9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A338" s="4">
         <v>336</v>
       </c>
@@ -7207,8 +8222,8 @@
       <c r="C338" s="3">
         <v>22.63</v>
       </c>
-      <c r="D338" s="2">
-        <v>6.0603820000000003E-9</v>
+      <c r="D338">
+        <v>1.6818149999999999E-9</v>
       </c>
       <c r="F338" s="2">
         <v>6.0603820000000003E-9</v>
@@ -7216,8 +8231,11 @@
       <c r="G338" s="5">
         <v>57.95</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H338">
+        <v>1.6818149999999999E-9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A339" s="4">
         <v>337</v>
       </c>
@@ -7227,8 +8245,8 @@
       <c r="C339" s="3">
         <v>22.63</v>
       </c>
-      <c r="D339" s="2">
-        <v>6.9582499999999996E-9</v>
+      <c r="D339">
+        <v>1.6813360000000001E-9</v>
       </c>
       <c r="F339" s="2">
         <v>6.9582499999999996E-9</v>
@@ -7236,8 +8254,11 @@
       <c r="G339" s="5">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H339">
+        <v>1.6813360000000001E-9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A340" s="4">
         <v>338</v>
       </c>
@@ -7247,8 +8268,8 @@
       <c r="C340" s="3">
         <v>22.63</v>
       </c>
-      <c r="D340" s="2">
-        <v>6.1305580000000002E-9</v>
+      <c r="D340">
+        <v>1.6822520000000001E-9</v>
       </c>
       <c r="F340" s="2">
         <v>6.1305580000000002E-9</v>
@@ -7256,8 +8277,11 @@
       <c r="G340" s="5">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H340">
+        <v>1.6822520000000001E-9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A341" s="4">
         <v>339</v>
       </c>
@@ -7267,8 +8291,8 @@
       <c r="C341" s="3">
         <v>22.63</v>
       </c>
-      <c r="D341" s="2">
-        <v>8.1752299999999993E-9</v>
+      <c r="D341">
+        <v>1.6826569999999999E-9</v>
       </c>
       <c r="F341" s="2">
         <v>8.1752299999999993E-9</v>
@@ -7276,8 +8300,11 @@
       <c r="G341" s="5">
         <v>57.75</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H341">
+        <v>1.6826569999999999E-9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A342" s="4">
         <v>340</v>
       </c>
@@ -7287,8 +8314,8 @@
       <c r="C342" s="3">
         <v>22.63</v>
       </c>
-      <c r="D342" s="2">
-        <v>6.2733569999999998E-9</v>
+      <c r="D342">
+        <v>1.68355E-9</v>
       </c>
       <c r="F342" s="2">
         <v>6.2733569999999998E-9</v>
@@ -7296,8 +8323,11 @@
       <c r="G342" s="5">
         <v>57.8</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H342">
+        <v>1.68355E-9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A343" s="4">
         <v>341</v>
       </c>
@@ -7307,8 +8337,8 @@
       <c r="C343" s="3">
         <v>22.63</v>
       </c>
-      <c r="D343" s="2">
-        <v>7.3282449999999999E-9</v>
+      <c r="D343">
+        <v>1.684011E-9</v>
       </c>
       <c r="F343" s="2">
         <v>7.3282449999999999E-9</v>
@@ -7316,8 +8346,11 @@
       <c r="G343" s="5">
         <v>57.95</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H343">
+        <v>1.684011E-9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A344" s="4">
         <v>342</v>
       </c>
@@ -7327,8 +8360,8 @@
       <c r="C344" s="3">
         <v>22.63</v>
       </c>
-      <c r="D344" s="2">
-        <v>6.4194820000000001E-9</v>
+      <c r="D344">
+        <v>1.6846919999999999E-9</v>
       </c>
       <c r="F344" s="2">
         <v>6.4194820000000001E-9</v>
@@ -7336,8 +8369,11 @@
       <c r="G344" s="5">
         <v>58.05</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H344">
+        <v>1.6846919999999999E-9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A345" s="4">
         <v>343</v>
       </c>
@@ -7347,8 +8383,8 @@
       <c r="C345" s="3">
         <v>22.63</v>
       </c>
-      <c r="D345" s="2">
-        <v>6.5690110000000002E-9</v>
+      <c r="D345">
+        <v>1.6855749999999999E-9</v>
       </c>
       <c r="F345" s="2">
         <v>6.5690110000000002E-9</v>
@@ -7356,8 +8392,11 @@
       <c r="G345" s="5">
         <v>57.95</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H345">
+        <v>1.6855749999999999E-9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A346" s="4">
         <v>344</v>
       </c>
@@ -7367,8 +8406,8 @@
       <c r="C346" s="3">
         <v>22.63</v>
       </c>
-      <c r="D346" s="2">
-        <v>6.3826350000000003E-9</v>
+      <c r="D346">
+        <v>1.6865200000000001E-9</v>
       </c>
       <c r="F346" s="2">
         <v>6.3826350000000003E-9</v>
@@ -7376,8 +8415,11 @@
       <c r="G346" s="5">
         <v>57.95</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H346">
+        <v>1.6865200000000001E-9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A347" s="4">
         <v>345</v>
       </c>
@@ -7387,8 +8429,8 @@
       <c r="C347" s="3">
         <v>22.63</v>
       </c>
-      <c r="D347" s="2">
-        <v>6.2015459999999999E-9</v>
+      <c r="D347">
+        <v>1.686495E-9</v>
       </c>
       <c r="F347" s="2">
         <v>6.2015459999999999E-9</v>
@@ -7396,8 +8438,11 @@
       <c r="G347" s="5">
         <v>58.1</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H347">
+        <v>1.686495E-9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A348" s="4">
         <v>346</v>
       </c>
@@ -7407,8 +8452,8 @@
       <c r="C348" s="3">
         <v>22.63</v>
       </c>
-      <c r="D348" s="2">
-        <v>6.237348E-9</v>
+      <c r="D348">
+        <v>1.686798E-9</v>
       </c>
       <c r="F348" s="2">
         <v>6.237348E-9</v>
@@ -7416,8 +8461,11 @@
       <c r="G348" s="5">
         <v>57.8</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H348">
+        <v>1.686798E-9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A349" s="4">
         <v>347</v>
       </c>
@@ -7427,8 +8475,8 @@
       <c r="C349" s="3">
         <v>22.63</v>
       </c>
-      <c r="D349" s="2">
-        <v>5.559043E-9</v>
+      <c r="D349">
+        <v>1.6869079999999999E-9</v>
       </c>
       <c r="F349" s="2">
         <v>5.559043E-9</v>
@@ -7436,8 +8484,11 @@
       <c r="G349" s="5">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H349">
+        <v>1.6869079999999999E-9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A350" s="4">
         <v>348</v>
       </c>
@@ -7447,8 +8498,8 @@
       <c r="C350" s="3">
         <v>22.63</v>
       </c>
-      <c r="D350" s="2">
-        <v>6.3095730000000003E-9</v>
+      <c r="D350">
+        <v>1.685934E-9</v>
       </c>
       <c r="F350" s="2">
         <v>6.3095730000000003E-9</v>
@@ -7456,8 +8507,11 @@
       <c r="G350" s="5">
         <v>58</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H350">
+        <v>1.685934E-9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A351" s="4">
         <v>349</v>
       </c>
@@ -7467,8 +8521,8 @@
       <c r="C351" s="3">
         <v>22.63</v>
       </c>
-      <c r="D351" s="2">
-        <v>5.3703179999999999E-9</v>
+      <c r="D351">
+        <v>1.685544E-9</v>
       </c>
       <c r="F351" s="2">
         <v>5.3703179999999999E-9</v>
@@ -7476,8 +8530,11 @@
       <c r="G351" s="5">
         <v>57.75</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H351">
+        <v>1.685544E-9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A352" s="4">
         <v>350</v>
       </c>
@@ -7487,8 +8544,8 @@
       <c r="C352" s="3">
         <v>22.63</v>
       </c>
-      <c r="D352" s="2">
-        <v>6.2015459999999999E-9</v>
+      <c r="D352">
+        <v>1.6852030000000001E-9</v>
       </c>
       <c r="F352" s="2">
         <v>6.2015459999999999E-9</v>
@@ -7496,8 +8553,11 @@
       <c r="G352" s="5">
         <v>57.5</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H352">
+        <v>1.6852030000000001E-9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A353" s="4">
         <v>351</v>
       </c>
@@ -7507,8 +8567,8 @@
       <c r="C353" s="3">
         <v>22.63</v>
       </c>
-      <c r="D353" s="2">
-        <v>5.4325030000000001E-9</v>
+      <c r="D353">
+        <v>1.684501E-9</v>
       </c>
       <c r="F353" s="2">
         <v>5.4325030000000001E-9</v>
@@ -7516,8 +8576,11 @@
       <c r="G353" s="5">
         <v>57.15</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H353">
+        <v>1.684501E-9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A354" s="4">
         <v>352</v>
       </c>
@@ -7527,8 +8590,8 @@
       <c r="C354" s="3">
         <v>22.63</v>
       </c>
-      <c r="D354" s="2">
-        <v>6.3459989999999999E-9</v>
+      <c r="D354">
+        <v>1.683049E-9</v>
       </c>
       <c r="F354" s="2">
         <v>6.3459989999999999E-9</v>
@@ -7536,8 +8599,11 @@
       <c r="G354" s="5">
         <v>57.2</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H354">
+        <v>1.683049E-9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A355" s="4">
         <v>353</v>
       </c>
@@ -7547,8 +8613,8 @@
       <c r="C355" s="3">
         <v>22.63</v>
       </c>
-      <c r="D355" s="2">
-        <v>5.1879999999999999E-9</v>
+      <c r="D355">
+        <v>1.6802799999999999E-9</v>
       </c>
       <c r="F355" s="2">
         <v>5.1879999999999999E-9</v>
@@ -7556,8 +8622,11 @@
       <c r="G355" s="5">
         <v>57.3</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H355">
+        <v>1.6802799999999999E-9</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A356" s="4">
         <v>354</v>
       </c>
@@ -7567,8 +8636,8 @@
       <c r="C356" s="3">
         <v>22.63</v>
       </c>
-      <c r="D356" s="2">
-        <v>6.3826350000000003E-9</v>
+      <c r="D356">
+        <v>1.6772419999999999E-9</v>
       </c>
       <c r="F356" s="2">
         <v>6.3826350000000003E-9</v>
@@ -7576,8 +8645,11 @@
       <c r="G356" s="5">
         <v>57.4</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H356">
+        <v>1.6772419999999999E-9</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A357" s="4">
         <v>355</v>
       </c>
@@ -7587,8 +8659,8 @@
       <c r="C357" s="3">
         <v>22.63</v>
       </c>
-      <c r="D357" s="2">
-        <v>5.1879999999999999E-9</v>
+      <c r="D357">
+        <v>1.6747949999999999E-9</v>
       </c>
       <c r="F357" s="2">
         <v>5.1879999999999999E-9</v>
@@ -7596,8 +8668,11 @@
       <c r="G357" s="5">
         <v>57.05</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H357">
+        <v>1.6747949999999999E-9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A358" s="4">
         <v>356</v>
       </c>
@@ -7607,8 +8682,8 @@
       <c r="C358" s="3">
         <v>22.63</v>
       </c>
-      <c r="D358" s="2">
-        <v>6.2733569999999998E-9</v>
+      <c r="D358">
+        <v>1.673189E-9</v>
       </c>
       <c r="F358" s="2">
         <v>6.2733569999999998E-9</v>
@@ -7616,8 +8691,11 @@
       <c r="G358" s="5">
         <v>57.15</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H358">
+        <v>1.673189E-9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A359" s="4">
         <v>357</v>
       </c>
@@ -7627,8 +8705,8 @@
       <c r="C359" s="3">
         <v>22.63</v>
       </c>
-      <c r="D359" s="2">
-        <v>5.2179510000000001E-9</v>
+      <c r="D359">
+        <v>1.6704609999999999E-9</v>
       </c>
       <c r="F359" s="2">
         <v>5.2179510000000001E-9</v>
@@ -7636,8 +8714,11 @@
       <c r="G359" s="5">
         <v>56.9</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H359">
+        <v>1.6704609999999999E-9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A360" s="4">
         <v>358</v>
       </c>
@@ -7647,8 +8728,8 @@
       <c r="C360" s="3">
         <v>22.63</v>
       </c>
-      <c r="D360" s="2">
-        <v>6.3095730000000003E-9</v>
+      <c r="D360">
+        <v>1.6679320000000001E-9</v>
       </c>
       <c r="F360" s="2">
         <v>6.3095730000000003E-9</v>
@@ -7656,8 +8737,11 @@
       <c r="G360" s="5">
         <v>57.05</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H360">
+        <v>1.6679320000000001E-9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A361" s="4">
         <v>359</v>
       </c>
@@ -7667,8 +8751,8 @@
       <c r="C361" s="3">
         <v>22.63</v>
       </c>
-      <c r="D361" s="2">
-        <v>6.0603820000000003E-9</v>
+      <c r="D361">
+        <v>1.665316E-9</v>
       </c>
       <c r="F361" s="2">
         <v>6.0603820000000003E-9</v>
@@ -7676,8 +8760,11 @@
       <c r="G361" s="5">
         <v>57.05</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H361">
+        <v>1.665316E-9</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A362" s="4">
         <v>360</v>
       </c>
@@ -7687,8 +8774,8 @@
       <c r="C362" s="3">
         <v>22.63</v>
       </c>
-      <c r="D362" s="2">
-        <v>6.2733569999999998E-9</v>
+      <c r="D362">
+        <v>1.6626229999999999E-9</v>
       </c>
       <c r="F362" s="2">
         <v>6.2733569999999998E-9</v>
@@ -7696,8 +8783,11 @@
       <c r="G362" s="5">
         <v>56.8</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H362">
+        <v>1.6626229999999999E-9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A363" s="4">
         <v>361</v>
       </c>
@@ -7707,8 +8797,8 @@
       <c r="C363" s="3">
         <v>22.63</v>
       </c>
-      <c r="D363" s="2">
-        <v>6.0255959999999999E-9</v>
+      <c r="D363">
+        <v>1.660182E-9</v>
       </c>
       <c r="F363" s="2">
         <v>6.0255959999999999E-9</v>
@@ -7716,28 +8806,31 @@
       <c r="G363" s="5">
         <v>56.95</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H363">
+        <v>1.660182E-9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A364" s="4"/>
       <c r="B364" s="2"/>
       <c r="C364" s="3"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A365" s="4"/>
       <c r="B365" s="2"/>
       <c r="C365" s="3"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A366" s="4"/>
       <c r="B366" s="2"/>
       <c r="C366" s="3"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A367" s="4"/>
       <c r="B367" s="2"/>
       <c r="C367" s="3"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A368" s="4"/>
       <c r="B368" s="2"/>
       <c r="C368" s="3"/>

--- a/History/FR/history_8.xlsx
+++ b/History/FR/history_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Programs\Reactivity_Analyzer\C++\Euler\History\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83780788-6308-40AA-9185-712448FABA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F959087E-567D-43C8-AB65-6174BB6FD598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D363"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -494,8 +494,8 @@
       <c r="C2" s="3">
         <v>22.63</v>
       </c>
-      <c r="D2">
-        <v>4.4748800000000001E-10</v>
+      <c r="D2" s="2">
+        <v>1.7579240000000001E-9</v>
       </c>
       <c r="F2" s="2">
         <v>1.7579240000000001E-9</v>
@@ -517,8 +517,8 @@
       <c r="C3" s="3">
         <v>22.63</v>
       </c>
-      <c r="D3">
-        <v>4.4789599999999999E-10</v>
+      <c r="D3" s="2">
+        <v>1.631173E-9</v>
       </c>
       <c r="F3" s="2">
         <v>1.631173E-9</v>
@@ -540,8 +540,8 @@
       <c r="C4" s="3">
         <v>22.63</v>
       </c>
-      <c r="D4">
-        <v>4.48873E-10</v>
+      <c r="D4" s="2">
+        <v>1.34122E-9</v>
       </c>
       <c r="F4" s="2">
         <v>1.34122E-9</v>
@@ -563,8 +563,8 @@
       <c r="C5" s="3">
         <v>22.63</v>
       </c>
-      <c r="D5">
-        <v>4.4984000000000002E-10</v>
+      <c r="D5" s="2">
+        <v>2.0892960000000002E-9</v>
       </c>
       <c r="F5" s="2">
         <v>2.0892960000000002E-9</v>
@@ -586,8 +586,8 @@
       <c r="C6" s="3">
         <v>22.63</v>
       </c>
-      <c r="D6">
-        <v>4.50247E-10</v>
+      <c r="D6" s="2">
+        <v>9.9426000000000004E-10</v>
       </c>
       <c r="F6" s="2">
         <v>9.9426000000000004E-10</v>
@@ -609,8 +609,8 @@
       <c r="C7" s="3">
         <v>22.63</v>
       </c>
-      <c r="D7">
-        <v>4.5064899999999998E-10</v>
+      <c r="D7" s="2">
+        <v>1.9054610000000001E-9</v>
       </c>
       <c r="F7" s="2">
         <v>1.9054610000000001E-9</v>
@@ -632,8 +632,8 @@
       <c r="C8" s="3">
         <v>22.63</v>
       </c>
-      <c r="D8">
-        <v>4.5124599999999998E-10</v>
+      <c r="D8" s="2">
+        <v>2.113489E-9</v>
       </c>
       <c r="F8" s="2">
         <v>2.113489E-9</v>
@@ -655,8 +655,8 @@
       <c r="C9" s="3">
         <v>22.63</v>
       </c>
-      <c r="D9">
-        <v>4.51862E-10</v>
+      <c r="D9" s="2">
+        <v>1.6691679999999999E-9</v>
       </c>
       <c r="F9" s="2">
         <v>1.6691679999999999E-9</v>
@@ -678,8 +678,8 @@
       <c r="C10" s="3">
         <v>22.63</v>
       </c>
-      <c r="D10">
-        <v>4.5275199999999998E-10</v>
+      <c r="D10" s="2">
+        <v>1.2373709999999999E-9</v>
       </c>
       <c r="F10" s="2">
         <v>1.2373709999999999E-9</v>
@@ -701,8 +701,8 @@
       <c r="C11" s="3">
         <v>22.63</v>
       </c>
-      <c r="D11">
-        <v>4.5370499999999999E-10</v>
+      <c r="D11" s="2">
+        <v>1.64059E-9</v>
       </c>
       <c r="F11" s="2">
         <v>1.64059E-9</v>
@@ -724,8 +724,8 @@
       <c r="C12" s="3">
         <v>22.63</v>
       </c>
-      <c r="D12">
-        <v>4.54791E-10</v>
+      <c r="D12" s="2">
+        <v>2.0535250000000001E-9</v>
       </c>
       <c r="F12" s="2">
         <v>2.0535250000000001E-9</v>
@@ -747,8 +747,8 @@
       <c r="C13" s="3">
         <v>22.63</v>
       </c>
-      <c r="D13">
-        <v>4.5556500000000002E-10</v>
+      <c r="D13" s="2">
+        <v>1.148154E-9</v>
       </c>
       <c r="F13" s="2">
         <v>1.148154E-9</v>
@@ -770,8 +770,8 @@
       <c r="C14" s="3">
         <v>22.63</v>
       </c>
-      <c r="D14">
-        <v>4.5626599999999998E-10</v>
+      <c r="D14" s="2">
+        <v>2.0300190000000001E-9</v>
       </c>
       <c r="F14" s="2">
         <v>2.0300190000000001E-9</v>
@@ -793,8 +793,8 @@
       <c r="C15" s="3">
         <v>22.63</v>
       </c>
-      <c r="D15">
-        <v>4.5731300000000002E-10</v>
+      <c r="D15" s="2">
+        <v>1.557758E-9</v>
       </c>
       <c r="F15" s="2">
         <v>1.557758E-9</v>
@@ -816,8 +816,8 @@
       <c r="C16" s="3">
         <v>22.63</v>
       </c>
-      <c r="D16">
-        <v>4.5925400000000003E-10</v>
+      <c r="D16" s="2">
+        <v>1.862087E-9</v>
       </c>
       <c r="F16" s="2">
         <v>1.862087E-9</v>
@@ -839,8 +839,8 @@
       <c r="C17" s="3">
         <v>22.63</v>
       </c>
-      <c r="D17">
-        <v>4.6214799999999998E-10</v>
+      <c r="D17" s="2">
+        <v>1.154782E-9</v>
       </c>
       <c r="F17" s="2">
         <v>1.154782E-9</v>
@@ -862,8 +862,8 @@
       <c r="C18" s="3">
         <v>22.63</v>
       </c>
-      <c r="D18">
-        <v>4.6456E-10</v>
+      <c r="D18" s="2">
+        <v>1.727826E-9</v>
       </c>
       <c r="F18" s="2">
         <v>1.727826E-9</v>
@@ -885,8 +885,8 @@
       <c r="C19" s="3">
         <v>22.63</v>
       </c>
-      <c r="D19">
-        <v>4.6743699999999996E-10</v>
+      <c r="D19" s="2">
+        <v>2.1877620000000001E-9</v>
       </c>
       <c r="F19" s="2">
         <v>2.1877620000000001E-9</v>
@@ -908,8 +908,8 @@
       <c r="C20" s="3">
         <v>22.63</v>
       </c>
-      <c r="D20">
-        <v>4.7016099999999996E-10</v>
+      <c r="D20" s="2">
+        <v>1.7988709999999999E-9</v>
       </c>
       <c r="F20" s="2">
         <v>1.7988709999999999E-9</v>
@@ -931,8 +931,8 @@
       <c r="C21" s="3">
         <v>22.63</v>
       </c>
-      <c r="D21">
-        <v>4.7333900000000003E-10</v>
+      <c r="D21" s="2">
+        <v>2.2646440000000002E-9</v>
       </c>
       <c r="F21" s="2">
         <v>2.2646440000000002E-9</v>
@@ -954,8 +954,8 @@
       <c r="C22" s="3">
         <v>22.63</v>
       </c>
-      <c r="D22">
-        <v>4.7654300000000002E-10</v>
+      <c r="D22" s="2">
+        <v>1.5940429999999999E-9</v>
       </c>
       <c r="F22" s="2">
         <v>1.5940429999999999E-9</v>
@@ -977,8 +977,8 @@
       <c r="C23" s="3">
         <v>22.63</v>
       </c>
-      <c r="D23">
-        <v>4.7989899999999996E-10</v>
+      <c r="D23" s="2">
+        <v>1.9164610000000001E-9</v>
       </c>
       <c r="F23" s="2">
         <v>1.9164610000000001E-9</v>
@@ -1000,8 +1000,8 @@
       <c r="C24" s="3">
         <v>22.63</v>
       </c>
-      <c r="D24">
-        <v>4.8268399999999996E-10</v>
+      <c r="D24" s="2">
+        <v>1.168154E-9</v>
       </c>
       <c r="F24" s="2">
         <v>1.168154E-9</v>
@@ -1023,8 +1023,8 @@
       <c r="C25" s="3">
         <v>22.63</v>
       </c>
-      <c r="D25">
-        <v>4.8625299999999998E-10</v>
+      <c r="D25" s="2">
+        <v>2.0183659999999999E-9</v>
       </c>
       <c r="F25" s="2">
         <v>2.0183659999999999E-9</v>
@@ -1046,8 +1046,8 @@
       <c r="C26" s="3">
         <v>22.63</v>
       </c>
-      <c r="D26">
-        <v>4.8859800000000003E-10</v>
+      <c r="D26" s="2">
+        <v>2.2646440000000002E-9</v>
       </c>
       <c r="F26" s="2">
         <v>2.2646440000000002E-9</v>
@@ -1069,8 +1069,8 @@
       <c r="C27" s="3">
         <v>22.63</v>
       </c>
-      <c r="D27">
-        <v>4.9118700000000001E-10</v>
+      <c r="D27" s="2">
+        <v>1.9498449999999999E-9</v>
       </c>
       <c r="F27" s="2">
         <v>1.9498449999999999E-9</v>
@@ -1092,8 +1092,8 @@
       <c r="C28" s="3">
         <v>22.63</v>
       </c>
-      <c r="D28">
-        <v>4.9420400000000004E-10</v>
+      <c r="D28" s="2">
+        <v>2.2003919999999999E-9</v>
       </c>
       <c r="F28" s="2">
         <v>2.2003919999999999E-9</v>
@@ -1115,8 +1115,8 @@
       <c r="C29" s="3">
         <v>22.63</v>
       </c>
-      <c r="D29">
-        <v>4.9807200000000004E-10</v>
+      <c r="D29" s="2">
+        <v>1.9952619999999998E-9</v>
       </c>
       <c r="F29" s="2">
         <v>1.9952619999999998E-9</v>
@@ -1138,8 +1138,8 @@
       <c r="C30" s="3">
         <v>22.63</v>
       </c>
-      <c r="D30">
-        <v>5.0149400000000003E-10</v>
+      <c r="D30" s="2">
+        <v>2.3173949999999999E-9</v>
       </c>
       <c r="F30" s="2">
         <v>2.3173949999999999E-9</v>
@@ -1161,8 +1161,8 @@
       <c r="C31" s="3">
         <v>22.63</v>
       </c>
-      <c r="D31">
-        <v>5.0587900000000001E-10</v>
+      <c r="D31" s="2">
+        <v>1.531087E-9</v>
       </c>
       <c r="F31" s="2">
         <v>1.531087E-9</v>
@@ -1184,8 +1184,8 @@
       <c r="C32" s="3">
         <v>22.63</v>
       </c>
-      <c r="D32">
-        <v>5.0923300000000003E-10</v>
+      <c r="D32" s="2">
+        <v>2.2258710000000002E-9</v>
       </c>
       <c r="F32" s="2">
         <v>2.2258710000000002E-9</v>
@@ -1207,8 +1207,8 @@
       <c r="C33" s="3">
         <v>22.63</v>
       </c>
-      <c r="D33">
-        <v>5.1273800000000001E-10</v>
+      <c r="D33" s="2">
+        <v>1.513561E-9</v>
       </c>
       <c r="F33" s="2">
         <v>1.513561E-9</v>
@@ -1230,8 +1230,8 @@
       <c r="C34" s="3">
         <v>22.63</v>
       </c>
-      <c r="D34">
-        <v>5.1567000000000004E-10</v>
+      <c r="D34" s="2">
+        <v>2.1627189999999998E-9</v>
       </c>
       <c r="F34" s="2">
         <v>2.1627189999999998E-9</v>
@@ -1253,8 +1253,8 @@
       <c r="C35" s="3">
         <v>22.63</v>
       </c>
-      <c r="D35">
-        <v>5.1803100000000003E-10</v>
+      <c r="D35" s="2">
+        <v>2.3577620000000002E-9</v>
       </c>
       <c r="F35" s="2">
         <v>2.3577620000000002E-9</v>
@@ -1276,8 +1276,8 @@
       <c r="C36" s="3">
         <v>22.63</v>
       </c>
-      <c r="D36">
-        <v>5.2209300000000003E-10</v>
+      <c r="D36" s="2">
+        <v>2.0300190000000001E-9</v>
       </c>
       <c r="F36" s="2">
         <v>2.0300190000000001E-9</v>
@@ -1299,8 +1299,8 @@
       <c r="C37" s="3">
         <v>22.63</v>
       </c>
-      <c r="D37">
-        <v>5.2642200000000005E-10</v>
+      <c r="D37" s="2">
+        <v>2.5118860000000001E-9</v>
       </c>
       <c r="F37" s="2">
         <v>2.5118860000000001E-9</v>
@@ -1322,8 +1322,8 @@
       <c r="C38" s="3">
         <v>22.63</v>
       </c>
-      <c r="D38">
-        <v>5.3033199999999998E-10</v>
+      <c r="D38" s="2">
+        <v>1.348963E-9</v>
       </c>
       <c r="F38" s="2">
         <v>1.348963E-9</v>
@@ -1345,8 +1345,8 @@
       <c r="C39" s="3">
         <v>22.63</v>
       </c>
-      <c r="D39">
-        <v>5.3309800000000003E-10</v>
+      <c r="D39" s="2">
+        <v>2.2258710000000002E-9</v>
       </c>
       <c r="F39" s="2">
         <v>2.2258710000000002E-9</v>
@@ -1368,8 +1368,8 @@
       <c r="C40" s="3">
         <v>22.63</v>
       </c>
-      <c r="D40">
-        <v>5.3503800000000003E-10</v>
+      <c r="D40" s="2">
+        <v>2.483133E-9</v>
       </c>
       <c r="F40" s="2">
         <v>2.483133E-9</v>
@@ -1391,8 +1391,8 @@
       <c r="C41" s="3">
         <v>22.63</v>
       </c>
-      <c r="D41">
-        <v>5.3645199999999996E-10</v>
+      <c r="D41" s="2">
+        <v>2.0417379999999998E-9</v>
       </c>
       <c r="F41" s="2">
         <v>2.0417379999999998E-9</v>
@@ -1414,8 +1414,8 @@
       <c r="C42" s="3">
         <v>22.63</v>
       </c>
-      <c r="D42">
-        <v>5.3920900000000004E-10</v>
+      <c r="D42" s="2">
+        <v>2.5556419999999999E-9</v>
       </c>
       <c r="F42" s="2">
         <v>2.5556419999999999E-9</v>
@@ -1437,8 +1437,8 @@
       <c r="C43" s="3">
         <v>22.63</v>
       </c>
-      <c r="D43">
-        <v>5.4263799999999998E-10</v>
+      <c r="D43" s="2">
+        <v>1.7988709999999999E-9</v>
       </c>
       <c r="F43" s="2">
         <v>1.7988709999999999E-9</v>
@@ -1460,8 +1460,8 @@
       <c r="C44" s="3">
         <v>22.63</v>
       </c>
-      <c r="D44">
-        <v>5.4585200000000005E-10</v>
+      <c r="D44" s="2">
+        <v>2.3173949999999999E-9</v>
       </c>
       <c r="F44" s="2">
         <v>2.3173949999999999E-9</v>
@@ -1483,8 +1483,8 @@
       <c r="C45" s="3">
         <v>22.63</v>
       </c>
-      <c r="D45">
-        <v>5.4966099999999995E-10</v>
+      <c r="D45" s="2">
+        <v>1.7782790000000001E-9</v>
       </c>
       <c r="F45" s="2">
         <v>1.7782790000000001E-9</v>
@@ -1506,8 +1506,8 @@
       <c r="C46" s="3">
         <v>22.63</v>
       </c>
-      <c r="D46">
-        <v>5.5285300000000003E-10</v>
+      <c r="D46" s="2">
+        <v>2.2258710000000002E-9</v>
       </c>
       <c r="F46" s="2">
         <v>2.2258710000000002E-9</v>
@@ -1529,8 +1529,8 @@
       <c r="C47" s="3">
         <v>22.63</v>
       </c>
-      <c r="D47">
-        <v>5.5546199999999998E-10</v>
+      <c r="D47" s="2">
+        <v>1.9724229999999998E-9</v>
       </c>
       <c r="F47" s="2">
         <v>1.9724229999999998E-9</v>
@@ -1552,8 +1552,8 @@
       <c r="C48" s="3">
         <v>22.63</v>
       </c>
-      <c r="D48">
-        <v>5.5870000000000005E-10</v>
+      <c r="D48" s="2">
+        <v>2.113489E-9</v>
       </c>
       <c r="F48" s="2">
         <v>2.113489E-9</v>
@@ -1575,8 +1575,8 @@
       <c r="C49" s="3">
         <v>22.63</v>
       </c>
-      <c r="D49">
-        <v>5.6240499999999998E-10</v>
+      <c r="D49" s="2">
+        <v>2.4547090000000002E-9</v>
       </c>
       <c r="F49" s="2">
         <v>2.4547090000000002E-9</v>
@@ -1598,8 +1598,8 @@
       <c r="C50" s="3">
         <v>22.63</v>
       </c>
-      <c r="D50">
-        <v>5.6656199999999997E-10</v>
+      <c r="D50" s="2">
+        <v>1.487647E-9</v>
       </c>
       <c r="F50" s="2">
         <v>1.487647E-9</v>
@@ -1621,8 +1621,8 @@
       <c r="C51" s="3">
         <v>22.63</v>
       </c>
-      <c r="D51">
-        <v>5.7078299999999999E-10</v>
+      <c r="D51" s="2">
+        <v>2.2646440000000002E-9</v>
       </c>
       <c r="F51" s="2">
         <v>2.2646440000000002E-9</v>
@@ -1644,8 +1644,8 @@
       <c r="C52" s="3">
         <v>22.63</v>
       </c>
-      <c r="D52">
-        <v>5.7303599999999998E-10</v>
+      <c r="D52" s="2">
+        <v>1.8197009999999999E-9</v>
       </c>
       <c r="F52" s="2">
         <v>1.8197009999999999E-9</v>
@@ -1667,8 +1667,8 @@
       <c r="C53" s="3">
         <v>22.63</v>
       </c>
-      <c r="D53">
-        <v>5.7553400000000001E-10</v>
+      <c r="D53" s="2">
+        <v>2.2387209999999998E-9</v>
       </c>
       <c r="F53" s="2">
         <v>2.2387209999999998E-9</v>
@@ -1690,8 +1690,8 @@
       <c r="C54" s="3">
         <v>22.63</v>
       </c>
-      <c r="D54">
-        <v>5.7829999999999996E-10</v>
+      <c r="D54" s="2">
+        <v>1.437143E-9</v>
       </c>
       <c r="F54" s="2">
         <v>1.437143E-9</v>
@@ -1713,8 +1713,8 @@
       <c r="C55" s="3">
         <v>22.63</v>
       </c>
-      <c r="D55">
-        <v>5.8116400000000002E-10</v>
+      <c r="D55" s="2">
+        <v>2.2646440000000002E-9</v>
       </c>
       <c r="F55" s="2">
         <v>2.2646440000000002E-9</v>
@@ -1736,8 +1736,8 @@
       <c r="C56" s="3">
         <v>22.63</v>
       </c>
-      <c r="D56">
-        <v>5.8386799999999995E-10</v>
+      <c r="D56" s="2">
+        <v>2.722701E-9</v>
       </c>
       <c r="F56" s="2">
         <v>2.722701E-9</v>
@@ -1759,8 +1759,8 @@
       <c r="C57" s="3">
         <v>22.63</v>
       </c>
-      <c r="D57">
-        <v>5.8694199999999996E-10</v>
+      <c r="D57" s="2">
+        <v>2.3173949999999999E-9</v>
       </c>
       <c r="F57" s="2">
         <v>2.3173949999999999E-9</v>
@@ -1782,8 +1782,8 @@
       <c r="C58" s="3">
         <v>22.63</v>
       </c>
-      <c r="D58">
-        <v>5.8901300000000004E-10</v>
+      <c r="D58" s="2">
+        <v>2.4406189999999999E-9</v>
       </c>
       <c r="F58" s="2">
         <v>2.4406189999999999E-9</v>
@@ -1805,8 +1805,8 @@
       <c r="C59" s="3">
         <v>22.63</v>
       </c>
-      <c r="D59">
-        <v>5.91816E-10</v>
+      <c r="D59" s="2">
+        <v>2.0300190000000001E-9</v>
       </c>
       <c r="F59" s="2">
         <v>2.0300190000000001E-9</v>
@@ -1828,8 +1828,8 @@
       <c r="C60" s="3">
         <v>22.63</v>
       </c>
-      <c r="D60">
-        <v>5.9325999999999998E-10</v>
+      <c r="D60" s="2">
+        <v>2.4266100000000002E-9</v>
       </c>
       <c r="F60" s="2">
         <v>2.4266100000000002E-9</v>
@@ -1851,8 +1851,8 @@
       <c r="C61" s="3">
         <v>22.63</v>
       </c>
-      <c r="D61">
-        <v>5.9461400000000001E-10</v>
+      <c r="D61" s="2">
+        <v>1.5399269999999999E-9</v>
       </c>
       <c r="F61" s="2">
         <v>1.5399269999999999E-9</v>
@@ -1874,8 +1874,8 @@
       <c r="C62" s="3">
         <v>22.63</v>
       </c>
-      <c r="D62">
-        <v>5.9679199999999998E-10</v>
+      <c r="D62" s="2">
+        <v>2.3577620000000002E-9</v>
       </c>
       <c r="F62" s="2">
         <v>2.3577620000000002E-9</v>
@@ -1897,8 +1897,8 @@
       <c r="C63" s="3">
         <v>22.63</v>
       </c>
-      <c r="D63">
-        <v>6.0020199999999997E-10</v>
+      <c r="D63" s="2">
+        <v>2.8183830000000001E-9</v>
       </c>
       <c r="F63" s="2">
         <v>2.8183830000000001E-9</v>
@@ -1920,8 +1920,8 @@
       <c r="C64" s="3">
         <v>22.63</v>
       </c>
-      <c r="D64">
-        <v>6.0289400000000001E-10</v>
+      <c r="D64" s="2">
+        <v>2.3577620000000002E-9</v>
       </c>
       <c r="F64" s="2">
         <v>2.3577620000000002E-9</v>
@@ -1943,8 +1943,8 @@
       <c r="C65" s="3">
         <v>22.63</v>
       </c>
-      <c r="D65">
-        <v>6.0654099999999996E-10</v>
+      <c r="D65" s="2">
+        <v>2.5703960000000001E-9</v>
       </c>
       <c r="F65" s="2">
         <v>2.5703960000000001E-9</v>
@@ -1966,8 +1966,8 @@
       <c r="C66" s="3">
         <v>22.63</v>
       </c>
-      <c r="D66">
-        <v>6.0941800000000004E-10</v>
+      <c r="D66" s="2">
+        <v>2.344229E-9</v>
       </c>
       <c r="F66" s="2">
         <v>2.344229E-9</v>
@@ -1989,8 +1989,8 @@
       <c r="C67" s="3">
         <v>22.63</v>
       </c>
-      <c r="D67">
-        <v>6.1167200000000004E-10</v>
+      <c r="D67" s="2">
+        <v>2.483133E-9</v>
       </c>
       <c r="F67" s="2">
         <v>2.483133E-9</v>
@@ -2012,8 +2012,8 @@
       <c r="C68" s="3">
         <v>22.63</v>
       </c>
-      <c r="D68">
-        <v>6.1408699999999997E-10</v>
+      <c r="D68" s="2">
+        <v>1.7080480000000001E-9</v>
       </c>
       <c r="F68" s="2">
         <v>1.7080480000000001E-9</v>
@@ -2035,8 +2035,8 @@
       <c r="C69" s="3">
         <v>22.63</v>
       </c>
-      <c r="D69">
-        <v>6.1634700000000002E-10</v>
+      <c r="D69" s="2">
+        <v>2.6151700000000002E-9</v>
       </c>
       <c r="F69" s="2">
         <v>2.6151700000000002E-9</v>
@@ -2058,8 +2058,8 @@
       <c r="C70" s="3">
         <v>22.63</v>
       </c>
-      <c r="D70">
-        <v>6.1965000000000003E-10</v>
+      <c r="D70" s="2">
+        <v>2.3040930000000002E-9</v>
       </c>
       <c r="F70" s="2">
         <v>2.3040930000000002E-9</v>
@@ -2081,8 +2081,8 @@
       <c r="C71" s="3">
         <v>22.63</v>
       </c>
-      <c r="D71">
-        <v>6.2275199999999996E-10</v>
+      <c r="D71" s="2">
+        <v>2.5118860000000001E-9</v>
       </c>
       <c r="F71" s="2">
         <v>2.5118860000000001E-9</v>
@@ -2104,8 +2104,8 @@
       <c r="C72" s="3">
         <v>22.63</v>
       </c>
-      <c r="D72">
-        <v>6.2595300000000002E-10</v>
+      <c r="D72" s="2">
+        <v>2.2908680000000002E-9</v>
       </c>
       <c r="F72" s="2">
         <v>2.2908680000000002E-9</v>
@@ -2127,8 +2127,8 @@
       <c r="C73" s="3">
         <v>22.63</v>
       </c>
-      <c r="D73">
-        <v>6.2821299999999997E-10</v>
+      <c r="D73" s="2">
+        <v>2.5409729999999999E-9</v>
       </c>
       <c r="F73" s="2">
         <v>2.5409729999999999E-9</v>
@@ -2150,8 +2150,8 @@
       <c r="C74" s="3">
         <v>22.63</v>
       </c>
-      <c r="D74">
-        <v>6.3042300000000001E-10</v>
+      <c r="D74" s="2">
+        <v>1.862087E-9</v>
       </c>
       <c r="F74" s="2">
         <v>1.862087E-9</v>
@@ -2173,8 +2173,8 @@
       <c r="C75" s="3">
         <v>22.63</v>
       </c>
-      <c r="D75">
-        <v>6.3268599999999998E-10</v>
+      <c r="D75" s="2">
+        <v>2.4974679999999998E-9</v>
       </c>
       <c r="F75" s="2">
         <v>2.4974679999999998E-9</v>
@@ -2196,8 +2196,8 @@
       <c r="C76" s="3">
         <v>22.63</v>
       </c>
-      <c r="D76">
-        <v>6.3581200000000002E-10</v>
+      <c r="D76" s="2">
+        <v>1.7179080000000001E-9</v>
       </c>
       <c r="F76" s="2">
         <v>1.7179080000000001E-9</v>
@@ -2219,8 +2219,8 @@
       <c r="C77" s="3">
         <v>22.63</v>
       </c>
-      <c r="D77">
-        <v>6.3980599999999995E-10</v>
+      <c r="D77" s="2">
+        <v>2.5409729999999999E-9</v>
       </c>
       <c r="F77" s="2">
         <v>2.5409729999999999E-9</v>
@@ -2242,8 +2242,8 @@
       <c r="C78" s="3">
         <v>22.63</v>
       </c>
-      <c r="D78">
-        <v>6.43126E-10</v>
+      <c r="D78" s="2">
+        <v>1.6500610000000001E-9</v>
       </c>
       <c r="F78" s="2">
         <v>1.6500610000000001E-9</v>
@@ -2265,8 +2265,8 @@
       <c r="C79" s="3">
         <v>22.63</v>
       </c>
-      <c r="D79">
-        <v>6.4615600000000004E-10</v>
+      <c r="D79" s="2">
+        <v>2.4974679999999998E-9</v>
       </c>
       <c r="F79" s="2">
         <v>2.4974679999999998E-9</v>
@@ -2288,8 +2288,8 @@
       <c r="C80" s="3">
         <v>22.63</v>
       </c>
-      <c r="D80">
-        <v>6.49213E-10</v>
+      <c r="D80" s="2">
+        <v>2.2387209999999998E-9</v>
       </c>
       <c r="F80" s="2">
         <v>2.2387209999999998E-9</v>
@@ -2311,8 +2311,8 @@
       <c r="C81" s="3">
         <v>22.63</v>
       </c>
-      <c r="D81">
-        <v>6.5199299999999996E-10</v>
+      <c r="D81" s="2">
+        <v>2.6151700000000002E-9</v>
       </c>
       <c r="F81" s="2">
         <v>2.6151700000000002E-9</v>
@@ -2334,8 +2334,8 @@
       <c r="C82" s="3">
         <v>22.63</v>
       </c>
-      <c r="D82">
-        <v>6.5578700000000004E-10</v>
+      <c r="D82" s="2">
+        <v>2.9006809999999999E-9</v>
       </c>
       <c r="F82" s="2">
         <v>2.9006809999999999E-9</v>
@@ -2357,8 +2357,8 @@
       <c r="C83" s="3">
         <v>22.63</v>
       </c>
-      <c r="D83">
-        <v>6.5923899999999998E-10</v>
+      <c r="D83" s="2">
+        <v>2.5852350000000001E-9</v>
       </c>
       <c r="F83" s="2">
         <v>2.5852350000000001E-9</v>
@@ -2380,8 +2380,8 @@
       <c r="C84" s="3">
         <v>22.63</v>
       </c>
-      <c r="D84">
-        <v>6.6242600000000002E-10</v>
+      <c r="D84" s="2">
+        <v>1.7782790000000001E-9</v>
       </c>
       <c r="F84" s="2">
         <v>1.7782790000000001E-9</v>
@@ -2403,8 +2403,8 @@
       <c r="C85" s="3">
         <v>22.63</v>
       </c>
-      <c r="D85">
-        <v>6.6536099999999997E-10</v>
+      <c r="D85" s="2">
+        <v>2.6001599999999998E-9</v>
       </c>
       <c r="F85" s="2">
         <v>2.6001599999999998E-9</v>
@@ -2426,8 +2426,8 @@
       <c r="C86" s="3">
         <v>22.63</v>
       </c>
-      <c r="D86">
-        <v>6.6699999999999997E-10</v>
+      <c r="D86" s="2">
+        <v>2.0067809999999999E-9</v>
       </c>
       <c r="F86" s="2">
         <v>2.0067809999999999E-9</v>
@@ -2449,8 +2449,8 @@
       <c r="C87" s="3">
         <v>22.63</v>
       </c>
-      <c r="D87">
-        <v>6.6933799999999997E-10</v>
+      <c r="D87" s="2">
+        <v>2.676086E-9</v>
       </c>
       <c r="F87" s="2">
         <v>2.676086E-9</v>
@@ -2472,8 +2472,8 @@
       <c r="C88" s="3">
         <v>22.63</v>
       </c>
-      <c r="D88">
-        <v>6.7218499999999999E-10</v>
+      <c r="D88" s="2">
+        <v>2.3307729999999999E-9</v>
       </c>
       <c r="F88" s="2">
         <v>2.3307729999999999E-9</v>
@@ -2495,8 +2495,8 @@
       <c r="C89" s="3">
         <v>22.63</v>
       </c>
-      <c r="D89">
-        <v>6.7505800000000003E-10</v>
+      <c r="D89" s="2">
+        <v>2.5703960000000001E-9</v>
       </c>
       <c r="F89" s="2">
         <v>2.5703960000000001E-9</v>
@@ -2518,8 +2518,8 @@
       <c r="C90" s="3">
         <v>22.63</v>
       </c>
-      <c r="D90">
-        <v>6.7766899999999999E-10</v>
+      <c r="D90" s="2">
+        <v>3.1081359999999999E-9</v>
       </c>
       <c r="F90" s="2">
         <v>3.1081359999999999E-9</v>
@@ -2541,8 +2541,8 @@
       <c r="C91" s="3">
         <v>22.63</v>
       </c>
-      <c r="D91">
-        <v>6.8026899999999996E-10</v>
+      <c r="D91" s="2">
+        <v>2.6607249999999998E-9</v>
       </c>
       <c r="F91" s="2">
         <v>2.6607249999999998E-9</v>
@@ -2564,8 +2564,8 @@
       <c r="C92" s="3">
         <v>22.63</v>
       </c>
-      <c r="D92">
-        <v>6.82371E-10</v>
+      <c r="D92" s="2">
+        <v>3.3689920000000002E-9</v>
       </c>
       <c r="F92" s="2">
         <v>3.3689920000000002E-9</v>
@@ -2587,8 +2587,8 @@
       <c r="C93" s="3">
         <v>22.63</v>
       </c>
-      <c r="D93">
-        <v>6.8554200000000001E-10</v>
+      <c r="D93" s="2">
+        <v>2.6454529999999999E-9</v>
       </c>
       <c r="F93" s="2">
         <v>2.6454529999999999E-9</v>
@@ -2610,8 +2610,8 @@
       <c r="C94" s="3">
         <v>22.63</v>
       </c>
-      <c r="D94">
-        <v>6.8842999999999997E-10</v>
+      <c r="D94" s="2">
+        <v>3.090295E-9</v>
       </c>
       <c r="F94" s="2">
         <v>3.090295E-9</v>
@@ -2633,8 +2633,8 @@
       <c r="C95" s="3">
         <v>22.63</v>
       </c>
-      <c r="D95">
-        <v>6.9110399999999995E-10</v>
+      <c r="D95" s="2">
+        <v>2.6151700000000002E-9</v>
       </c>
       <c r="F95" s="2">
         <v>2.6151700000000002E-9</v>
@@ -2656,8 +2656,8 @@
       <c r="C96" s="3">
         <v>22.63</v>
       </c>
-      <c r="D96">
-        <v>6.94207E-10</v>
+      <c r="D96" s="2">
+        <v>2.1379620000000001E-9</v>
       </c>
       <c r="F96" s="2">
         <v>2.1379620000000001E-9</v>
@@ -2679,8 +2679,8 @@
       <c r="C97" s="3">
         <v>22.63</v>
       </c>
-      <c r="D97">
-        <v>6.9790499999999998E-10</v>
+      <c r="D97" s="2">
+        <v>2.630268E-9</v>
       </c>
       <c r="F97" s="2">
         <v>2.630268E-9</v>
@@ -2702,8 +2702,8 @@
       <c r="C98" s="3">
         <v>22.63</v>
       </c>
-      <c r="D98">
-        <v>7.0031900000000001E-10</v>
+      <c r="D98" s="2">
+        <v>3.0549209999999999E-9</v>
       </c>
       <c r="F98" s="2">
         <v>3.0549209999999999E-9</v>
@@ -2725,8 +2725,8 @@
       <c r="C99" s="3">
         <v>22.63</v>
       </c>
-      <c r="D99">
-        <v>7.0389000000000004E-10</v>
+      <c r="D99" s="2">
+        <v>2.707073E-9</v>
       </c>
       <c r="F99" s="2">
         <v>2.707073E-9</v>
@@ -2748,8 +2748,8 @@
       <c r="C100" s="3">
         <v>22.63</v>
       </c>
-      <c r="D100">
-        <v>7.0706900000000001E-10</v>
+      <c r="D100" s="2">
+        <v>3.3496539999999999E-9</v>
       </c>
       <c r="F100" s="2">
         <v>3.3496539999999999E-9</v>
@@ -2771,8 +2771,8 @@
       <c r="C101" s="3">
         <v>22.63</v>
       </c>
-      <c r="D101">
-        <v>7.0988200000000005E-10</v>
+      <c r="D101" s="2">
+        <v>2.7384200000000001E-9</v>
       </c>
       <c r="F101" s="2">
         <v>2.7384200000000001E-9</v>
@@ -2794,8 +2794,8 @@
       <c r="C102" s="3">
         <v>22.63</v>
       </c>
-      <c r="D102">
-        <v>7.12359E-10</v>
+      <c r="D102" s="2">
+        <v>3.2923049999999998E-9</v>
       </c>
       <c r="F102" s="2">
         <v>3.2923049999999998E-9</v>
@@ -2817,8 +2817,8 @@
       <c r="C103" s="3">
         <v>22.63</v>
       </c>
-      <c r="D103">
-        <v>7.1465999999999999E-10</v>
+      <c r="D103" s="2">
+        <v>2.8183830000000001E-9</v>
       </c>
       <c r="F103" s="2">
         <v>2.8183830000000001E-9</v>
@@ -2840,8 +2840,8 @@
       <c r="C104" s="3">
         <v>22.63</v>
       </c>
-      <c r="D104">
-        <v>7.1818200000000001E-10</v>
+      <c r="D104" s="2">
+        <v>3.3884420000000002E-9</v>
       </c>
       <c r="F104" s="2">
         <v>3.3884420000000002E-9</v>
@@ -2863,8 +2863,8 @@
       <c r="C105" s="3">
         <v>22.63</v>
       </c>
-      <c r="D105">
-        <v>7.2164400000000004E-10</v>
+      <c r="D105" s="2">
+        <v>2.7701289999999999E-9</v>
       </c>
       <c r="F105" s="2">
         <v>2.7701289999999999E-9</v>
@@ -2886,8 +2886,8 @@
       <c r="C106" s="3">
         <v>22.63</v>
       </c>
-      <c r="D106">
-        <v>7.24979E-10</v>
+      <c r="D106" s="2">
+        <v>1.8728370000000002E-9</v>
       </c>
       <c r="F106" s="2">
         <v>1.8728370000000002E-9</v>
@@ -2909,8 +2909,8 @@
       <c r="C107" s="3">
         <v>22.63</v>
       </c>
-      <c r="D107">
-        <v>7.2793999999999997E-10</v>
+      <c r="D107" s="2">
+        <v>2.7861210000000002E-9</v>
       </c>
       <c r="F107" s="2">
         <v>2.7861210000000002E-9</v>
@@ -2932,8 +2932,8 @@
       <c r="C108" s="3">
         <v>22.63</v>
       </c>
-      <c r="D108">
-        <v>7.3083199999999996E-10</v>
+      <c r="D108" s="2">
+        <v>1.862087E-9</v>
       </c>
       <c r="F108" s="2">
         <v>1.862087E-9</v>
@@ -2955,8 +2955,8 @@
       <c r="C109" s="3">
         <v>22.63</v>
       </c>
-      <c r="D109">
-        <v>7.32717E-10</v>
+      <c r="D109" s="2">
+        <v>2.8840319999999998E-9</v>
       </c>
       <c r="F109" s="2">
         <v>2.8840319999999998E-9</v>
@@ -2978,8 +2978,8 @@
       <c r="C110" s="3">
         <v>22.63</v>
       </c>
-      <c r="D110">
-        <v>7.3553299999999997E-10</v>
+      <c r="D110" s="2">
+        <v>2.676086E-9</v>
       </c>
       <c r="F110" s="2">
         <v>2.676086E-9</v>
@@ -3001,8 +3001,8 @@
       <c r="C111" s="3">
         <v>22.63</v>
       </c>
-      <c r="D111">
-        <v>7.3861E-10</v>
+      <c r="D111" s="2">
+        <v>3.0199519999999999E-9</v>
       </c>
       <c r="F111" s="2">
         <v>3.0199519999999999E-9</v>
@@ -3024,8 +3024,8 @@
       <c r="C112" s="3">
         <v>22.63</v>
       </c>
-      <c r="D112">
-        <v>7.4181499999999999E-10</v>
+      <c r="D112" s="2">
+        <v>2.1379620000000001E-9</v>
       </c>
       <c r="F112" s="2">
         <v>2.1379620000000001E-9</v>
@@ -3047,8 +3047,8 @@
       <c r="C113" s="3">
         <v>22.63</v>
       </c>
-      <c r="D113">
-        <v>7.4508199999999999E-10</v>
+      <c r="D113" s="2">
+        <v>2.9682469999999998E-9</v>
       </c>
       <c r="F113" s="2">
         <v>2.9682469999999998E-9</v>
@@ -3070,8 +3070,8 @@
       <c r="C114" s="3">
         <v>22.63</v>
       </c>
-      <c r="D114">
-        <v>7.4836600000000004E-10</v>
+      <c r="D114" s="2">
+        <v>2.3850640000000001E-9</v>
       </c>
       <c r="F114" s="2">
         <v>2.3850640000000001E-9</v>
@@ -3093,8 +3093,8 @@
       <c r="C115" s="3">
         <v>22.63</v>
       </c>
-      <c r="D115">
-        <v>7.5049299999999998E-10</v>
+      <c r="D115" s="2">
+        <v>2.9006809999999999E-9</v>
       </c>
       <c r="F115" s="2">
         <v>2.9006809999999999E-9</v>
@@ -3116,8 +3116,8 @@
       <c r="C116" s="3">
         <v>22.63</v>
       </c>
-      <c r="D116">
-        <v>7.5386899999999999E-10</v>
+      <c r="D116" s="2">
+        <v>2.6607249999999998E-9</v>
       </c>
       <c r="F116" s="2">
         <v>2.6607249999999998E-9</v>
@@ -3139,8 +3139,8 @@
       <c r="C117" s="3">
         <v>22.63</v>
       </c>
-      <c r="D117">
-        <v>7.5737000000000004E-10</v>
+      <c r="D117" s="2">
+        <v>2.8840319999999998E-9</v>
       </c>
       <c r="F117" s="2">
         <v>2.8840319999999998E-9</v>
@@ -3162,8 +3162,8 @@
       <c r="C118" s="3">
         <v>22.63</v>
       </c>
-      <c r="D118">
-        <v>7.6120699999999998E-10</v>
+      <c r="D118" s="2">
+        <v>2.2258710000000002E-9</v>
       </c>
       <c r="F118" s="2">
         <v>2.2258710000000002E-9</v>
@@ -3185,8 +3185,8 @@
       <c r="C119" s="3">
         <v>22.63</v>
       </c>
-      <c r="D119">
-        <v>7.6387600000000002E-10</v>
+      <c r="D119" s="2">
+        <v>3.002617E-9</v>
       </c>
       <c r="F119" s="2">
         <v>3.002617E-9</v>
@@ -3208,8 +3208,8 @@
       <c r="C120" s="3">
         <v>22.63</v>
       </c>
-      <c r="D120">
-        <v>7.6601399999999996E-10</v>
+      <c r="D120" s="2">
+        <v>2.1503049999999998E-9</v>
       </c>
       <c r="F120" s="2">
         <v>2.1503049999999998E-9</v>
@@ -3231,8 +3231,8 @@
       <c r="C121" s="3">
         <v>22.63</v>
       </c>
-      <c r="D121">
-        <v>7.6864499999999999E-10</v>
+      <c r="D121" s="2">
+        <v>3.002617E-9</v>
       </c>
       <c r="F121" s="2">
         <v>3.002617E-9</v>
@@ -3254,8 +3254,8 @@
       <c r="C122" s="3">
         <v>22.63</v>
       </c>
-      <c r="D122">
-        <v>7.7222199999999996E-10</v>
+      <c r="D122" s="2">
+        <v>2.0183659999999999E-9</v>
       </c>
       <c r="F122" s="2">
         <v>2.0183659999999999E-9</v>
@@ -3277,8 +3277,8 @@
       <c r="C123" s="3">
         <v>22.63</v>
       </c>
-      <c r="D123">
-        <v>7.7550399999999999E-10</v>
+      <c r="D123" s="2">
+        <v>3.1988949999999998E-9</v>
       </c>
       <c r="F123" s="2">
         <v>3.1988949999999998E-9</v>
@@ -3300,8 +3300,8 @@
       <c r="C124" s="3">
         <v>22.63</v>
       </c>
-      <c r="D124">
-        <v>7.7790900000000005E-10</v>
+      <c r="D124" s="2">
+        <v>2.1256899999999999E-9</v>
       </c>
       <c r="F124" s="2">
         <v>2.1256899999999999E-9</v>
@@ -3323,8 +3323,8 @@
       <c r="C125" s="3">
         <v>22.63</v>
       </c>
-      <c r="D125">
-        <v>7.8222400000000005E-10</v>
+      <c r="D125" s="2">
+        <v>3.2359370000000002E-9</v>
       </c>
       <c r="F125" s="2">
         <v>3.2359370000000002E-9</v>
@@ -3346,8 +3346,8 @@
       <c r="C126" s="3">
         <v>22.63</v>
       </c>
-      <c r="D126">
-        <v>7.8576099999999999E-10</v>
+      <c r="D126" s="2">
+        <v>2.1379620000000001E-9</v>
       </c>
       <c r="F126" s="2">
         <v>2.1379620000000001E-9</v>
@@ -3369,8 +3369,8 @@
       <c r="C127" s="3">
         <v>22.63</v>
       </c>
-      <c r="D127">
-        <v>7.9001900000000002E-10</v>
+      <c r="D127" s="2">
+        <v>3.1988949999999998E-9</v>
       </c>
       <c r="F127" s="2">
         <v>3.1988949999999998E-9</v>
@@ -3392,8 +3392,8 @@
       <c r="C128" s="3">
         <v>22.63</v>
       </c>
-      <c r="D128">
-        <v>7.9349799999999998E-10</v>
+      <c r="D128" s="2">
+        <v>2.8840319999999998E-9</v>
       </c>
       <c r="F128" s="2">
         <v>2.8840319999999998E-9</v>
@@ -3415,8 +3415,8 @@
       <c r="C129" s="3">
         <v>22.63</v>
       </c>
-      <c r="D129">
-        <v>7.9751999999999995E-10</v>
+      <c r="D129" s="2">
+        <v>3.2923049999999998E-9</v>
       </c>
       <c r="F129" s="2">
         <v>3.2923049999999998E-9</v>
@@ -3438,8 +3438,8 @@
       <c r="C130" s="3">
         <v>22.63</v>
       </c>
-      <c r="D130">
-        <v>8.0202999999999997E-10</v>
+      <c r="D130" s="2">
+        <v>2.5409729999999999E-9</v>
       </c>
       <c r="F130" s="2">
         <v>2.5409729999999999E-9</v>
@@ -3461,8 +3461,8 @@
       <c r="C131" s="3">
         <v>22.63</v>
       </c>
-      <c r="D131">
-        <v>8.0629799999999998E-10</v>
+      <c r="D131" s="2">
+        <v>3.1988949999999998E-9</v>
       </c>
       <c r="F131" s="2">
         <v>3.1988949999999998E-9</v>
@@ -3484,8 +3484,8 @@
       <c r="C132" s="3">
         <v>22.63</v>
       </c>
-      <c r="D132">
-        <v>8.0864699999999997E-10</v>
+      <c r="D132" s="2">
+        <v>2.3173949999999999E-9</v>
       </c>
       <c r="F132" s="2">
         <v>2.3173949999999999E-9</v>
@@ -3507,8 +3507,8 @@
       <c r="C133" s="3">
         <v>22.63</v>
       </c>
-      <c r="D133">
-        <v>8.1188300000000002E-10</v>
+      <c r="D133" s="2">
+        <v>3.3304279999999998E-9</v>
       </c>
       <c r="F133" s="2">
         <v>3.3304279999999998E-9</v>
@@ -3530,8 +3530,8 @@
       <c r="C134" s="3">
         <v>22.63</v>
       </c>
-      <c r="D134">
-        <v>8.15292E-10</v>
+      <c r="D134" s="2">
+        <v>2.1013580000000001E-9</v>
       </c>
       <c r="F134" s="2">
         <v>2.1013580000000001E-9</v>
@@ -3553,8 +3553,8 @@
       <c r="C135" s="3">
         <v>22.63</v>
       </c>
-      <c r="D135">
-        <v>8.1871099999999997E-10</v>
+      <c r="D135" s="2">
+        <v>3.2359370000000002E-9</v>
       </c>
       <c r="F135" s="2">
         <v>3.2359370000000002E-9</v>
@@ -3576,8 +3576,8 @@
       <c r="C136" s="3">
         <v>22.63</v>
       </c>
-      <c r="D136">
-        <v>8.2091899999999999E-10</v>
+      <c r="D136" s="2">
+        <v>3.3884420000000002E-9</v>
       </c>
       <c r="F136" s="2">
         <v>3.3884420000000002E-9</v>
@@ -3599,8 +3599,8 @@
       <c r="C137" s="3">
         <v>22.63</v>
       </c>
-      <c r="D137">
-        <v>8.2256500000000004E-10</v>
+      <c r="D137" s="2">
+        <v>3.180534E-9</v>
       </c>
       <c r="F137" s="2">
         <v>3.180534E-9</v>
@@ -3622,8 +3622,8 @@
       <c r="C138" s="3">
         <v>22.63</v>
       </c>
-      <c r="D138">
-        <v>8.2492300000000001E-10</v>
+      <c r="D138" s="2">
+        <v>2.2516449999999998E-9</v>
       </c>
       <c r="F138" s="2">
         <v>2.2516449999999998E-9</v>
@@ -3645,8 +3645,8 @@
       <c r="C139" s="3">
         <v>22.63</v>
       </c>
-      <c r="D139">
-        <v>8.2766000000000001E-10</v>
+      <c r="D139" s="2">
+        <v>3.180534E-9</v>
       </c>
       <c r="F139" s="2">
         <v>3.180534E-9</v>
@@ -3668,8 +3668,8 @@
       <c r="C140" s="3">
         <v>22.63</v>
       </c>
-      <c r="D140">
-        <v>8.3105399999999997E-10</v>
+      <c r="D140" s="2">
+        <v>2.2908680000000002E-9</v>
       </c>
       <c r="F140" s="2">
         <v>2.2908680000000002E-9</v>
@@ -3691,8 +3691,8 @@
       <c r="C141" s="3">
         <v>22.63</v>
       </c>
-      <c r="D141">
-        <v>8.3465400000000004E-10</v>
+      <c r="D141" s="2">
+        <v>3.2359370000000002E-9</v>
       </c>
       <c r="F141" s="2">
         <v>3.2359370000000002E-9</v>
@@ -3714,8 +3714,8 @@
       <c r="C142" s="3">
         <v>22.63</v>
       </c>
-      <c r="D142">
-        <v>8.3878900000000005E-10</v>
+      <c r="D142" s="2">
+        <v>4.004055E-9</v>
       </c>
       <c r="F142" s="2">
         <v>4.004055E-9</v>
@@ -3737,8 +3737,8 @@
       <c r="C143" s="3">
         <v>22.63</v>
       </c>
-      <c r="D143">
-        <v>8.4167299999999997E-10</v>
+      <c r="D143" s="2">
+        <v>3.2173629999999999E-9</v>
       </c>
       <c r="F143" s="2">
         <v>3.2173629999999999E-9</v>
@@ -3760,8 +3760,8 @@
       <c r="C144" s="3">
         <v>22.63</v>
       </c>
-      <c r="D144">
-        <v>8.4528599999999995E-10</v>
+      <c r="D144" s="2">
+        <v>3.981072E-9</v>
       </c>
       <c r="F144" s="2">
         <v>3.981072E-9</v>
@@ -3783,8 +3783,8 @@
       <c r="C145" s="3">
         <v>22.63</v>
       </c>
-      <c r="D145">
-        <v>8.4856000000000001E-10</v>
+      <c r="D145" s="2">
+        <v>3.3689920000000002E-9</v>
       </c>
       <c r="F145" s="2">
         <v>3.3689920000000002E-9</v>
@@ -3806,8 +3806,8 @@
       <c r="C146" s="3">
         <v>22.63</v>
       </c>
-      <c r="D146">
-        <v>8.5279799999999997E-10</v>
+      <c r="D146" s="2">
+        <v>3.5892189999999998E-9</v>
       </c>
       <c r="F146" s="2">
         <v>3.5892189999999998E-9</v>
@@ -3829,8 +3829,8 @@
       <c r="C147" s="3">
         <v>22.63</v>
       </c>
-      <c r="D147">
-        <v>8.5730599999999998E-10</v>
+      <c r="D147" s="2">
+        <v>3.2359370000000002E-9</v>
       </c>
       <c r="F147" s="2">
         <v>3.2359370000000002E-9</v>
@@ -3852,8 +3852,8 @@
       <c r="C148" s="3">
         <v>22.63</v>
       </c>
-      <c r="D148">
-        <v>8.6148400000000004E-10</v>
+      <c r="D148" s="2">
+        <v>3.5481339999999999E-9</v>
       </c>
       <c r="F148" s="2">
         <v>3.5481339999999999E-9</v>
@@ -3875,8 +3875,8 @@
       <c r="C149" s="3">
         <v>22.63</v>
       </c>
-      <c r="D149">
-        <v>8.6485900000000004E-10</v>
+      <c r="D149" s="2">
+        <v>3.3496539999999999E-9</v>
       </c>
       <c r="F149" s="2">
         <v>3.3496539999999999E-9</v>
@@ -3898,8 +3898,8 @@
       <c r="C150" s="3">
         <v>22.63</v>
       </c>
-      <c r="D150">
-        <v>8.6896800000000003E-10</v>
+      <c r="D150" s="2">
+        <v>3.7368010000000001E-9</v>
       </c>
       <c r="F150" s="2">
         <v>3.7368010000000001E-9</v>
@@ -3921,8 +3921,8 @@
       <c r="C151" s="3">
         <v>22.63</v>
       </c>
-      <c r="D151">
-        <v>8.7303100000000004E-10</v>
+      <c r="D151" s="2">
+        <v>2.5852350000000001E-9</v>
       </c>
       <c r="F151" s="2">
         <v>2.5852350000000001E-9</v>
@@ -3944,8 +3944,8 @@
       <c r="C152" s="3">
         <v>22.63</v>
       </c>
-      <c r="D152">
-        <v>8.7668699999999997E-10</v>
+      <c r="D152" s="2">
+        <v>3.5892189999999998E-9</v>
       </c>
       <c r="F152" s="2">
         <v>3.5892189999999998E-9</v>
@@ -3967,8 +3967,8 @@
       <c r="C153" s="3">
         <v>22.63</v>
       </c>
-      <c r="D153">
-        <v>8.7994199999999998E-10</v>
+      <c r="D153" s="2">
+        <v>2.5118860000000001E-9</v>
       </c>
       <c r="F153" s="2">
         <v>2.5118860000000001E-9</v>
@@ -3990,8 +3990,8 @@
       <c r="C154" s="3">
         <v>22.63</v>
       </c>
-      <c r="D154">
-        <v>8.8329299999999998E-10</v>
+      <c r="D154" s="2">
+        <v>3.4873859999999999E-9</v>
       </c>
       <c r="F154" s="2">
         <v>3.4873859999999999E-9</v>
@@ -4013,8 +4013,8 @@
       <c r="C155" s="3">
         <v>22.63</v>
       </c>
-      <c r="D155">
-        <v>8.8937599999999995E-10</v>
+      <c r="D155" s="2">
+        <v>2.707073E-9</v>
       </c>
       <c r="F155" s="2">
         <v>2.707073E-9</v>
@@ -4036,8 +4036,8 @@
       <c r="C156" s="3">
         <v>22.63</v>
       </c>
-      <c r="D156">
-        <v>8.9424899999999998E-10</v>
+      <c r="D156" s="2">
+        <v>3.4474659999999998E-9</v>
       </c>
       <c r="F156" s="2">
         <v>3.4474659999999998E-9</v>
@@ -4059,8 +4059,8 @@
       <c r="C157" s="3">
         <v>22.63</v>
       </c>
-      <c r="D157">
-        <v>8.9871600000000004E-10</v>
+      <c r="D157" s="2">
+        <v>2.5409729999999999E-9</v>
       </c>
       <c r="F157" s="2">
         <v>2.5409729999999999E-9</v>
@@ -4082,8 +4082,8 @@
       <c r="C158" s="3">
         <v>22.63</v>
       </c>
-      <c r="D158">
-        <v>9.0243900000000003E-10</v>
+      <c r="D158" s="2">
+        <v>3.3496539999999999E-9</v>
       </c>
       <c r="F158" s="2">
         <v>3.3496539999999999E-9</v>
@@ -4105,8 +4105,8 @@
       <c r="C159" s="3">
         <v>22.63</v>
       </c>
-      <c r="D159">
-        <v>9.0614599999999998E-10</v>
+      <c r="D159" s="2">
+        <v>4.4411969999999998E-9</v>
       </c>
       <c r="F159" s="2">
         <v>4.4411969999999998E-9</v>
@@ -4128,8 +4128,8 @@
       <c r="C160" s="3">
         <v>22.63</v>
       </c>
-      <c r="D160">
-        <v>9.0852700000000004E-10</v>
+      <c r="D160" s="2">
+        <v>3.507519E-9</v>
       </c>
       <c r="F160" s="2">
         <v>3.507519E-9</v>
@@ -4151,8 +4151,8 @@
       <c r="C161" s="3">
         <v>22.63</v>
       </c>
-      <c r="D161">
-        <v>9.1200099999999996E-10</v>
+      <c r="D161" s="2">
+        <v>3.7800710000000001E-9</v>
       </c>
       <c r="F161" s="2">
         <v>3.7800710000000001E-9</v>
@@ -4174,8 +4174,8 @@
       <c r="C162" s="3">
         <v>22.63</v>
       </c>
-      <c r="D162">
-        <v>9.1492800000000005E-10</v>
+      <c r="D162" s="2">
+        <v>3.3113110000000001E-9</v>
       </c>
       <c r="F162" s="2">
         <v>3.3113110000000001E-9</v>
@@ -4197,8 +4197,8 @@
       <c r="C163" s="3">
         <v>22.63</v>
       </c>
-      <c r="D163">
-        <v>9.1831300000000003E-10</v>
+      <c r="D163" s="2">
+        <v>3.7153519999999998E-9</v>
       </c>
       <c r="F163" s="2">
         <v>3.7153519999999998E-9</v>
@@ -4220,8 +4220,8 @@
       <c r="C164" s="3">
         <v>22.63</v>
       </c>
-      <c r="D164">
-        <v>9.2247899999999999E-10</v>
+      <c r="D164" s="2">
+        <v>2.9512089999999999E-9</v>
       </c>
       <c r="F164" s="2">
         <v>2.9512089999999999E-9</v>
@@ -4243,8 +4243,8 @@
       <c r="C165" s="3">
         <v>22.63</v>
       </c>
-      <c r="D165">
-        <v>9.2607999999999997E-10</v>
+      <c r="D165" s="2">
+        <v>3.7583739999999997E-9</v>
       </c>
       <c r="F165" s="2">
         <v>3.7583739999999997E-9</v>
@@ -4266,8 +4266,8 @@
       <c r="C166" s="3">
         <v>22.63</v>
       </c>
-      <c r="D166">
-        <v>9.2837700000000003E-10</v>
+      <c r="D166" s="2">
+        <v>2.6001599999999998E-9</v>
       </c>
       <c r="F166" s="2">
         <v>2.6001599999999998E-9</v>
@@ -4289,8 +4289,8 @@
       <c r="C167" s="3">
         <v>22.63</v>
       </c>
-      <c r="D167">
-        <v>9.3147799999999996E-10</v>
+      <c r="D167" s="2">
+        <v>3.7368010000000001E-9</v>
       </c>
       <c r="F167" s="2">
         <v>3.7368010000000001E-9</v>
@@ -4312,8 +4312,8 @@
       <c r="C168" s="3">
         <v>22.63</v>
       </c>
-      <c r="D168">
-        <v>9.3496099999999995E-10</v>
+      <c r="D168" s="2">
+        <v>3.801894E-9</v>
       </c>
       <c r="F168" s="2">
         <v>3.801894E-9</v>
@@ -4335,8 +4335,8 @@
       <c r="C169" s="3">
         <v>22.63</v>
       </c>
-      <c r="D169">
-        <v>9.3898699999999995E-10</v>
+      <c r="D169" s="2">
+        <v>3.7583739999999997E-9</v>
       </c>
       <c r="F169" s="2">
         <v>3.7583739999999997E-9</v>
@@ -4358,8 +4358,8 @@
       <c r="C170" s="3">
         <v>22.63</v>
       </c>
-      <c r="D170">
-        <v>9.4351600000000003E-10</v>
+      <c r="D170" s="2">
+        <v>4.3903590000000002E-9</v>
       </c>
       <c r="F170" s="2">
         <v>4.3903590000000002E-9</v>
@@ -4381,8 +4381,8 @@
       <c r="C171" s="3">
         <v>22.63</v>
       </c>
-      <c r="D171">
-        <v>9.469350000000001E-10</v>
+      <c r="D171" s="2">
+        <v>3.6728229999999999E-9</v>
       </c>
       <c r="F171" s="2">
         <v>3.6728229999999999E-9</v>
@@ -4404,8 +4404,8 @@
       <c r="C172" s="3">
         <v>22.63</v>
       </c>
-      <c r="D172">
-        <v>9.5128000000000005E-10</v>
+      <c r="D172" s="2">
+        <v>2.8510180000000001E-9</v>
       </c>
       <c r="F172" s="2">
         <v>2.8510180000000001E-9</v>
@@ -4427,8 +4427,8 @@
       <c r="C173" s="3">
         <v>22.63</v>
       </c>
-      <c r="D173">
-        <v>9.5648400000000002E-10</v>
+      <c r="D173" s="2">
+        <v>3.6940259999999999E-9</v>
       </c>
       <c r="F173" s="2">
         <v>3.6940259999999999E-9</v>
@@ -4450,8 +4450,8 @@
       <c r="C174" s="3">
         <v>22.63</v>
       </c>
-      <c r="D174">
-        <v>9.6198600000000007E-10</v>
+      <c r="D174" s="2">
+        <v>4.6773509999999997E-9</v>
       </c>
       <c r="F174" s="2">
         <v>4.6773509999999997E-9</v>
@@ -4473,8 +4473,8 @@
       <c r="C175" s="3">
         <v>22.63</v>
       </c>
-      <c r="D175">
-        <v>9.6593800000000006E-10</v>
+      <c r="D175" s="2">
+        <v>3.507519E-9</v>
       </c>
       <c r="F175" s="2">
         <v>3.507519E-9</v>
@@ -4496,8 +4496,8 @@
       <c r="C176" s="3">
         <v>22.63</v>
       </c>
-      <c r="D176">
-        <v>9.6986200000000002E-10</v>
+      <c r="D176" s="2">
+        <v>4.265795E-9</v>
       </c>
       <c r="F176" s="2">
         <v>4.265795E-9</v>
@@ -4519,8 +4519,8 @@
       <c r="C177" s="3">
         <v>22.63</v>
       </c>
-      <c r="D177">
-        <v>9.7247999999999993E-10</v>
+      <c r="D177" s="2">
+        <v>3.6940259999999999E-9</v>
       </c>
       <c r="F177" s="2">
         <v>3.6940259999999999E-9</v>
@@ -4542,8 +4542,8 @@
       <c r="C178" s="3">
         <v>22.63</v>
       </c>
-      <c r="D178">
-        <v>9.7603499999999993E-10</v>
+      <c r="D178" s="2">
+        <v>4.0738029999999999E-9</v>
       </c>
       <c r="F178" s="2">
         <v>4.0738029999999999E-9</v>
@@ -4565,8 +4565,8 @@
       <c r="C179" s="3">
         <v>22.63</v>
       </c>
-      <c r="D179">
-        <v>9.8014300000000001E-10</v>
+      <c r="D179" s="2">
+        <v>3.6940259999999999E-9</v>
       </c>
       <c r="F179" s="2">
         <v>3.6940259999999999E-9</v>
@@ -4588,8 +4588,8 @@
       <c r="C180" s="3">
         <v>22.63</v>
       </c>
-      <c r="D180">
-        <v>9.8509800000000002E-10</v>
+      <c r="D180" s="2">
+        <v>3.9582209999999999E-9</v>
       </c>
       <c r="F180" s="2">
         <v>3.9582209999999999E-9</v>
@@ -4611,8 +4611,8 @@
       <c r="C181" s="3">
         <v>22.63</v>
       </c>
-      <c r="D181">
-        <v>9.8987099999999992E-10</v>
+      <c r="D181" s="2">
+        <v>3.5481339999999999E-9</v>
       </c>
       <c r="F181" s="2">
         <v>3.5481339999999999E-9</v>
@@ -4634,8 +4634,8 @@
       <c r="C182" s="3">
         <v>22.63</v>
       </c>
-      <c r="D182">
-        <v>9.9535000000000008E-10</v>
+      <c r="D182" s="2">
+        <v>4.1927600000000003E-9</v>
       </c>
       <c r="F182" s="2">
         <v>4.1927600000000003E-9</v>
@@ -4657,8 +4657,8 @@
       <c r="C183" s="3">
         <v>22.63</v>
       </c>
-      <c r="D183">
-        <v>9.9889499999999999E-10</v>
+      <c r="D183" s="2">
+        <v>3.1081359999999999E-9</v>
       </c>
       <c r="F183" s="2">
         <v>3.1081359999999999E-9</v>
@@ -4680,8 +4680,8 @@
       <c r="C184" s="3">
         <v>22.63</v>
       </c>
-      <c r="D184">
-        <v>1.002404E-9</v>
+      <c r="D184" s="2">
+        <v>4.1209749999999996E-9</v>
       </c>
       <c r="F184" s="2">
         <v>4.1209749999999996E-9</v>
@@ -4703,8 +4703,8 @@
       <c r="C185" s="3">
         <v>22.63</v>
       </c>
-      <c r="D185">
-        <v>1.0059540000000001E-9</v>
+      <c r="D185" s="2">
+        <v>2.8183830000000001E-9</v>
       </c>
       <c r="F185" s="2">
         <v>2.8183830000000001E-9</v>
@@ -4726,8 +4726,8 @@
       <c r="C186" s="3">
         <v>22.63</v>
       </c>
-      <c r="D186">
-        <v>1.009874E-9</v>
+      <c r="D186" s="2">
+        <v>4.0504190000000003E-9</v>
       </c>
       <c r="F186" s="2">
         <v>4.0504190000000003E-9</v>
@@ -4749,8 +4749,8 @@
       <c r="C187" s="3">
         <v>22.63</v>
       </c>
-      <c r="D187">
-        <v>1.0147729999999999E-9</v>
+      <c r="D187" s="2">
+        <v>3.3304279999999998E-9</v>
       </c>
       <c r="F187" s="2">
         <v>3.3304279999999998E-9</v>
@@ -4772,8 +4772,8 @@
       <c r="C188" s="3">
         <v>22.63</v>
       </c>
-      <c r="D188">
-        <v>1.0199439999999999E-9</v>
+      <c r="D188" s="2">
+        <v>4.0738029999999999E-9</v>
       </c>
       <c r="F188" s="2">
         <v>4.0738029999999999E-9</v>
@@ -4795,8 +4795,8 @@
       <c r="C189" s="3">
         <v>22.63</v>
       </c>
-      <c r="D189">
-        <v>1.0263929999999999E-9</v>
+      <c r="D189" s="2">
+        <v>3.090295E-9</v>
       </c>
       <c r="F189" s="2">
         <v>3.090295E-9</v>
@@ -4818,8 +4818,8 @@
       <c r="C190" s="3">
         <v>22.63</v>
       </c>
-      <c r="D190">
-        <v>1.031446E-9</v>
+      <c r="D190" s="2">
+        <v>3.9582209999999999E-9</v>
       </c>
       <c r="F190" s="2">
         <v>3.9582209999999999E-9</v>
@@ -4841,8 +4841,8 @@
       <c r="C191" s="3">
         <v>22.63</v>
       </c>
-      <c r="D191">
-        <v>1.03495E-9</v>
+      <c r="D191" s="2">
+        <v>2.985383E-9</v>
       </c>
       <c r="F191" s="2">
         <v>2.985383E-9</v>
@@ -4864,8 +4864,8 @@
       <c r="C192" s="3">
         <v>22.63</v>
       </c>
-      <c r="D192">
-        <v>1.0378460000000001E-9</v>
+      <c r="D192" s="2">
+        <v>4.004055E-9</v>
       </c>
       <c r="F192" s="2">
         <v>4.004055E-9</v>
@@ -4887,8 +4887,8 @@
       <c r="C193" s="3">
         <v>22.63</v>
       </c>
-      <c r="D193">
-        <v>1.0421160000000001E-9</v>
+      <c r="D193" s="2">
+        <v>4.2169650000000002E-9</v>
       </c>
       <c r="F193" s="2">
         <v>4.2169650000000002E-9</v>
@@ -4910,8 +4910,8 @@
       <c r="C194" s="3">
         <v>22.63</v>
       </c>
-      <c r="D194">
-        <v>1.04567E-9</v>
+      <c r="D194" s="2">
+        <v>3.9582209999999999E-9</v>
       </c>
       <c r="F194" s="2">
         <v>3.9582209999999999E-9</v>
@@ -4933,8 +4933,8 @@
       <c r="C195" s="3">
         <v>22.63</v>
       </c>
-      <c r="D195">
-        <v>1.051536E-9</v>
+      <c r="D195" s="2">
+        <v>5.1879999999999999E-9</v>
       </c>
       <c r="F195" s="2">
         <v>5.1879999999999999E-9</v>
@@ -4956,8 +4956,8 @@
       <c r="C196" s="3">
         <v>22.63</v>
       </c>
-      <c r="D196">
-        <v>1.0564859999999999E-9</v>
+      <c r="D196" s="2">
+        <v>3.9129109999999998E-9</v>
       </c>
       <c r="F196" s="2">
         <v>3.9129109999999998E-9</v>
@@ -4979,8 +4979,8 @@
       <c r="C197" s="3">
         <v>22.63</v>
       </c>
-      <c r="D197">
-        <v>1.0612469999999999E-9</v>
+      <c r="D197" s="2">
+        <v>4.8417240000000001E-9</v>
       </c>
       <c r="F197" s="2">
         <v>4.8417240000000001E-9</v>
@@ -5002,8 +5002,8 @@
       <c r="C198" s="3">
         <v>22.63</v>
       </c>
-      <c r="D198">
-        <v>1.0648000000000001E-9</v>
+      <c r="D198" s="2">
+        <v>4.0271699999999999E-9</v>
       </c>
       <c r="F198" s="2">
         <v>4.0271699999999999E-9</v>
@@ -5025,8 +5025,8 @@
       <c r="C199" s="3">
         <v>22.63</v>
       </c>
-      <c r="D199">
-        <v>1.0676790000000001E-9</v>
+      <c r="D199" s="2">
+        <v>3.0725569999999999E-9</v>
       </c>
       <c r="F199" s="2">
         <v>3.0725569999999999E-9</v>
@@ -5048,8 +5048,8 @@
       <c r="C200" s="3">
         <v>22.63</v>
       </c>
-      <c r="D200">
-        <v>1.070617E-9</v>
+      <c r="D200" s="2">
+        <v>4.0738029999999999E-9</v>
       </c>
       <c r="F200" s="2">
         <v>4.0738029999999999E-9</v>
@@ -5071,8 +5071,8 @@
       <c r="C201" s="3">
         <v>22.63</v>
       </c>
-      <c r="D201">
-        <v>1.074833E-9</v>
+      <c r="D201" s="2">
+        <v>3.1260790000000001E-9</v>
       </c>
       <c r="F201" s="2">
         <v>3.1260790000000001E-9</v>
@@ -5094,8 +5094,8 @@
       <c r="C202" s="3">
         <v>22.63</v>
       </c>
-      <c r="D202">
-        <v>1.079948E-9</v>
+      <c r="D202" s="2">
+        <v>4.0504190000000003E-9</v>
       </c>
       <c r="F202" s="2">
         <v>4.0504190000000003E-9</v>
@@ -5117,8 +5117,8 @@
       <c r="C203" s="3">
         <v>22.63</v>
       </c>
-      <c r="D203">
-        <v>1.0853699999999999E-9</v>
+      <c r="D203" s="2">
+        <v>3.002617E-9</v>
       </c>
       <c r="F203" s="2">
         <v>3.002617E-9</v>
@@ -5140,8 +5140,8 @@
       <c r="C204" s="3">
         <v>22.63</v>
       </c>
-      <c r="D204">
-        <v>1.0902009999999999E-9</v>
+      <c r="D204" s="2">
+        <v>4.2904220000000004E-9</v>
       </c>
       <c r="F204" s="2">
         <v>4.2904220000000004E-9</v>
@@ -5163,8 +5163,8 @@
       <c r="C205" s="3">
         <v>22.63</v>
       </c>
-      <c r="D205">
-        <v>1.0934399999999999E-9</v>
+      <c r="D205" s="2">
+        <v>3.2173629999999999E-9</v>
       </c>
       <c r="F205" s="2">
         <v>3.2173629999999999E-9</v>
@@ -5186,8 +5186,8 @@
       <c r="C206" s="3">
         <v>22.63</v>
       </c>
-      <c r="D206">
-        <v>1.0982360000000001E-9</v>
+      <c r="D206" s="2">
+        <v>4.265795E-9</v>
       </c>
       <c r="F206" s="2">
         <v>4.265795E-9</v>
@@ -5209,8 +5209,8 @@
       <c r="C207" s="3">
         <v>22.63</v>
       </c>
-      <c r="D207">
-        <v>1.1036120000000001E-9</v>
+      <c r="D207" s="2">
+        <v>4.3651579999999996E-9</v>
       </c>
       <c r="F207" s="2">
         <v>4.3651579999999996E-9</v>
@@ -5232,8 +5232,8 @@
       <c r="C208" s="3">
         <v>22.63</v>
       </c>
-      <c r="D208">
-        <v>1.109107E-9</v>
+      <c r="D208" s="2">
+        <v>4.2169650000000002E-9</v>
       </c>
       <c r="F208" s="2">
         <v>4.2169650000000002E-9</v>
@@ -5255,8 +5255,8 @@
       <c r="C209" s="3">
         <v>22.63</v>
       </c>
-      <c r="D209">
-        <v>1.114167E-9</v>
+      <c r="D209" s="2">
+        <v>3.4873859999999999E-9</v>
       </c>
       <c r="F209" s="2">
         <v>3.4873859999999999E-9</v>
@@ -5278,8 +5278,8 @@
       <c r="C210" s="3">
         <v>22.63</v>
       </c>
-      <c r="D210">
-        <v>1.1180520000000001E-9</v>
+      <c r="D210" s="2">
+        <v>4.3401030000000001E-9</v>
       </c>
       <c r="F210" s="2">
         <v>4.3401030000000001E-9</v>
@@ -5301,8 +5301,8 @@
       <c r="C211" s="3">
         <v>22.63</v>
       </c>
-      <c r="D211">
-        <v>1.121189E-9</v>
+      <c r="D211" s="2">
+        <v>3.3113110000000001E-9</v>
       </c>
       <c r="F211" s="2">
         <v>3.3113110000000001E-9</v>
@@ -5324,8 +5324,8 @@
       <c r="C212" s="3">
         <v>22.63</v>
       </c>
-      <c r="D212">
-        <v>1.126014E-9</v>
+      <c r="D212" s="2">
+        <v>4.3151909999999998E-9</v>
       </c>
       <c r="F212" s="2">
         <v>4.3151909999999998E-9</v>
@@ -5347,8 +5347,8 @@
       <c r="C213" s="3">
         <v>22.63</v>
       </c>
-      <c r="D213">
-        <v>1.1300080000000001E-9</v>
+      <c r="D213" s="2">
+        <v>3.3113110000000001E-9</v>
       </c>
       <c r="F213" s="2">
         <v>3.3113110000000001E-9</v>
@@ -5370,8 +5370,8 @@
       <c r="C214" s="3">
         <v>22.63</v>
       </c>
-      <c r="D214">
-        <v>1.133856E-9</v>
+      <c r="D214" s="2">
+        <v>4.5185589999999998E-9</v>
       </c>
       <c r="F214" s="2">
         <v>4.5185589999999998E-9</v>
@@ -5393,8 +5393,8 @@
       <c r="C215" s="3">
         <v>22.63</v>
       </c>
-      <c r="D215">
-        <v>1.13793E-9</v>
+      <c r="D215" s="2">
+        <v>3.4080029999999999E-9</v>
       </c>
       <c r="F215" s="2">
         <v>3.4080029999999999E-9</v>
@@ -5416,8 +5416,8 @@
       <c r="C216" s="3">
         <v>22.63</v>
       </c>
-      <c r="D216">
-        <v>1.141808E-9</v>
+      <c r="D216" s="2">
+        <v>4.4668360000000002E-9</v>
       </c>
       <c r="F216" s="2">
         <v>4.4668360000000002E-9</v>
@@ -5439,8 +5439,8 @@
       <c r="C217" s="3">
         <v>22.63</v>
       </c>
-      <c r="D217">
-        <v>1.145402E-9</v>
+      <c r="D217" s="2">
+        <v>3.7800710000000001E-9</v>
       </c>
       <c r="F217" s="2">
         <v>3.7800710000000001E-9</v>
@@ -5462,8 +5462,8 @@
       <c r="C218" s="3">
         <v>22.63</v>
       </c>
-      <c r="D218">
-        <v>1.149773E-9</v>
+      <c r="D218" s="2">
+        <v>4.5185589999999998E-9</v>
       </c>
       <c r="F218" s="2">
         <v>4.5185589999999998E-9</v>
@@ -5485,8 +5485,8 @@
       <c r="C219" s="3">
         <v>22.63</v>
       </c>
-      <c r="D219">
-        <v>1.1547050000000001E-9</v>
+      <c r="D219" s="2">
+        <v>3.9582209999999999E-9</v>
       </c>
       <c r="F219" s="2">
         <v>3.9582209999999999E-9</v>
@@ -5508,8 +5508,8 @@
       <c r="C220" s="3">
         <v>22.63</v>
       </c>
-      <c r="D220">
-        <v>1.159694E-9</v>
+      <c r="D220" s="2">
+        <v>4.5446449999999997E-9</v>
       </c>
       <c r="F220" s="2">
         <v>4.5446449999999997E-9</v>
@@ -5531,8 +5531,8 @@
       <c r="C221" s="3">
         <v>22.63</v>
       </c>
-      <c r="D221">
-        <v>1.165305E-9</v>
+      <c r="D221" s="2">
+        <v>3.6940259999999999E-9</v>
       </c>
       <c r="F221" s="2">
         <v>3.6940259999999999E-9</v>
@@ -5554,8 +5554,8 @@
       <c r="C222" s="3">
         <v>22.63</v>
       </c>
-      <c r="D222">
-        <v>1.1687680000000001E-9</v>
+      <c r="D222" s="2">
+        <v>4.4411969999999998E-9</v>
       </c>
       <c r="F222" s="2">
         <v>4.4411969999999998E-9</v>
@@ -5577,8 +5577,8 @@
       <c r="C223" s="3">
         <v>22.63</v>
       </c>
-      <c r="D223">
-        <v>1.173711E-9</v>
+      <c r="D223" s="2">
+        <v>3.4873859999999999E-9</v>
       </c>
       <c r="F223" s="2">
         <v>3.4873859999999999E-9</v>
@@ -5600,8 +5600,8 @@
       <c r="C224" s="3">
         <v>22.63</v>
       </c>
-      <c r="D224">
-        <v>1.178938E-9</v>
+      <c r="D224" s="2">
+        <v>4.5446449999999997E-9</v>
       </c>
       <c r="F224" s="2">
         <v>4.5446449999999997E-9</v>
@@ -5623,8 +5623,8 @@
       <c r="C225" s="3">
         <v>22.63</v>
       </c>
-      <c r="D225">
-        <v>1.183547E-9</v>
+      <c r="D225" s="2">
+        <v>3.7368010000000001E-9</v>
       </c>
       <c r="F225" s="2">
         <v>3.7368010000000001E-9</v>
@@ -5646,8 +5646,8 @@
       <c r="C226" s="3">
         <v>22.63</v>
       </c>
-      <c r="D226">
-        <v>1.1881929999999999E-9</v>
+      <c r="D226" s="2">
+        <v>4.8417240000000001E-9</v>
       </c>
       <c r="F226" s="2">
         <v>4.8417240000000001E-9</v>
@@ -5669,8 +5669,8 @@
       <c r="C227" s="3">
         <v>22.63</v>
       </c>
-      <c r="D227">
-        <v>1.192471E-9</v>
+      <c r="D227" s="2">
+        <v>3.6940259999999999E-9</v>
       </c>
       <c r="F227" s="2">
         <v>3.6940259999999999E-9</v>
@@ -5692,8 +5692,8 @@
       <c r="C228" s="3">
         <v>22.63</v>
       </c>
-      <c r="D228">
-        <v>1.195202E-9</v>
+      <c r="D228" s="2">
+        <v>4.8417240000000001E-9</v>
       </c>
       <c r="F228" s="2">
         <v>4.8417240000000001E-9</v>
@@ -5715,8 +5715,8 @@
       <c r="C229" s="3">
         <v>22.63</v>
       </c>
-      <c r="D229">
-        <v>1.1998129999999999E-9</v>
+      <c r="D229" s="2">
+        <v>3.6307810000000001E-9</v>
       </c>
       <c r="F229" s="2">
         <v>3.6307810000000001E-9</v>
@@ -5738,8 +5738,8 @@
       <c r="C230" s="3">
         <v>22.63</v>
       </c>
-      <c r="D230">
-        <v>1.2055249999999999E-9</v>
+      <c r="D230" s="2">
+        <v>4.8139330000000003E-9</v>
       </c>
       <c r="F230" s="2">
         <v>4.8139330000000003E-9</v>
@@ -5761,8 +5761,8 @@
       <c r="C231" s="3">
         <v>22.63</v>
       </c>
-      <c r="D231">
-        <v>1.2117579999999999E-9</v>
+      <c r="D231" s="2">
+        <v>4.5972699999999998E-9</v>
       </c>
       <c r="F231" s="2">
         <v>4.5972699999999998E-9</v>
@@ -5784,8 +5784,8 @@
       <c r="C232" s="3">
         <v>22.63</v>
       </c>
-      <c r="D232">
-        <v>1.2180290000000001E-9</v>
+      <c r="D232" s="2">
+        <v>4.8977879999999997E-9</v>
       </c>
       <c r="F232" s="2">
         <v>4.8977879999999997E-9</v>
@@ -5807,8 +5807,8 @@
       <c r="C233" s="3">
         <v>22.63</v>
       </c>
-      <c r="D233">
-        <v>1.223709E-9</v>
+      <c r="D233" s="2">
+        <v>4.168694E-9</v>
       </c>
       <c r="F233" s="2">
         <v>4.168694E-9</v>
@@ -5830,8 +5830,8 @@
       <c r="C234" s="3">
         <v>22.63</v>
       </c>
-      <c r="D234">
-        <v>1.2277320000000001E-9</v>
+      <c r="D234" s="2">
+        <v>4.8139330000000003E-9</v>
       </c>
       <c r="F234" s="2">
         <v>4.8139330000000003E-9</v>
@@ -5853,8 +5853,8 @@
       <c r="C235" s="3">
         <v>22.63</v>
       </c>
-      <c r="D235">
-        <v>1.2340539999999999E-9</v>
+      <c r="D235" s="2">
+        <v>4.004055E-9</v>
       </c>
       <c r="F235" s="2">
         <v>4.004055E-9</v>
@@ -5876,8 +5876,8 @@
       <c r="C236" s="3">
         <v>22.63</v>
       </c>
-      <c r="D236">
-        <v>1.2412780000000001E-9</v>
+      <c r="D236" s="2">
+        <v>4.9545019999999996E-9</v>
       </c>
       <c r="F236" s="2">
         <v>4.9545019999999996E-9</v>
@@ -5899,8 +5899,8 @@
       <c r="C237" s="3">
         <v>22.63</v>
       </c>
-      <c r="D237">
-        <v>1.2480650000000001E-9</v>
+      <c r="D237" s="2">
+        <v>3.981072E-9</v>
       </c>
       <c r="F237" s="2">
         <v>3.981072E-9</v>
@@ -5922,8 +5922,8 @@
       <c r="C238" s="3">
         <v>22.63</v>
       </c>
-      <c r="D238">
-        <v>1.254327E-9</v>
+      <c r="D238" s="2">
+        <v>5.0118720000000002E-9</v>
       </c>
       <c r="F238" s="2">
         <v>5.0118720000000002E-9</v>
@@ -5945,8 +5945,8 @@
       <c r="C239" s="3">
         <v>22.63</v>
       </c>
-      <c r="D239">
-        <v>1.258506E-9</v>
+      <c r="D239" s="2">
+        <v>4.0504190000000003E-9</v>
       </c>
       <c r="F239" s="2">
         <v>4.0504190000000003E-9</v>
@@ -5968,8 +5968,8 @@
       <c r="C240" s="3">
         <v>22.63</v>
       </c>
-      <c r="D240">
-        <v>1.262805E-9</v>
+      <c r="D240" s="2">
+        <v>5.2179510000000001E-9</v>
       </c>
       <c r="F240" s="2">
         <v>5.2179510000000001E-9</v>
@@ -5991,8 +5991,8 @@
       <c r="C241" s="3">
         <v>22.63</v>
       </c>
-      <c r="D241">
-        <v>1.26699E-9</v>
+      <c r="D241" s="2">
+        <v>4.926063E-9</v>
       </c>
       <c r="F241" s="2">
         <v>4.926063E-9</v>
@@ -6014,8 +6014,8 @@
       <c r="C242" s="3">
         <v>22.63</v>
       </c>
-      <c r="D242">
-        <v>1.27217E-9</v>
+      <c r="D242" s="2">
+        <v>5.2179510000000001E-9</v>
       </c>
       <c r="F242" s="2">
         <v>5.2179510000000001E-9</v>
@@ -6037,8 +6037,8 @@
       <c r="C243" s="3">
         <v>22.63</v>
       </c>
-      <c r="D243">
-        <v>1.2775080000000001E-9</v>
+      <c r="D243" s="2">
+        <v>4.9831050000000002E-9</v>
       </c>
       <c r="F243" s="2">
         <v>4.9831050000000002E-9</v>
@@ -6060,8 +6060,8 @@
       <c r="C244" s="3">
         <v>22.63</v>
       </c>
-      <c r="D244">
-        <v>1.283639E-9</v>
+      <c r="D244" s="2">
+        <v>5.2783719999999996E-9</v>
       </c>
       <c r="F244" s="2">
         <v>5.2783719999999996E-9</v>
@@ -6083,8 +6083,8 @@
       <c r="C245" s="3">
         <v>22.63</v>
       </c>
-      <c r="D245">
-        <v>1.287964E-9</v>
+      <c r="D245" s="2">
+        <v>4.9545019999999996E-9</v>
       </c>
       <c r="F245" s="2">
         <v>4.9545019999999996E-9</v>
@@ -6106,8 +6106,8 @@
       <c r="C246" s="3">
         <v>22.63</v>
       </c>
-      <c r="D246">
-        <v>1.2934389999999999E-9</v>
+      <c r="D246" s="2">
+        <v>4.8139330000000003E-9</v>
       </c>
       <c r="F246" s="2">
         <v>4.8139330000000003E-9</v>
@@ -6129,8 +6129,8 @@
       <c r="C247" s="3">
         <v>22.63</v>
       </c>
-      <c r="D247">
-        <v>1.2984080000000001E-9</v>
+      <c r="D247" s="2">
+        <v>4.926063E-9</v>
       </c>
       <c r="F247" s="2">
         <v>4.926063E-9</v>
@@ -6152,8 +6152,8 @@
       <c r="C248" s="3">
         <v>22.63</v>
       </c>
-      <c r="D248">
-        <v>1.3035720000000001E-9</v>
+      <c r="D248" s="2">
+        <v>4.2413100000000001E-9</v>
       </c>
       <c r="F248" s="2">
         <v>4.2413100000000001E-9</v>
@@ -6175,8 +6175,8 @@
       <c r="C249" s="3">
         <v>22.63</v>
       </c>
-      <c r="D249">
-        <v>1.3085950000000001E-9</v>
+      <c r="D249" s="2">
+        <v>4.9831050000000002E-9</v>
       </c>
       <c r="F249" s="2">
         <v>4.9831050000000002E-9</v>
@@ -6198,8 +6198,8 @@
       <c r="C250" s="3">
         <v>22.63</v>
       </c>
-      <c r="D250">
-        <v>1.31501E-9</v>
+      <c r="D250" s="2">
+        <v>4.0504190000000003E-9</v>
       </c>
       <c r="F250" s="2">
         <v>4.0504190000000003E-9</v>
@@ -6221,8 +6221,8 @@
       <c r="C251" s="3">
         <v>22.63</v>
       </c>
-      <c r="D251">
-        <v>1.3200309999999999E-9</v>
+      <c r="D251" s="2">
+        <v>5.0991759999999997E-9</v>
       </c>
       <c r="F251" s="2">
         <v>5.0991759999999997E-9</v>
@@ -6244,8 +6244,8 @@
       <c r="C252" s="3">
         <v>22.63</v>
       </c>
-      <c r="D252">
-        <v>1.326032E-9</v>
+      <c r="D252" s="2">
+        <v>4.4926229999999999E-9</v>
       </c>
       <c r="F252" s="2">
         <v>4.4926229999999999E-9</v>
@@ -6267,8 +6267,8 @@
       <c r="C253" s="3">
         <v>22.63</v>
       </c>
-      <c r="D253">
-        <v>1.332728E-9</v>
+      <c r="D253" s="2">
+        <v>5.0699070000000002E-9</v>
       </c>
       <c r="F253" s="2">
         <v>5.0699070000000002E-9</v>
@@ -6290,8 +6290,8 @@
       <c r="C254" s="3">
         <v>22.63</v>
       </c>
-      <c r="D254">
-        <v>1.3390729999999999E-9</v>
+      <c r="D254" s="2">
+        <v>5.3394929999999999E-9</v>
       </c>
       <c r="F254" s="2">
         <v>5.3394929999999999E-9</v>
@@ -6313,8 +6313,8 @@
       <c r="C255" s="3">
         <v>22.63</v>
       </c>
-      <c r="D255">
-        <v>1.3452909999999999E-9</v>
+      <c r="D255" s="2">
+        <v>5.2179510000000001E-9</v>
       </c>
       <c r="F255" s="2">
         <v>5.2179510000000001E-9</v>
@@ -6336,8 +6336,8 @@
       <c r="C256" s="3">
         <v>22.63</v>
       </c>
-      <c r="D256">
-        <v>1.349345E-9</v>
+      <c r="D256" s="2">
+        <v>5.6234130000000003E-9</v>
       </c>
       <c r="F256" s="2">
         <v>5.6234130000000003E-9</v>
@@ -6359,8 +6359,8 @@
       <c r="C257" s="3">
         <v>22.63</v>
       </c>
-      <c r="D257">
-        <v>1.3549089999999999E-9</v>
+      <c r="D257" s="2">
+        <v>5.3703179999999999E-9</v>
       </c>
       <c r="F257" s="2">
         <v>5.3703179999999999E-9</v>
@@ -6382,8 +6382,8 @@
       <c r="C258" s="3">
         <v>22.63</v>
       </c>
-      <c r="D258">
-        <v>1.361148E-9</v>
+      <c r="D258" s="2">
+        <v>4.1209749999999996E-9</v>
       </c>
       <c r="F258" s="2">
         <v>4.1209749999999996E-9</v>
@@ -6405,8 +6405,8 @@
       <c r="C259" s="3">
         <v>22.63</v>
       </c>
-      <c r="D259">
-        <v>1.369163E-9</v>
+      <c r="D259" s="2">
+        <v>5.3394929999999999E-9</v>
       </c>
       <c r="F259" s="2">
         <v>5.3394929999999999E-9</v>
@@ -6428,8 +6428,8 @@
       <c r="C260" s="3">
         <v>22.63</v>
       </c>
-      <c r="D260">
-        <v>1.37694E-9</v>
+      <c r="D260" s="2">
+        <v>4.5972699999999998E-9</v>
       </c>
       <c r="F260" s="2">
         <v>4.5972699999999998E-9</v>
@@ -6451,8 +6451,8 @@
       <c r="C261" s="3">
         <v>22.63</v>
       </c>
-      <c r="D261">
-        <v>1.3840450000000001E-9</v>
+      <c r="D261" s="2">
+        <v>5.4013209999999996E-9</v>
       </c>
       <c r="F261" s="2">
         <v>5.4013209999999996E-9</v>
@@ -6474,8 +6474,8 @@
       <c r="C262" s="3">
         <v>22.63</v>
       </c>
-      <c r="D262">
-        <v>1.3891979999999999E-9</v>
+      <c r="D262" s="2">
+        <v>4.926063E-9</v>
       </c>
       <c r="F262" s="2">
         <v>4.926063E-9</v>
@@ -6497,8 +6497,8 @@
       <c r="C263" s="3">
         <v>22.63</v>
       </c>
-      <c r="D263">
-        <v>1.3946770000000001E-9</v>
+      <c r="D263" s="2">
+        <v>5.9910090000000001E-9</v>
       </c>
       <c r="F263" s="2">
         <v>5.9910090000000001E-9</v>
@@ -6520,8 +6520,8 @@
       <c r="C264" s="3">
         <v>22.63</v>
       </c>
-      <c r="D264">
-        <v>1.3993220000000001E-9</v>
+      <c r="D264" s="2">
+        <v>5.1582220000000002E-9</v>
       </c>
       <c r="F264" s="2">
         <v>5.1582220000000002E-9</v>
@@ -6543,8 +6543,8 @@
       <c r="C265" s="3">
         <v>22.63</v>
       </c>
-      <c r="D265">
-        <v>1.4046299999999999E-9</v>
+      <c r="D265" s="2">
+        <v>6.2733569999999998E-9</v>
       </c>
       <c r="F265" s="2">
         <v>6.2733569999999998E-9</v>
@@ -6566,8 +6566,8 @@
       <c r="C266" s="3">
         <v>22.63</v>
       </c>
-      <c r="D266">
-        <v>1.410217E-9</v>
+      <c r="D266" s="2">
+        <v>5.1582220000000002E-9</v>
       </c>
       <c r="F266" s="2">
         <v>5.1582220000000002E-9</v>
@@ -6589,8 +6589,8 @@
       <c r="C267" s="3">
         <v>22.63</v>
       </c>
-      <c r="D267">
-        <v>1.416158E-9</v>
+      <c r="D267" s="2">
+        <v>6.4938160000000002E-9</v>
       </c>
       <c r="F267" s="2">
         <v>6.4938160000000002E-9</v>
@@ -6612,8 +6612,8 @@
       <c r="C268" s="3">
         <v>22.63</v>
       </c>
-      <c r="D268">
-        <v>1.42118E-9</v>
+      <c r="D268" s="2">
+        <v>5.3394929999999999E-9</v>
       </c>
       <c r="F268" s="2">
         <v>5.3394929999999999E-9</v>
@@ -6635,8 +6635,8 @@
       <c r="C269" s="3">
         <v>22.63</v>
       </c>
-      <c r="D269">
-        <v>1.4269629999999999E-9</v>
+      <c r="D269" s="2">
+        <v>6.8785990000000003E-9</v>
       </c>
       <c r="F269" s="2">
         <v>6.8785990000000003E-9</v>
@@ -6658,8 +6658,8 @@
       <c r="C270" s="3">
         <v>22.63</v>
       </c>
-      <c r="D270">
-        <v>1.431935E-9</v>
+      <c r="D270" s="2">
+        <v>5.5271340000000002E-9</v>
       </c>
       <c r="F270" s="2">
         <v>5.5271340000000002E-9</v>
@@ -6681,8 +6681,8 @@
       <c r="C271" s="3">
         <v>22.63</v>
       </c>
-      <c r="D271">
-        <v>1.436907E-9</v>
+      <c r="D271" s="2">
+        <v>6.9984199999999999E-9</v>
       </c>
       <c r="F271" s="2">
         <v>6.9984199999999999E-9</v>
@@ -6704,8 +6704,8 @@
       <c r="C272" s="3">
         <v>22.63</v>
       </c>
-      <c r="D272">
-        <v>1.443018E-9</v>
+      <c r="D272" s="2">
+        <v>5.6885290000000001E-9</v>
       </c>
       <c r="F272" s="2">
         <v>5.6885290000000001E-9</v>
@@ -6727,8 +6727,8 @@
       <c r="C273" s="3">
         <v>22.63</v>
       </c>
-      <c r="D273">
-        <v>1.448259E-9</v>
+      <c r="D273" s="2">
+        <v>4.9545019999999996E-9</v>
       </c>
       <c r="F273" s="2">
         <v>4.9545019999999996E-9</v>
@@ -6750,8 +6750,8 @@
       <c r="C274" s="3">
         <v>22.63</v>
       </c>
-      <c r="D274">
-        <v>1.456837E-9</v>
+      <c r="D274" s="2">
+        <v>5.559043E-9</v>
       </c>
       <c r="F274" s="2">
         <v>5.559043E-9</v>
@@ -6773,8 +6773,8 @@
       <c r="C275" s="3">
         <v>22.63</v>
       </c>
-      <c r="D275">
-        <v>1.4654200000000001E-9</v>
+      <c r="D275" s="2">
+        <v>5.4013209999999996E-9</v>
       </c>
       <c r="F275" s="2">
         <v>5.4013209999999996E-9</v>
@@ -6796,8 +6796,8 @@
       <c r="C276" s="3">
         <v>22.63</v>
       </c>
-      <c r="D276">
-        <v>1.473861E-9</v>
+      <c r="D276" s="2">
+        <v>5.6558780000000003E-9</v>
       </c>
       <c r="F276" s="2">
         <v>5.6558780000000003E-9</v>
@@ -6819,8 +6819,8 @@
       <c r="C277" s="3">
         <v>22.63</v>
       </c>
-      <c r="D277">
-        <v>1.4823050000000001E-9</v>
+      <c r="D277" s="2">
+        <v>5.6558780000000003E-9</v>
       </c>
       <c r="F277" s="2">
         <v>5.6558780000000003E-9</v>
@@ -6842,8 +6842,8 @@
       <c r="C278" s="3">
         <v>22.63</v>
       </c>
-      <c r="D278">
-        <v>1.490626E-9</v>
+      <c r="D278" s="2">
+        <v>5.8210319999999999E-9</v>
       </c>
       <c r="F278" s="2">
         <v>5.8210319999999999E-9</v>
@@ -6865,8 +6865,8 @@
       <c r="C279" s="3">
         <v>22.63</v>
       </c>
-      <c r="D279">
-        <v>1.4965439999999999E-9</v>
+      <c r="D279" s="2">
+        <v>5.6885290000000001E-9</v>
       </c>
       <c r="F279" s="2">
         <v>5.6885290000000001E-9</v>
@@ -6888,8 +6888,8 @@
       <c r="C280" s="3">
         <v>22.63</v>
       </c>
-      <c r="D280">
-        <v>1.5041710000000001E-9</v>
+      <c r="D280" s="2">
+        <v>6.6450769999999998E-9</v>
       </c>
       <c r="F280" s="2">
         <v>6.6450769999999998E-9</v>
@@ -6911,8 +6911,8 @@
       <c r="C281" s="3">
         <v>22.63</v>
       </c>
-      <c r="D281">
-        <v>1.5120719999999999E-9</v>
+      <c r="D281" s="2">
+        <v>5.6234130000000003E-9</v>
       </c>
       <c r="F281" s="2">
         <v>5.6234130000000003E-9</v>
@@ -6934,8 +6934,8 @@
       <c r="C282" s="3">
         <v>22.63</v>
       </c>
-      <c r="D282">
-        <v>1.519055E-9</v>
+      <c r="D282" s="2">
+        <v>6.9183099999999999E-9</v>
       </c>
       <c r="F282" s="2">
         <v>6.9183099999999999E-9</v>
@@ -6957,8 +6957,8 @@
       <c r="C283" s="3">
         <v>22.63</v>
       </c>
-      <c r="D283">
-        <v>1.5253720000000001E-9</v>
+      <c r="D283" s="2">
+        <v>5.7543990000000004E-9</v>
       </c>
       <c r="F283" s="2">
         <v>5.7543990000000004E-9</v>
@@ -6980,8 +6980,8 @@
       <c r="C284" s="3">
         <v>22.63</v>
       </c>
-      <c r="D284">
-        <v>1.5296860000000001E-9</v>
+      <c r="D284" s="2">
+        <v>7.5857760000000006E-9</v>
       </c>
       <c r="F284" s="2">
         <v>7.5857760000000006E-9</v>
@@ -7003,8 +7003,8 @@
       <c r="C285" s="3">
         <v>22.63</v>
       </c>
-      <c r="D285">
-        <v>1.5322089999999999E-9</v>
+      <c r="D285" s="2">
+        <v>5.7543990000000004E-9</v>
       </c>
       <c r="F285" s="2">
         <v>5.7543990000000004E-9</v>
@@ -7026,8 +7026,8 @@
       <c r="C286" s="3">
         <v>22.63</v>
       </c>
-      <c r="D286">
-        <v>1.5356439999999999E-9</v>
+      <c r="D286" s="2">
+        <v>7.24436E-9</v>
       </c>
       <c r="F286" s="2">
         <v>7.24436E-9</v>
@@ -7049,8 +7049,8 @@
       <c r="C287" s="3">
         <v>22.63</v>
       </c>
-      <c r="D287">
-        <v>1.540747E-9</v>
+      <c r="D287" s="2">
+        <v>6.0255959999999999E-9</v>
       </c>
       <c r="F287" s="2">
         <v>6.0255959999999999E-9</v>
@@ -7072,8 +7072,8 @@
       <c r="C288" s="3">
         <v>22.63</v>
       </c>
-      <c r="D288">
-        <v>1.545835E-9</v>
+      <c r="D288" s="2">
+        <v>7.6295689999999994E-9</v>
       </c>
       <c r="F288" s="2">
         <v>7.6295689999999994E-9</v>
@@ -7095,8 +7095,8 @@
       <c r="C289" s="3">
         <v>22.63</v>
       </c>
-      <c r="D289">
-        <v>1.551581E-9</v>
+      <c r="D289" s="2">
+        <v>5.956621E-9</v>
       </c>
       <c r="F289" s="2">
         <v>5.956621E-9</v>
@@ -7118,8 +7118,8 @@
       <c r="C290" s="3">
         <v>22.63</v>
       </c>
-      <c r="D290">
-        <v>1.5564699999999999E-9</v>
+      <c r="D290" s="2">
+        <v>4.9831050000000002E-9</v>
       </c>
       <c r="F290" s="2">
         <v>4.9831050000000002E-9</v>
@@ -7141,8 +7141,8 @@
       <c r="C291" s="3">
         <v>22.63</v>
       </c>
-      <c r="D291">
-        <v>1.563178E-9</v>
+      <c r="D291" s="2">
+        <v>5.8884369999999999E-9</v>
       </c>
       <c r="F291" s="2">
         <v>5.8884369999999999E-9</v>
@@ -7164,8 +7164,8 @@
       <c r="C292" s="3">
         <v>22.63</v>
       </c>
-      <c r="D292">
-        <v>1.5697720000000001E-9</v>
+      <c r="D292" s="2">
+        <v>5.0408059999999996E-9</v>
       </c>
       <c r="F292" s="2">
         <v>5.0408059999999996E-9</v>
@@ -7187,8 +7187,8 @@
       <c r="C293" s="3">
         <v>22.63</v>
       </c>
-      <c r="D293">
-        <v>1.575991E-9</v>
+      <c r="D293" s="2">
+        <v>5.8210319999999999E-9</v>
       </c>
       <c r="F293" s="2">
         <v>5.8210319999999999E-9</v>
@@ -7210,8 +7210,8 @@
       <c r="C294" s="3">
         <v>22.63</v>
       </c>
-      <c r="D294">
-        <v>1.5840590000000001E-9</v>
+      <c r="D294" s="2">
+        <v>5.7876199999999999E-9</v>
       </c>
       <c r="F294" s="2">
         <v>5.7876199999999999E-9</v>
@@ -7233,8 +7233,8 @@
       <c r="C295" s="3">
         <v>22.63</v>
       </c>
-      <c r="D295">
-        <v>1.5924320000000001E-9</v>
+      <c r="D295" s="2">
+        <v>6.1659500000000002E-9</v>
       </c>
       <c r="F295" s="2">
         <v>6.1659500000000002E-9</v>
@@ -7256,8 +7256,8 @@
       <c r="C296" s="3">
         <v>22.63</v>
       </c>
-      <c r="D296">
-        <v>1.599421E-9</v>
+      <c r="D296" s="2">
+        <v>6.7220229999999996E-9</v>
       </c>
       <c r="F296" s="2">
         <v>6.7220229999999996E-9</v>
@@ -7279,8 +7279,8 @@
       <c r="C297" s="3">
         <v>22.63</v>
       </c>
-      <c r="D297">
-        <v>1.6076180000000001E-9</v>
+      <c r="D297" s="2">
+        <v>6.1659500000000002E-9</v>
       </c>
       <c r="F297" s="2">
         <v>6.1659500000000002E-9</v>
@@ -7302,8 +7302,8 @@
       <c r="C298" s="3">
         <v>22.63</v>
       </c>
-      <c r="D298">
-        <v>1.61557E-9</v>
+      <c r="D298" s="2">
+        <v>7.5422340000000008E-9</v>
       </c>
       <c r="F298" s="2">
         <v>7.5422340000000008E-9</v>
@@ -7325,8 +7325,8 @@
       <c r="C299" s="3">
         <v>22.63</v>
       </c>
-      <c r="D299">
-        <v>1.6228450000000001E-9</v>
+      <c r="D299" s="2">
+        <v>6.2015459999999999E-9</v>
       </c>
       <c r="F299" s="2">
         <v>6.2015459999999999E-9</v>
@@ -7348,8 +7348,8 @@
       <c r="C300" s="3">
         <v>22.63</v>
       </c>
-      <c r="D300">
-        <v>1.6287309999999999E-9</v>
+      <c r="D300" s="2">
+        <v>5.2179510000000001E-9</v>
       </c>
       <c r="F300" s="2">
         <v>5.2179510000000001E-9</v>
@@ -7371,8 +7371,8 @@
       <c r="C301" s="3">
         <v>22.63</v>
       </c>
-      <c r="D301">
-        <v>1.6335549999999999E-9</v>
+      <c r="D301" s="2">
+        <v>6.1659500000000002E-9</v>
       </c>
       <c r="F301" s="2">
         <v>6.1659500000000002E-9</v>
@@ -7394,8 +7394,8 @@
       <c r="C302" s="3">
         <v>22.63</v>
       </c>
-      <c r="D302">
-        <v>1.636931E-9</v>
+      <c r="D302" s="2">
+        <v>5.1879999999999999E-9</v>
       </c>
       <c r="F302" s="2">
         <v>5.1879999999999999E-9</v>
@@ -7417,8 +7417,8 @@
       <c r="C303" s="3">
         <v>22.63</v>
       </c>
-      <c r="D303">
-        <v>1.6420700000000001E-9</v>
+      <c r="D303" s="2">
+        <v>6.237348E-9</v>
       </c>
       <c r="F303" s="2">
         <v>6.237348E-9</v>
@@ -7440,8 +7440,8 @@
       <c r="C304" s="3">
         <v>22.63</v>
       </c>
-      <c r="D304">
-        <v>1.648171E-9</v>
+      <c r="D304" s="2">
+        <v>5.4638650000000001E-9</v>
       </c>
       <c r="F304" s="2">
         <v>5.4638650000000001E-9</v>
@@ -7463,8 +7463,8 @@
       <c r="C305" s="3">
         <v>22.63</v>
       </c>
-      <c r="D305">
-        <v>1.6545040000000001E-9</v>
+      <c r="D305" s="2">
+        <v>6.4565419999999999E-9</v>
       </c>
       <c r="F305" s="2">
         <v>6.4565419999999999E-9</v>
@@ -7486,8 +7486,8 @@
       <c r="C306" s="3">
         <v>22.63</v>
       </c>
-      <c r="D306">
-        <v>1.6615539999999999E-9</v>
+      <c r="D306" s="2">
+        <v>5.3088439999999997E-9</v>
       </c>
       <c r="F306" s="2">
         <v>5.3088439999999997E-9</v>
@@ -7509,8 +7509,8 @@
       <c r="C307" s="3">
         <v>22.63</v>
       </c>
-      <c r="D307">
-        <v>1.667023E-9</v>
+      <c r="D307" s="2">
+        <v>6.3826350000000003E-9</v>
       </c>
       <c r="F307" s="2">
         <v>6.3826350000000003E-9</v>
@@ -7532,8 +7532,8 @@
       <c r="C308" s="3">
         <v>22.63</v>
       </c>
-      <c r="D308">
-        <v>1.6743480000000001E-9</v>
+      <c r="D308" s="2">
+        <v>5.6234130000000003E-9</v>
       </c>
       <c r="F308" s="2">
         <v>5.6234130000000003E-9</v>
@@ -7555,8 +7555,8 @@
       <c r="C309" s="3">
         <v>22.63</v>
       </c>
-      <c r="D309">
-        <v>1.681638E-9</v>
+      <c r="D309" s="2">
+        <v>6.4565419999999999E-9</v>
       </c>
       <c r="F309" s="2">
         <v>6.4565419999999999E-9</v>
@@ -7578,8 +7578,8 @@
       <c r="C310" s="3">
         <v>22.63</v>
       </c>
-      <c r="D310">
-        <v>1.689441E-9</v>
+      <c r="D310" s="2">
+        <v>5.6558780000000003E-9</v>
       </c>
       <c r="F310" s="2">
         <v>5.6558780000000003E-9</v>
@@ -7601,8 +7601,8 @@
       <c r="C311" s="3">
         <v>22.63</v>
       </c>
-      <c r="D311">
-        <v>1.6971830000000001E-9</v>
+      <c r="D311" s="2">
+        <v>6.6069339999999997E-9</v>
       </c>
       <c r="F311" s="2">
         <v>6.6069339999999997E-9</v>
@@ -7624,8 +7624,8 @@
       <c r="C312" s="3">
         <v>22.63</v>
       </c>
-      <c r="D312">
-        <v>1.7056730000000001E-9</v>
+      <c r="D312" s="2">
+        <v>6.2015459999999999E-9</v>
       </c>
       <c r="F312" s="2">
         <v>6.2015459999999999E-9</v>
@@ -7647,8 +7647,8 @@
       <c r="C313" s="3">
         <v>22.63</v>
       </c>
-      <c r="D313">
-        <v>1.71199E-9</v>
+      <c r="D313" s="2">
+        <v>6.5313059999999998E-9</v>
       </c>
       <c r="F313" s="2">
         <v>6.5313059999999998E-9</v>
@@ -7670,8 +7670,8 @@
       <c r="C314" s="3">
         <v>22.63</v>
       </c>
-      <c r="D314">
-        <v>1.7198E-9</v>
+      <c r="D314" s="2">
+        <v>6.1659500000000002E-9</v>
       </c>
       <c r="F314" s="2">
         <v>6.1659500000000002E-9</v>
@@ -7693,8 +7693,8 @@
       <c r="C315" s="3">
         <v>22.63</v>
       </c>
-      <c r="D315">
-        <v>1.7247839999999999E-9</v>
+      <c r="D315" s="2">
+        <v>6.4938160000000002E-9</v>
       </c>
       <c r="F315" s="2">
         <v>6.4938160000000002E-9</v>
@@ -7716,8 +7716,8 @@
       <c r="C316" s="3">
         <v>22.63</v>
       </c>
-      <c r="D316">
-        <v>1.729808E-9</v>
+      <c r="D316" s="2">
+        <v>6.4565419999999999E-9</v>
       </c>
       <c r="F316" s="2">
         <v>6.4565419999999999E-9</v>
@@ -7739,8 +7739,8 @@
       <c r="C317" s="3">
         <v>22.63</v>
       </c>
-      <c r="D317">
-        <v>1.734473E-9</v>
+      <c r="D317" s="2">
+        <v>7.455899E-9</v>
       </c>
       <c r="F317" s="2">
         <v>7.455899E-9</v>
@@ -7762,8 +7762,8 @@
       <c r="C318" s="3">
         <v>22.63</v>
       </c>
-      <c r="D318">
-        <v>1.7381249999999999E-9</v>
+      <c r="D318" s="2">
+        <v>6.3459989999999999E-9</v>
       </c>
       <c r="F318" s="2">
         <v>6.3459989999999999E-9</v>
@@ -7785,8 +7785,8 @@
       <c r="C319" s="3">
         <v>22.63</v>
       </c>
-      <c r="D319">
-        <v>1.739886E-9</v>
+      <c r="D319" s="2">
+        <v>8.1283049999999997E-9</v>
       </c>
       <c r="F319" s="2">
         <v>8.1283049999999997E-9</v>
@@ -7808,8 +7808,8 @@
       <c r="C320" s="3">
         <v>22.63</v>
       </c>
-      <c r="D320">
-        <v>1.739871E-9</v>
+      <c r="D320" s="2">
+        <v>6.1659500000000002E-9</v>
       </c>
       <c r="F320" s="2">
         <v>6.1659500000000002E-9</v>
@@ -7831,8 +7831,8 @@
       <c r="C321" s="3">
         <v>22.63</v>
       </c>
-      <c r="D321">
-        <v>1.737699E-9</v>
+      <c r="D321" s="2">
+        <v>7.286182E-9</v>
       </c>
       <c r="F321" s="2">
         <v>7.286182E-9</v>
@@ -7854,8 +7854,8 @@
       <c r="C322" s="3">
         <v>22.63</v>
       </c>
-      <c r="D322">
-        <v>1.7349209999999999E-9</v>
+      <c r="D322" s="2">
+        <v>6.3095730000000003E-9</v>
       </c>
       <c r="F322" s="2">
         <v>6.3095730000000003E-9</v>
@@ -7877,8 +7877,8 @@
       <c r="C323" s="3">
         <v>22.63</v>
       </c>
-      <c r="D323">
-        <v>1.731736E-9</v>
+      <c r="D323" s="2">
+        <v>5.3394929999999999E-9</v>
       </c>
       <c r="F323" s="2">
         <v>5.3394929999999999E-9</v>
@@ -7900,8 +7900,8 @@
       <c r="C324" s="3">
         <v>22.63</v>
       </c>
-      <c r="D324">
-        <v>1.7297699999999999E-9</v>
+      <c r="D324" s="2">
+        <v>6.3459989999999999E-9</v>
       </c>
       <c r="F324" s="2">
         <v>6.3459989999999999E-9</v>
@@ -7923,8 +7923,8 @@
       <c r="C325" s="3">
         <v>22.63</v>
       </c>
-      <c r="D325">
-        <v>1.7265380000000001E-9</v>
+      <c r="D325" s="2">
+        <v>5.4638650000000001E-9</v>
       </c>
       <c r="F325" s="2">
         <v>5.4638650000000001E-9</v>
@@ -7946,8 +7946,8 @@
       <c r="C326" s="3">
         <v>22.63</v>
       </c>
-      <c r="D326">
-        <v>1.7242920000000001E-9</v>
+      <c r="D326" s="2">
+        <v>6.5313059999999998E-9</v>
       </c>
       <c r="F326" s="2">
         <v>6.5313059999999998E-9</v>
@@ -7969,8 +7969,8 @@
       <c r="C327" s="3">
         <v>22.63</v>
       </c>
-      <c r="D327">
-        <v>1.718535E-9</v>
+      <c r="D327" s="2">
+        <v>5.8884369999999999E-9</v>
       </c>
       <c r="F327" s="2">
         <v>5.8884369999999999E-9</v>
@@ -7992,8 +7992,8 @@
       <c r="C328" s="3">
         <v>22.63</v>
       </c>
-      <c r="D328">
-        <v>1.711536E-9</v>
+      <c r="D328" s="2">
+        <v>6.4565419999999999E-9</v>
       </c>
       <c r="F328" s="2">
         <v>6.4565419999999999E-9</v>
@@ -8015,8 +8015,8 @@
       <c r="C329" s="3">
         <v>22.63</v>
       </c>
-      <c r="D329">
-        <v>1.705281E-9</v>
+      <c r="D329" s="2">
+        <v>6.4194820000000001E-9</v>
       </c>
       <c r="F329" s="2">
         <v>6.4194820000000001E-9</v>
@@ -8038,8 +8038,8 @@
       <c r="C330" s="3">
         <v>22.63</v>
       </c>
-      <c r="D330">
-        <v>1.7008439999999999E-9</v>
+      <c r="D330" s="2">
+        <v>6.4938160000000002E-9</v>
       </c>
       <c r="F330" s="2">
         <v>6.4938160000000002E-9</v>
@@ -8061,8 +8061,8 @@
       <c r="C331" s="3">
         <v>22.63</v>
       </c>
-      <c r="D331">
-        <v>1.6964429999999999E-9</v>
+      <c r="D331" s="2">
+        <v>6.1659500000000002E-9</v>
       </c>
       <c r="F331" s="2">
         <v>6.1659500000000002E-9</v>
@@ -8084,8 +8084,8 @@
       <c r="C332" s="3">
         <v>22.63</v>
       </c>
-      <c r="D332">
-        <v>1.693644E-9</v>
+      <c r="D332" s="2">
+        <v>7.3282449999999999E-9</v>
       </c>
       <c r="F332" s="2">
         <v>7.3282449999999999E-9</v>
@@ -8107,8 +8107,8 @@
       <c r="C333" s="3">
         <v>22.63</v>
       </c>
-      <c r="D333">
-        <v>1.690837E-9</v>
+      <c r="D333" s="2">
+        <v>6.1659500000000002E-9</v>
       </c>
       <c r="F333" s="2">
         <v>6.1659500000000002E-9</v>
@@ -8130,8 +8130,8 @@
       <c r="C334" s="3">
         <v>22.63</v>
       </c>
-      <c r="D334">
-        <v>1.688468E-9</v>
+      <c r="D334" s="2">
+        <v>5.2179510000000001E-9</v>
       </c>
       <c r="F334" s="2">
         <v>5.2179510000000001E-9</v>
@@ -8153,8 +8153,8 @@
       <c r="C335" s="3">
         <v>22.63</v>
       </c>
-      <c r="D335">
-        <v>1.6857960000000001E-9</v>
+      <c r="D335" s="2">
+        <v>6.1305580000000002E-9</v>
       </c>
       <c r="F335" s="2">
         <v>6.1305580000000002E-9</v>
@@ -8176,8 +8176,8 @@
       <c r="C336" s="3">
         <v>22.63</v>
       </c>
-      <c r="D336">
-        <v>1.6841470000000001E-9</v>
+      <c r="D336" s="2">
+        <v>5.3394929999999999E-9</v>
       </c>
       <c r="F336" s="2">
         <v>5.3394929999999999E-9</v>
@@ -8199,8 +8199,8 @@
       <c r="C337" s="3">
         <v>22.63</v>
       </c>
-      <c r="D337">
-        <v>1.681985E-9</v>
+      <c r="D337" s="2">
+        <v>6.4194820000000001E-9</v>
       </c>
       <c r="F337" s="2">
         <v>6.4194820000000001E-9</v>
@@ -8222,8 +8222,8 @@
       <c r="C338" s="3">
         <v>22.63</v>
       </c>
-      <c r="D338">
-        <v>1.6818149999999999E-9</v>
+      <c r="D338" s="2">
+        <v>6.0603820000000003E-9</v>
       </c>
       <c r="F338" s="2">
         <v>6.0603820000000003E-9</v>
@@ -8245,8 +8245,8 @@
       <c r="C339" s="3">
         <v>22.63</v>
       </c>
-      <c r="D339">
-        <v>1.6813360000000001E-9</v>
+      <c r="D339" s="2">
+        <v>6.9582499999999996E-9</v>
       </c>
       <c r="F339" s="2">
         <v>6.9582499999999996E-9</v>
@@ -8268,8 +8268,8 @@
       <c r="C340" s="3">
         <v>22.63</v>
       </c>
-      <c r="D340">
-        <v>1.6822520000000001E-9</v>
+      <c r="D340" s="2">
+        <v>6.1305580000000002E-9</v>
       </c>
       <c r="F340" s="2">
         <v>6.1305580000000002E-9</v>
@@ -8291,8 +8291,8 @@
       <c r="C341" s="3">
         <v>22.63</v>
       </c>
-      <c r="D341">
-        <v>1.6826569999999999E-9</v>
+      <c r="D341" s="2">
+        <v>8.1752299999999993E-9</v>
       </c>
       <c r="F341" s="2">
         <v>8.1752299999999993E-9</v>
@@ -8314,8 +8314,8 @@
       <c r="C342" s="3">
         <v>22.63</v>
       </c>
-      <c r="D342">
-        <v>1.68355E-9</v>
+      <c r="D342" s="2">
+        <v>6.2733569999999998E-9</v>
       </c>
       <c r="F342" s="2">
         <v>6.2733569999999998E-9</v>
@@ -8337,8 +8337,8 @@
       <c r="C343" s="3">
         <v>22.63</v>
       </c>
-      <c r="D343">
-        <v>1.684011E-9</v>
+      <c r="D343" s="2">
+        <v>7.3282449999999999E-9</v>
       </c>
       <c r="F343" s="2">
         <v>7.3282449999999999E-9</v>
@@ -8360,8 +8360,8 @@
       <c r="C344" s="3">
         <v>22.63</v>
       </c>
-      <c r="D344">
-        <v>1.6846919999999999E-9</v>
+      <c r="D344" s="2">
+        <v>6.4194820000000001E-9</v>
       </c>
       <c r="F344" s="2">
         <v>6.4194820000000001E-9</v>
@@ -8383,8 +8383,8 @@
       <c r="C345" s="3">
         <v>22.63</v>
       </c>
-      <c r="D345">
-        <v>1.6855749999999999E-9</v>
+      <c r="D345" s="2">
+        <v>6.5690110000000002E-9</v>
       </c>
       <c r="F345" s="2">
         <v>6.5690110000000002E-9</v>
@@ -8406,8 +8406,8 @@
       <c r="C346" s="3">
         <v>22.63</v>
       </c>
-      <c r="D346">
-        <v>1.6865200000000001E-9</v>
+      <c r="D346" s="2">
+        <v>6.3826350000000003E-9</v>
       </c>
       <c r="F346" s="2">
         <v>6.3826350000000003E-9</v>
@@ -8429,8 +8429,8 @@
       <c r="C347" s="3">
         <v>22.63</v>
       </c>
-      <c r="D347">
-        <v>1.686495E-9</v>
+      <c r="D347" s="2">
+        <v>6.2015459999999999E-9</v>
       </c>
       <c r="F347" s="2">
         <v>6.2015459999999999E-9</v>
@@ -8452,8 +8452,8 @@
       <c r="C348" s="3">
         <v>22.63</v>
       </c>
-      <c r="D348">
-        <v>1.686798E-9</v>
+      <c r="D348" s="2">
+        <v>6.237348E-9</v>
       </c>
       <c r="F348" s="2">
         <v>6.237348E-9</v>
@@ -8475,8 +8475,8 @@
       <c r="C349" s="3">
         <v>22.63</v>
       </c>
-      <c r="D349">
-        <v>1.6869079999999999E-9</v>
+      <c r="D349" s="2">
+        <v>5.559043E-9</v>
       </c>
       <c r="F349" s="2">
         <v>5.559043E-9</v>
@@ -8498,8 +8498,8 @@
       <c r="C350" s="3">
         <v>22.63</v>
       </c>
-      <c r="D350">
-        <v>1.685934E-9</v>
+      <c r="D350" s="2">
+        <v>6.3095730000000003E-9</v>
       </c>
       <c r="F350" s="2">
         <v>6.3095730000000003E-9</v>
@@ -8521,8 +8521,8 @@
       <c r="C351" s="3">
         <v>22.63</v>
       </c>
-      <c r="D351">
-        <v>1.685544E-9</v>
+      <c r="D351" s="2">
+        <v>5.3703179999999999E-9</v>
       </c>
       <c r="F351" s="2">
         <v>5.3703179999999999E-9</v>
@@ -8544,8 +8544,8 @@
       <c r="C352" s="3">
         <v>22.63</v>
       </c>
-      <c r="D352">
-        <v>1.6852030000000001E-9</v>
+      <c r="D352" s="2">
+        <v>6.2015459999999999E-9</v>
       </c>
       <c r="F352" s="2">
         <v>6.2015459999999999E-9</v>
@@ -8567,8 +8567,8 @@
       <c r="C353" s="3">
         <v>22.63</v>
       </c>
-      <c r="D353">
-        <v>1.684501E-9</v>
+      <c r="D353" s="2">
+        <v>5.4325030000000001E-9</v>
       </c>
       <c r="F353" s="2">
         <v>5.4325030000000001E-9</v>
@@ -8590,8 +8590,8 @@
       <c r="C354" s="3">
         <v>22.63</v>
       </c>
-      <c r="D354">
-        <v>1.683049E-9</v>
+      <c r="D354" s="2">
+        <v>6.3459989999999999E-9</v>
       </c>
       <c r="F354" s="2">
         <v>6.3459989999999999E-9</v>
@@ -8613,8 +8613,8 @@
       <c r="C355" s="3">
         <v>22.63</v>
       </c>
-      <c r="D355">
-        <v>1.6802799999999999E-9</v>
+      <c r="D355" s="2">
+        <v>5.1879999999999999E-9</v>
       </c>
       <c r="F355" s="2">
         <v>5.1879999999999999E-9</v>
@@ -8636,8 +8636,8 @@
       <c r="C356" s="3">
         <v>22.63</v>
       </c>
-      <c r="D356">
-        <v>1.6772419999999999E-9</v>
+      <c r="D356" s="2">
+        <v>6.3826350000000003E-9</v>
       </c>
       <c r="F356" s="2">
         <v>6.3826350000000003E-9</v>
@@ -8659,8 +8659,8 @@
       <c r="C357" s="3">
         <v>22.63</v>
       </c>
-      <c r="D357">
-        <v>1.6747949999999999E-9</v>
+      <c r="D357" s="2">
+        <v>5.1879999999999999E-9</v>
       </c>
       <c r="F357" s="2">
         <v>5.1879999999999999E-9</v>
@@ -8682,8 +8682,8 @@
       <c r="C358" s="3">
         <v>22.63</v>
       </c>
-      <c r="D358">
-        <v>1.673189E-9</v>
+      <c r="D358" s="2">
+        <v>6.2733569999999998E-9</v>
       </c>
       <c r="F358" s="2">
         <v>6.2733569999999998E-9</v>
@@ -8705,8 +8705,8 @@
       <c r="C359" s="3">
         <v>22.63</v>
       </c>
-      <c r="D359">
-        <v>1.6704609999999999E-9</v>
+      <c r="D359" s="2">
+        <v>5.2179510000000001E-9</v>
       </c>
       <c r="F359" s="2">
         <v>5.2179510000000001E-9</v>
@@ -8728,8 +8728,8 @@
       <c r="C360" s="3">
         <v>22.63</v>
       </c>
-      <c r="D360">
-        <v>1.6679320000000001E-9</v>
+      <c r="D360" s="2">
+        <v>6.3095730000000003E-9</v>
       </c>
       <c r="F360" s="2">
         <v>6.3095730000000003E-9</v>
@@ -8751,8 +8751,8 @@
       <c r="C361" s="3">
         <v>22.63</v>
       </c>
-      <c r="D361">
-        <v>1.665316E-9</v>
+      <c r="D361" s="2">
+        <v>6.0603820000000003E-9</v>
       </c>
       <c r="F361" s="2">
         <v>6.0603820000000003E-9</v>
@@ -8774,8 +8774,8 @@
       <c r="C362" s="3">
         <v>22.63</v>
       </c>
-      <c r="D362">
-        <v>1.6626229999999999E-9</v>
+      <c r="D362" s="2">
+        <v>6.2733569999999998E-9</v>
       </c>
       <c r="F362" s="2">
         <v>6.2733569999999998E-9</v>
@@ -8797,8 +8797,8 @@
       <c r="C363" s="3">
         <v>22.63</v>
       </c>
-      <c r="D363">
-        <v>1.660182E-9</v>
+      <c r="D363" s="2">
+        <v>6.0255959999999999E-9</v>
       </c>
       <c r="F363" s="2">
         <v>6.0255959999999999E-9</v>
